--- a/INeuron_Checklist.xlsx
+++ b/INeuron_Checklist.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Machinelearning\iNeuron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MachineLearning\ineuraon\gitcheckin\iNeuron_ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <sheet name="Additional" sheetId="4" r:id="rId10"/>
     <sheet name="FAQ" sheetId="5" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="589">
   <si>
     <t>Induction session recording</t>
   </si>
@@ -587,9 +587,6 @@
   </si>
   <si>
     <t>Mongo DB</t>
-  </si>
-  <si>
-    <t>REST API</t>
   </si>
   <si>
     <t>Week10</t>
@@ -1879,11 +1876,56 @@
   <si>
     <t>Exception Handling Links to an external site.</t>
   </si>
+  <si>
+    <t>REST API &amp; Database</t>
+  </si>
+  <si>
+    <t>12th Dec Live Class OOPS Concept Links to an external site.</t>
+  </si>
+  <si>
+    <t>13th Dec Live Class OOPS Concept - 2 Links to an external site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17th Dec Live DOubt Clearing Session Links to an external site. </t>
+  </si>
+  <si>
+    <t>19th Dec Live Session OOPS 2nd Class + File IO Links to an external site.</t>
+  </si>
+  <si>
+    <t>20th Dec Exception Handling Links to an external site.</t>
+  </si>
+  <si>
+    <t>24th Dec Live Doubt Clearing session Links to an external site.</t>
+  </si>
+  <si>
+    <t>Pandas 1 Links to an external site.</t>
+  </si>
+  <si>
+    <t>Pandas 2 Links to an external site.</t>
+  </si>
+  <si>
+    <t>Pandas 3 Links to an external site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandas 4 Links to an external site. </t>
+  </si>
+  <si>
+    <t>02nd Jan Live Session Pandas 1st Session Links to an external site.</t>
+  </si>
+  <si>
+    <t>03rd Jan Live Session Pandas 2nd Session Links to an external site.</t>
+  </si>
+  <si>
+    <t>09th Jan Live Session Pandas 3rd Session Links to an external site.</t>
+  </si>
+  <si>
+    <t>07th Jan Live Doubt Clearing Session Links to an external site.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2008,7 +2050,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2060,6 +2102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2190,7 +2238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2256,6 +2304,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2337,7 +2388,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2626,8 +2676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="F48" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2667,7 +2717,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="10"/>
@@ -2679,7 +2729,7 @@
       <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2695,7 +2745,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2709,7 +2759,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2723,7 +2773,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2735,7 +2785,7 @@
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2749,7 +2799,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2763,7 +2813,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2773,7 +2823,7 @@
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2793,7 +2843,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
         <v>7</v>
@@ -2811,7 +2861,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>8</v>
@@ -2827,7 +2877,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
         <v>9</v>
@@ -2843,7 +2893,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
         <v>10</v>
@@ -2855,7 +2905,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
         <v>24</v>
@@ -2863,13 +2913,13 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="36" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
         <v>25</v>
@@ -2877,15 +2927,15 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="36" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="42" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2901,14 +2951,14 @@
         <v>123</v>
       </c>
       <c r="F17" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="H17" t="s">
         <v>569</v>
       </c>
-      <c r="H17" t="s">
-        <v>570</v>
-      </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
         <v>38</v>
@@ -2919,7 +2969,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
         <v>39</v>
@@ -2930,14 +2980,14 @@
         <v>49</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H19" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
         <v>40</v>
@@ -2950,14 +3000,14 @@
         <v>50</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
         <v>41</v>
@@ -2969,7 +3019,7 @@
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
         <v>42</v>
@@ -2981,7 +3031,7 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
         <v>43</v>
@@ -2993,7 +3043,7 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
         <v>44</v>
@@ -3005,7 +3055,7 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="45" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3023,13 +3073,15 @@
       <c r="F25" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="6"/>
+      <c r="G25" s="2" t="s">
+        <v>575</v>
+      </c>
       <c r="H25" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
         <v>55</v>
@@ -3043,13 +3095,15 @@
       <c r="F26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="6"/>
+      <c r="G26" s="2" t="s">
+        <v>576</v>
+      </c>
       <c r="H26" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
         <v>56</v>
@@ -3059,11 +3113,13 @@
         <v>127</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="G27" s="2" t="s">
+        <v>577</v>
+      </c>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
         <v>57</v>
@@ -3073,11 +3129,13 @@
         <v>127</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="G28" s="2" t="s">
+        <v>578</v>
+      </c>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
         <v>58</v>
@@ -3090,7 +3148,7 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -3101,7 +3159,7 @@
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -3110,7 +3168,7 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="42" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -3132,7 +3190,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
         <v>68</v>
@@ -3150,7 +3208,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
         <v>69</v>
@@ -3166,7 +3224,7 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
         <v>70</v>
@@ -3180,7 +3238,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="40"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
         <v>71</v>
@@ -3192,7 +3250,7 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="40"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
         <v>72</v>
@@ -3204,7 +3262,7 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="41"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
         <v>73</v>
@@ -3212,13 +3270,15 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="G38" s="7"/>
+        <v>573</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>579</v>
+      </c>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="64" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -3234,13 +3294,15 @@
       <c r="F39" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="2" t="s">
+        <v>580</v>
+      </c>
       <c r="H39" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
         <v>83</v>
@@ -3260,7 +3322,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="61"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
         <v>84</v>
@@ -3272,7 +3334,7 @@
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="61"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
         <v>85</v>
@@ -3284,7 +3346,7 @@
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="61"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
         <v>86</v>
@@ -3296,19 +3358,19 @@
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="63" t="s">
+      <c r="A45" s="66" t="s">
         <v>108</v>
       </c>
       <c r="B45" s="22"/>
@@ -3321,7 +3383,7 @@
       <c r="E45" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="40" t="s">
         <v>103</v>
       </c>
       <c r="G45" s="22"/>
@@ -3330,7 +3392,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
+      <c r="A46" s="67"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22" t="s">
         <v>96</v>
@@ -3339,7 +3401,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="23"/>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="40" t="s">
         <v>104</v>
       </c>
       <c r="G46" s="22"/>
@@ -3348,7 +3410,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
+      <c r="A47" s="67"/>
       <c r="B47" s="24"/>
       <c r="C47" s="22" t="s">
         <v>97</v>
@@ -3359,7 +3421,7 @@
       <c r="E47" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="40" t="s">
         <v>105</v>
       </c>
       <c r="G47" s="24"/>
@@ -3368,7 +3430,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="24"/>
       <c r="C48" s="22" t="s">
         <v>98</v>
@@ -3382,13 +3444,15 @@
       <c r="F48" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="24"/>
+      <c r="G48" s="41" t="s">
+        <v>585</v>
+      </c>
       <c r="H48" s="24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
@@ -3398,59 +3462,73 @@
       <c r="F49" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="24"/>
+      <c r="G49" s="41" t="s">
+        <v>586</v>
+      </c>
       <c r="H49" s="24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
+      <c r="A50" s="67"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
       <c r="D50" s="24"/>
       <c r="E50" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
+      <c r="F50" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>588</v>
+      </c>
       <c r="H50" s="24"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
+      <c r="A51" s="67"/>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
       <c r="E51" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
+      <c r="F51" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>587</v>
+      </c>
       <c r="H51" s="24"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
+      <c r="A52" s="67"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
       <c r="E52" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="24"/>
+      <c r="F52" s="2" t="s">
+        <v>583</v>
+      </c>
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="64"/>
+      <c r="A53" s="67"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
+      <c r="F53" s="2" t="s">
+        <v>584</v>
+      </c>
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="64"/>
+      <c r="A54" s="67"/>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
@@ -3460,7 +3538,7 @@
       <c r="H54" s="24"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
+      <c r="A55" s="68"/>
       <c r="B55" s="24"/>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
@@ -3470,16 +3548,16 @@
       <c r="H55" s="24"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="58" t="s">
+      <c r="D56" s="61" t="s">
         <v>115</v>
       </c>
       <c r="E56" s="11" t="s">
@@ -3492,10 +3570,10 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="58"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="61"/>
       <c r="E57" s="6"/>
       <c r="F57" s="11" t="s">
         <v>117</v>
@@ -3506,10 +3584,10 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="58"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="61"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -3518,40 +3596,40 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="58"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="58"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="61"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="54"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="58"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="61"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="56" t="s">
+      <c r="A62" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="B62" s="59" t="s">
+      <c r="B62" s="62" t="s">
         <v>137</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -3572,8 +3650,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
-      <c r="B63" s="60"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="63"/>
       <c r="C63" s="7" t="s">
         <v>138</v>
       </c>
@@ -3592,8 +3670,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
-      <c r="B64" s="60"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -3610,8 +3688,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
-      <c r="B65" s="60"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="63"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -3626,8 +3704,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
-      <c r="B66" s="60"/>
+      <c r="A66" s="48"/>
+      <c r="B66" s="63"/>
       <c r="C66" s="26" t="s">
         <v>141</v>
       </c>
@@ -3638,122 +3716,127 @@
       <c r="H66" s="27"/>
     </row>
     <row r="67" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="49" t="s">
+      <c r="A67" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="54"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="55" t="s">
         <v>165</v>
-      </c>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="51"/>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="52" t="s">
-        <v>166</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="23" t="s">
         <v>167</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>168</v>
       </c>
       <c r="E68" s="24"/>
       <c r="F68" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G68" s="24"/>
       <c r="H68" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="52"/>
+      <c r="A69" s="55"/>
       <c r="B69" s="24"/>
       <c r="C69" s="22" t="s">
         <v>156</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G69" s="24"/>
       <c r="H69" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="52"/>
+      <c r="A70" s="55"/>
       <c r="B70" s="24"/>
       <c r="C70" s="22" t="s">
         <v>157</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G70" s="24"/>
       <c r="H70" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="52"/>
+      <c r="A71" s="55"/>
       <c r="B71" s="24"/>
       <c r="C71" s="22" t="s">
         <v>158</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G71" s="24"/>
       <c r="H71" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="52"/>
+      <c r="A72" s="55"/>
       <c r="B72" s="24"/>
       <c r="C72" s="22" t="s">
         <v>159</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E72" s="24"/>
       <c r="F72" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G72" s="24"/>
       <c r="H72" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="52"/>
+      <c r="A73" s="55"/>
       <c r="B73" s="24"/>
       <c r="C73" s="22" t="s">
         <v>160</v>
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
+      <c r="F73" s="24" t="s">
+        <v>208</v>
+      </c>
       <c r="G73" s="24"/>
+      <c r="H73" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="52"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="24"/>
       <c r="C74" s="22" t="s">
         <v>161</v>
@@ -3765,7 +3848,7 @@
       <c r="H74" s="24"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="52"/>
+      <c r="A75" s="55"/>
       <c r="B75" s="24"/>
       <c r="C75" s="22" t="s">
         <v>162</v>
@@ -3777,7 +3860,7 @@
       <c r="H75" s="24"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="52"/>
+      <c r="A76" s="55"/>
       <c r="B76" s="24"/>
       <c r="C76" s="22" t="s">
         <v>163</v>
@@ -3789,7 +3872,7 @@
       <c r="H76" s="24"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="52"/>
+      <c r="A77" s="55"/>
       <c r="B77" s="24"/>
       <c r="C77" s="24" t="s">
         <v>164</v>
@@ -3801,123 +3884,123 @@
       <c r="H77" s="24"/>
     </row>
     <row r="78" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="53" t="s">
+      <c r="A78" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="B78" s="56"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="56"/>
+    </row>
+    <row r="79" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B78" s="53"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-    </row>
-    <row r="79" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="54" t="s">
+      <c r="C79" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E79" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>192</v>
-      </c>
       <c r="F79" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
+      <c r="A80" s="57"/>
       <c r="B80" s="12"/>
       <c r="C80" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="12"/>
       <c r="C81" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="12"/>
       <c r="C82" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="54"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="12"/>
       <c r="C83" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E83" s="6"/>
-      <c r="F83" s="66" t="s">
-        <v>198</v>
+      <c r="F83" s="39" t="s">
+        <v>197</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="54"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="12"/>
       <c r="C84" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -3929,7 +4012,7 @@
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -3941,7 +4024,7 @@
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -3963,7 +4046,7 @@
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -3975,7 +4058,7 @@
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -3994,21 +4077,21 @@
     </row>
     <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="B91" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="B91" s="29" t="s">
+      <c r="C91" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="C91" s="29" t="s">
-        <v>217</v>
-      </c>
       <c r="D91" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E91" s="29"/>
       <c r="F91" s="29"/>
       <c r="G91" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H91" s="29"/>
     </row>
@@ -4017,7 +4100,7 @@
       <c r="B92" s="29"/>
       <c r="C92" s="29"/>
       <c r="D92" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E92" s="29"/>
       <c r="F92" s="29"/>
@@ -4025,162 +4108,162 @@
       <c r="H92" s="29"/>
     </row>
     <row r="93" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="B93" s="55"/>
-      <c r="C93" s="55"/>
-      <c r="D93" s="55"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="55"/>
+      <c r="A93" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="B93" s="58"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
     </row>
     <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="B94" s="39" t="s">
+      <c r="A94" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="B94" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="D94" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="43"/>
-      <c r="B95" s="40"/>
+      <c r="A95" s="46"/>
+      <c r="B95" s="43"/>
       <c r="C95" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="43"/>
-      <c r="B96" s="40"/>
+      <c r="A96" s="46"/>
+      <c r="B96" s="43"/>
       <c r="C96" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="43"/>
-      <c r="B97" s="40"/>
+      <c r="A97" s="46"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="43"/>
-      <c r="B98" s="40"/>
+      <c r="A98" s="46"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="43"/>
-      <c r="B99" s="40"/>
+      <c r="A99" s="46"/>
+      <c r="B99" s="43"/>
       <c r="C99" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="43"/>
-      <c r="B100" s="40"/>
+      <c r="A100" s="46"/>
+      <c r="B100" s="43"/>
       <c r="C100" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G100" s="6"/>
       <c r="H100" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="43"/>
-      <c r="B101" s="40"/>
+      <c r="A101" s="46"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="43"/>
-      <c r="B102" s="40"/>
+      <c r="A102" s="46"/>
+      <c r="B102" s="43"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -4189,8 +4272,8 @@
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="43"/>
-      <c r="B103" s="40"/>
+      <c r="A103" s="46"/>
+      <c r="B103" s="43"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -4199,50 +4282,50 @@
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="43"/>
-      <c r="B104" s="40"/>
+      <c r="A104" s="46"/>
+      <c r="B104" s="43"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="43"/>
-      <c r="B105" s="40"/>
+      <c r="A105" s="46"/>
+      <c r="B105" s="43"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="43"/>
-      <c r="B106" s="40"/>
+      <c r="A106" s="46"/>
+      <c r="B106" s="43"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="44"/>
-      <c r="B107" s="41"/>
+      <c r="A107" s="47"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -4251,70 +4334,70 @@
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="45"/>
-      <c r="B108" s="45" t="s">
-        <v>221</v>
+      <c r="A108" s="48"/>
+      <c r="B108" s="48" t="s">
+        <v>220</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="46"/>
-      <c r="B109" s="46"/>
+      <c r="A109" s="49"/>
+      <c r="B109" s="49"/>
       <c r="C109" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="46"/>
-      <c r="B110" s="46"/>
+      <c r="A110" s="49"/>
+      <c r="B110" s="49"/>
       <c r="C110" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="46"/>
-      <c r="B111" s="46"/>
+      <c r="A111" s="49"/>
+      <c r="B111" s="49"/>
       <c r="C111" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
@@ -4323,10 +4406,10 @@
       <c r="H111" s="6"/>
     </row>
     <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="46"/>
-      <c r="B112" s="46"/>
+      <c r="A112" s="49"/>
+      <c r="B112" s="49"/>
       <c r="C112" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
@@ -4335,10 +4418,10 @@
       <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="46"/>
-      <c r="B113" s="46"/>
+      <c r="A113" s="49"/>
+      <c r="B113" s="49"/>
       <c r="C113" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
@@ -4347,10 +4430,10 @@
       <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="46"/>
-      <c r="B114" s="46"/>
+      <c r="A114" s="49"/>
+      <c r="B114" s="49"/>
       <c r="C114" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
@@ -4359,10 +4442,10 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="47"/>
-      <c r="B115" s="47"/>
+      <c r="A115" s="50"/>
+      <c r="B115" s="50"/>
       <c r="C115" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
@@ -4371,16 +4454,16 @@
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="B116" s="48"/>
-      <c r="C116" s="48"/>
-      <c r="D116" s="48"/>
-      <c r="E116" s="48"/>
-      <c r="F116" s="48"/>
-      <c r="G116" s="48"/>
-      <c r="H116" s="48"/>
+      <c r="A116" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" s="51"/>
+      <c r="C116" s="51"/>
+      <c r="D116" s="51"/>
+      <c r="E116" s="51"/>
+      <c r="F116" s="51"/>
+      <c r="G116" s="51"/>
+      <c r="H116" s="51"/>
     </row>
     <row r="117" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
@@ -4388,10 +4471,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -4404,10 +4487,10 @@
         <v>2</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -4420,10 +4503,10 @@
         <v>3</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -4436,10 +4519,10 @@
         <v>4</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -4452,10 +4535,10 @@
         <v>5</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -4468,10 +4551,10 @@
         <v>6</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -4484,10 +4567,10 @@
         <v>7</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -4500,10 +4583,10 @@
         <v>8</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -4516,10 +4599,10 @@
         <v>9</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -4532,10 +4615,10 @@
         <v>10</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -4696,10 +4779,24 @@
     <hyperlink ref="F34" r:id="rId124" tooltip="4th july live class OOPS" display="https://www.youtube.com/watch?v=POsa0uQN4ak&amp;t=1178s"/>
     <hyperlink ref="F39" r:id="rId125" tooltip="5th july live class Exception handling" display="https://www.youtube.com/watch?v=XBzjs4nKDII&amp;t=5173s"/>
     <hyperlink ref="F38" r:id="rId126" tooltip="Exception Handling" display="https://www.youtube.com/watch?v=gFAg6djQPMs"/>
+    <hyperlink ref="G25" r:id="rId127" tooltip="12th Dec Live Class OOPS Concept" display="https://youtu.be/vEWbVyoJBX4"/>
+    <hyperlink ref="G26" r:id="rId128" tooltip="13th Dec Live Class OOPS Concept - 2" display="https://youtu.be/X1tMQlfswXQ"/>
+    <hyperlink ref="G27" r:id="rId129" tooltip="17th Dec Live DOubt Clearing Session" display="https://youtu.be/nqkzOUp30wA"/>
+    <hyperlink ref="G28" r:id="rId130" tooltip="19th Dec Live Session OOPS 2nd Class + File IO" display="https://youtu.be/GHOfkrAGfR8"/>
+    <hyperlink ref="G38" r:id="rId131" tooltip="20th Dec Exception Handling" display="https://youtu.be/_fVaPHrcGM8"/>
+    <hyperlink ref="G39" r:id="rId132" tooltip="24th Dec Live Doubt Clearing session " display="https://youtu.be/lUjEy28Gww4"/>
+    <hyperlink ref="F50" r:id="rId133" tooltip="Pandas 1" display="https://www.youtube.com/watch?v=iOw1TaVOkwc"/>
+    <hyperlink ref="F51" r:id="rId134" tooltip="Pandas 2" display="https://www.youtube.com/watch?v=_DtjtpCCZsM&amp;feature=youtu.be"/>
+    <hyperlink ref="F52" r:id="rId135" tooltip="Pandas 3" display="https://www.youtube.com/watch?v=IaDTiS9pMVI&amp;t=4883s"/>
+    <hyperlink ref="F53" r:id="rId136" tooltip="Pandas 4" display="https://www.youtube.com/watch?v=ONNRyoXYua8&amp;feature=youtu.be"/>
+    <hyperlink ref="G48" r:id="rId137" tooltip="02nd Jan Live Session Pandas 1st Session" display="https://youtu.be/xXDzYLtyf8E"/>
+    <hyperlink ref="G49" r:id="rId138" tooltip="03rd Jan Live Session Pandas 2nd Session" display="https://youtu.be/F9suXLEJ9AI"/>
+    <hyperlink ref="G51" r:id="rId139" tooltip="09th Jan Live Session Pandas 3rd Session" display="https://youtu.be/PUVX7ijD-7c"/>
+    <hyperlink ref="G50" r:id="rId140" tooltip="07th Jan Live Doubt Clearing Session" display="https://youtu.be/4EzedBf-ero"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId127"/>
-  <legacyDrawing r:id="rId128"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId141"/>
+  <legacyDrawing r:id="rId142"/>
 </worksheet>
 </file>
 
@@ -4718,7 +4815,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -4743,55 +4840,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" t="s">
         <v>345</v>
-      </c>
-      <c r="B4" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" t="s">
         <v>348</v>
-      </c>
-      <c r="B5" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" t="s">
         <v>352</v>
-      </c>
-      <c r="B7" t="s">
-        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4846,479 +4943,479 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C17" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C24" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C25" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C26" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C27" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C28" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C29" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C30" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C31" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C32" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C37" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="H37" t="s">
         <v>378</v>
-      </c>
-      <c r="H37" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C38" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C39" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C40" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C41" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C42" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C43" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C44" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H46" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C47" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C48" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C49" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C50" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C51" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C52" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="E56" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H56" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C57" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H57" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C58" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C59" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D60" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="65" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C65" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C66" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C67" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="68" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C68" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C69" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -5424,7 +5521,7 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="36" x14ac:dyDescent="0.25">
@@ -5432,31 +5529,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="H4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C5" s="35"/>
       <c r="D5" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -5468,19 +5565,19 @@
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C8" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C9" s="35"/>
       <c r="F9" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -5491,10 +5588,10 @@
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C12" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -5508,10 +5605,10 @@
     </row>
     <row r="16" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="C16" s="35" t="s">
+        <v>541</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5522,10 +5619,10 @@
     </row>
     <row r="19" spans="3:4" ht="18" x14ac:dyDescent="0.25">
       <c r="C19" s="35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5536,10 +5633,10 @@
     </row>
     <row r="22" spans="3:4" ht="18" x14ac:dyDescent="0.25">
       <c r="C22" s="35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5550,10 +5647,10 @@
     </row>
     <row r="25" spans="3:4" ht="18" x14ac:dyDescent="0.25">
       <c r="C25" s="35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5564,10 +5661,10 @@
     </row>
     <row r="28" spans="3:4" ht="18" x14ac:dyDescent="0.25">
       <c r="C28" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5578,16 +5675,16 @@
     </row>
     <row r="31" spans="3:4" ht="18" x14ac:dyDescent="0.25">
       <c r="C31" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="32" spans="3:4" ht="18" x14ac:dyDescent="0.25">
       <c r="C32" s="35"/>
       <c r="D32" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5595,10 +5692,10 @@
     </row>
     <row r="34" spans="3:4" ht="18" x14ac:dyDescent="0.25">
       <c r="C34" s="35" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="35" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5609,10 +5706,10 @@
     </row>
     <row r="37" spans="3:4" ht="36" x14ac:dyDescent="0.25">
       <c r="C37" s="35" t="s">
+        <v>554</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="38" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5620,10 +5717,10 @@
     </row>
     <row r="39" spans="3:4" ht="36" x14ac:dyDescent="0.25">
       <c r="C39" s="35" t="s">
+        <v>556</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5634,10 +5731,10 @@
     </row>
     <row r="42" spans="3:4" ht="36" x14ac:dyDescent="0.25">
       <c r="C42" s="35" t="s">
+        <v>558</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="43" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5648,10 +5745,10 @@
     </row>
     <row r="45" spans="3:4" ht="18" x14ac:dyDescent="0.25">
       <c r="C45" s="35" t="s">
+        <v>560</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="46" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5665,10 +5762,10 @@
     </row>
     <row r="49" spans="3:4" ht="18" x14ac:dyDescent="0.25">
       <c r="C49" s="35" t="s">
+        <v>562</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="50" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5679,10 +5776,10 @@
     </row>
     <row r="52" spans="3:4" ht="36" x14ac:dyDescent="0.25">
       <c r="C52" s="35" t="s">
+        <v>564</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="53" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5797,59 +5894,59 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -5907,87 +6004,87 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H2" t="s">
         <v>441</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -6204,70 +6301,70 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19"/>
       <c r="C7" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -6275,7 +6372,7 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -6385,34 +6482,34 @@
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -6423,20 +6520,20 @@
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -6448,16 +6545,16 @@
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6476,29 +6573,29 @@
     </row>
     <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19"/>
       <c r="C19" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -6613,133 +6710,133 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -6808,10 +6905,10 @@
     </row>
     <row r="2" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
@@ -6819,32 +6916,32 @@
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">

--- a/INeuron_Checklist.xlsx
+++ b/INeuron_Checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MachineLearning\ineuraon\gitcheckin\iNeuron_ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MachineLearning\iNeuron_ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="593">
   <si>
     <t>Induction session recording</t>
   </si>
@@ -1920,6 +1920,18 @@
   </si>
   <si>
     <t>07th Jan Live Doubt Clearing Session Links to an external site.</t>
+  </si>
+  <si>
+    <t>Numpy 1 Links to an external site.</t>
+  </si>
+  <si>
+    <t>12th jan live weekend class Links to an external site.</t>
+  </si>
+  <si>
+    <t>3rd feb live class numpy Links to an external site.</t>
+  </si>
+  <si>
+    <t>5th feb live class numpy Links to an external site.</t>
   </si>
 </sst>
 </file>
@@ -2259,7 +2271,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2316,6 +2327,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2325,17 +2354,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2352,41 +2387,20 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2674,10 +2688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F48" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="E44" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2717,113 +2731,113 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="49" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="49" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2834,108 +2848,108 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="35" t="s">
         <v>570</v>
       </c>
-      <c r="G15" s="37"/>
+      <c r="G15" s="36"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="35" t="s">
         <v>566</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="37" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="36" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="41" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2947,10 +2961,10 @@
       <c r="D17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>568</v>
       </c>
       <c r="H17" t="s">
@@ -2958,7 +2972,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
         <v>38</v>
@@ -2969,34 +2983,34 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="18" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="35" t="s">
         <v>571</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="36" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="38" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -3007,31 +3021,31 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
         <v>43</v>
@@ -3043,7 +3057,7 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
         <v>44</v>
@@ -3055,7 +3069,7 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="50" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3067,10 +3081,10 @@
       <c r="D25" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="17" t="s">
         <v>61</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -3081,7 +3095,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
         <v>55</v>
@@ -3089,10 +3103,10 @@
       <c r="D26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -3103,13 +3117,13 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="17" t="s">
         <v>127</v>
       </c>
       <c r="F27" s="6"/>
@@ -3119,13 +3133,13 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="17" t="s">
         <v>127</v>
       </c>
       <c r="F28" s="6"/>
@@ -3135,31 +3149,31 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="17" t="s">
         <v>124</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="17" t="s">
         <v>127</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -3168,7 +3182,7 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="41" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -3180,8 +3194,8 @@
       <c r="D32" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="36" t="s">
+      <c r="E32" s="68"/>
+      <c r="F32" s="35" t="s">
         <v>78</v>
       </c>
       <c r="G32" s="7"/>
@@ -3190,7 +3204,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
         <v>68</v>
@@ -3199,7 +3213,7 @@
         <v>75</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="35" t="s">
         <v>79</v>
       </c>
       <c r="G33" s="7"/>
@@ -3208,7 +3222,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
         <v>69</v>
@@ -3224,7 +3238,7 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
         <v>70</v>
@@ -3238,7 +3252,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="43"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
         <v>71</v>
@@ -3250,7 +3264,7 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
         <v>72</v>
@@ -3262,7 +3276,7 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="44"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
         <v>73</v>
@@ -3278,7 +3292,7 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="44" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -3302,7 +3316,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
         <v>83</v>
@@ -3310,7 +3324,7 @@
       <c r="D40" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="68" t="s">
         <v>128</v>
       </c>
       <c r="F40" s="7" t="s">
@@ -3322,7 +3336,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="64"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
         <v>84</v>
@@ -3334,7 +3348,7 @@
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="64"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
         <v>85</v>
@@ -3346,7 +3360,7 @@
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="64"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
         <v>86</v>
@@ -3358,225 +3372,225 @@
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22" t="s">
+      <c r="B45" s="21"/>
+      <c r="C45" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="F45" s="40" t="s">
+      <c r="F45" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22" t="s">
+      <c r="G45" s="21"/>
+      <c r="H45" s="21" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22" t="s">
+      <c r="A46" s="47"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="40" t="s">
+      <c r="E46" s="22"/>
+      <c r="F46" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22" t="s">
+      <c r="G46" s="21"/>
+      <c r="H46" s="21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="22" t="s">
+      <c r="A47" s="47"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="40" t="s">
+      <c r="F47" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24" t="s">
+      <c r="G47" s="23"/>
+      <c r="H47" s="23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="22" t="s">
+      <c r="A48" s="47"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="41" t="s">
+      <c r="G48" s="40" t="s">
         <v>585</v>
       </c>
-      <c r="H48" s="24" t="s">
+      <c r="H48" s="23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="25" t="s">
+      <c r="A49" s="47"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="41" t="s">
+      <c r="G49" s="40" t="s">
         <v>586</v>
       </c>
-      <c r="H49" s="24" t="s">
+      <c r="H49" s="23" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="67"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="25" t="s">
+      <c r="A50" s="47"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="41" t="s">
+      <c r="F50" s="40" t="s">
         <v>581</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="40" t="s">
         <v>588</v>
       </c>
-      <c r="H50" s="24"/>
+      <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="25" t="s">
+      <c r="A51" s="47"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="35" t="s">
         <v>582</v>
       </c>
-      <c r="G51" s="41" t="s">
+      <c r="G51" s="40" t="s">
         <v>587</v>
       </c>
-      <c r="H51" s="24"/>
+      <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="25" t="s">
+      <c r="A52" s="47"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="35" t="s">
         <v>583</v>
       </c>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="2" t="s">
+      <c r="A53" s="47"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="35" t="s">
         <v>584</v>
       </c>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="68"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="57" t="s">
+      <c r="A56" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="60" t="s">
+      <c r="B56" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="57" t="s">
+      <c r="C56" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="61" t="s">
+      <c r="D56" s="56" t="s">
         <v>115</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F56" s="11" t="s">
-        <v>116</v>
+      <c r="F56" s="2" t="s">
+        <v>589</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="61"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="56"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="11" t="s">
-        <v>117</v>
+      <c r="F57" s="2" t="s">
+        <v>590</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6" t="s">
@@ -3584,435 +3598,441 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="61"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="F58" s="2" t="s">
+        <v>591</v>
+      </c>
       <c r="G58" s="6"/>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="49"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-    </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="61"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+      <c r="F60" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="61"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="56"/>
       <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+      <c r="F61" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="59" t="s">
+      <c r="A62" s="49"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="B62" s="62" t="s">
+      <c r="B63" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D63" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E63" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F63" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>148</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="59"/>
-      <c r="B64" s="63"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="58"/>
       <c r="C64" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E64" s="6"/>
+        <v>143</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="F64" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="63"/>
+      <c r="A65" s="53"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="E65" s="6"/>
       <c r="F65" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="53"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="26" t="s">
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="54"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-    </row>
-    <row r="67" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="52" t="s">
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+    </row>
+    <row r="68" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="59" t="s">
         <v>574</v>
       </c>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="54"/>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="55" t="s">
+      <c r="B68" s="60"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="61"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="28" t="s">
+      <c r="B69" s="23"/>
+      <c r="C69" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D68" s="23" t="s">
+      <c r="D69" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="23" t="s">
+      <c r="E69" s="23"/>
+      <c r="F69" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24" t="s">
+      <c r="G69" s="23"/>
+      <c r="H69" s="23" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="22" t="s">
+    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="62"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="D70" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="23" t="s">
+      <c r="E70" s="23"/>
+      <c r="F70" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24" t="s">
+      <c r="G70" s="23"/>
+      <c r="H70" s="23" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="22" t="s">
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="62"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D71" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="23" t="s">
+      <c r="E71" s="23"/>
+      <c r="F71" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24" t="s">
+      <c r="G71" s="23"/>
+      <c r="H71" s="23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="22" t="s">
+    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="62"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D72" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="23" t="s">
+      <c r="E72" s="23"/>
+      <c r="F72" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24" t="s">
+      <c r="G72" s="23"/>
+      <c r="H72" s="23" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="22" t="s">
+    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="62"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D73" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="E72" s="24"/>
-      <c r="F72" s="23" t="s">
+      <c r="E73" s="23"/>
+      <c r="F73" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24" t="s">
+      <c r="G73" s="23"/>
+      <c r="H73" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="22" t="s">
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="62"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24" t="s">
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="G73" s="24"/>
-      <c r="H73" t="s">
+      <c r="G74" s="23"/>
+      <c r="H74" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="22" t="s">
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="62"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="22" t="s">
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="62"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="22" t="s">
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24" t="s">
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="62"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-    </row>
-    <row r="78" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="56" t="s">
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+    </row>
+    <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A79" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="B78" s="56"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="56"/>
-    </row>
-    <row r="79" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="57" t="s">
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+    </row>
+    <row r="80" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B80" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D80" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E80" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F80" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="57"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>194</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="49"/>
       <c r="B81" s="12"/>
       <c r="C81" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="57"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="49"/>
       <c r="B82" s="12"/>
       <c r="C82" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="57"/>
+      <c r="A83" s="49"/>
       <c r="B83" s="12"/>
       <c r="C83" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E83" s="6"/>
-      <c r="F83" s="39" t="s">
-        <v>197</v>
+      <c r="F83" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="57"/>
+      <c r="A84" s="49"/>
       <c r="B84" s="12"/>
       <c r="C84" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="F84" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="49"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D85" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="11" t="s">
-        <v>204</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -4024,7 +4044,7 @@
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -4035,7 +4055,9 @@
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
+      <c r="D87" s="11" t="s">
+        <v>205</v>
+      </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -4045,9 +4067,7 @@
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
-      <c r="D88" s="11" t="s">
-        <v>206</v>
-      </c>
+      <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -4058,7 +4078,7 @@
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -4069,211 +4089,213 @@
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
+      <c r="D90" s="11" t="s">
+        <v>207</v>
+      </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="29" t="s">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="B91" s="29" t="s">
+      <c r="B92" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="C92" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D92" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="30" t="s">
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="H91" s="29"/>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29" t="s">
+      <c r="H92" s="28"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="29"/>
-    </row>
-    <row r="93" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="58" t="s">
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="28"/>
+    </row>
+    <row r="94" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="B93" s="58"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="58"/>
-    </row>
-    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="45" t="s">
+      <c r="B94" s="64"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="64"/>
+      <c r="H94" s="64"/>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="B94" s="42" t="s">
+      <c r="B95" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C95" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D95" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="E95" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="F94" s="11" t="s">
+      <c r="F95" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="46"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="46"/>
-      <c r="B96" s="43"/>
+      <c r="A96" s="51"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E96" s="6"/>
+        <v>230</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>233</v>
+      </c>
       <c r="F96" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="46"/>
-      <c r="B97" s="43"/>
+      <c r="A97" s="51"/>
+      <c r="B97" s="42"/>
       <c r="C97" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D97" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>231</v>
+      </c>
       <c r="E97" s="6"/>
       <c r="F97" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="46"/>
-      <c r="B98" s="43"/>
+      <c r="A98" s="51"/>
+      <c r="B98" s="42"/>
       <c r="C98" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="46"/>
-      <c r="B99" s="43"/>
+      <c r="A99" s="51"/>
+      <c r="B99" s="42"/>
       <c r="C99" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="46"/>
-      <c r="B100" s="43"/>
+      <c r="A100" s="51"/>
+      <c r="B100" s="42"/>
       <c r="C100" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G100" s="6"/>
       <c r="H100" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="46"/>
-      <c r="B101" s="43"/>
+      <c r="A101" s="51"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="46"/>
-      <c r="B102" s="43"/>
-      <c r="C102" s="6"/>
+      <c r="A102" s="51"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="7" t="s">
+        <v>228</v>
+      </c>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
+      <c r="F102" s="11" t="s">
+        <v>241</v>
+      </c>
       <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
+      <c r="H102" s="6" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="46"/>
-      <c r="B103" s="43"/>
+      <c r="A103" s="51"/>
+      <c r="B103" s="42"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -4282,134 +4304,132 @@
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="46"/>
-      <c r="B104" s="43"/>
+      <c r="A104" s="51"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
-      <c r="F104" s="11" t="s">
-        <v>250</v>
-      </c>
+      <c r="F104" s="6"/>
       <c r="G104" s="6"/>
-      <c r="H104" s="6" t="s">
-        <v>253</v>
-      </c>
+      <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="46"/>
-      <c r="B105" s="43"/>
+      <c r="A105" s="51"/>
+      <c r="B105" s="42"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="46"/>
-      <c r="B106" s="43"/>
+      <c r="A106" s="51"/>
+      <c r="B106" s="42"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="47"/>
-      <c r="B107" s="44"/>
+      <c r="A107" s="51"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
+      <c r="F107" s="11" t="s">
+        <v>252</v>
+      </c>
       <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
+      <c r="H107" s="6" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="48"/>
-      <c r="B108" s="48" t="s">
+      <c r="A108" s="52"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="54"/>
+      <c r="B109" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C109" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D109" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="E109" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="F109" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="49"/>
-      <c r="B109" s="49"/>
-      <c r="C109" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>271</v>
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="49"/>
-      <c r="B110" s="49"/>
+      <c r="A110" s="65"/>
+      <c r="B110" s="65"/>
       <c r="C110" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="E110" s="6"/>
+        <v>266</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>269</v>
+      </c>
       <c r="F110" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="65"/>
+      <c r="B111" s="65"/>
+      <c r="C111" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E111" s="6"/>
+      <c r="F111" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="49"/>
-      <c r="B111" s="49"/>
-      <c r="C111" s="7" t="s">
+    <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="65"/>
+      <c r="B112" s="65"/>
+      <c r="C112" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-    </row>
-    <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="49"/>
-      <c r="B112" s="49"/>
-      <c r="C112" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
@@ -4418,10 +4438,10 @@
       <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="49"/>
-      <c r="B113" s="49"/>
+      <c r="A113" s="65"/>
+      <c r="B113" s="65"/>
       <c r="C113" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
@@ -4430,10 +4450,10 @@
       <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="49"/>
-      <c r="B114" s="49"/>
+      <c r="A114" s="65"/>
+      <c r="B114" s="65"/>
       <c r="C114" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
@@ -4442,10 +4462,10 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="50"/>
-      <c r="B115" s="50"/>
+      <c r="A115" s="65"/>
+      <c r="B115" s="65"/>
       <c r="C115" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
@@ -4453,44 +4473,40 @@
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="51" t="s">
+    <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="66"/>
+      <c r="B116" s="66"/>
+      <c r="C116" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="B116" s="51"/>
-      <c r="C116" s="51"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="51"/>
-      <c r="F116" s="51"/>
-      <c r="G116" s="51"/>
-      <c r="H116" s="51"/>
-    </row>
-    <row r="117" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-      <c r="B117" s="20">
-        <v>1</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
+      <c r="B117" s="67"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="67"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
-      <c r="B118" s="20">
-        <v>2</v>
+      <c r="B118" s="19">
+        <v>1</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -4499,14 +4515,14 @@
     </row>
     <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
-      <c r="B119" s="20">
-        <v>3</v>
+      <c r="B119" s="19">
+        <v>2</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -4515,14 +4531,14 @@
     </row>
     <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
-      <c r="B120" s="20">
-        <v>4</v>
+      <c r="B120" s="19">
+        <v>3</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -4531,14 +4547,14 @@
     </row>
     <row r="121" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
-      <c r="B121" s="20">
-        <v>5</v>
+      <c r="B121" s="19">
+        <v>4</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -4547,14 +4563,14 @@
     </row>
     <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
-      <c r="B122" s="20">
-        <v>6</v>
+      <c r="B122" s="19">
+        <v>5</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -4563,14 +4579,14 @@
     </row>
     <row r="123" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
-      <c r="B123" s="20">
-        <v>7</v>
+      <c r="B123" s="19">
+        <v>6</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -4579,14 +4595,14 @@
     </row>
     <row r="124" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
-      <c r="B124" s="20">
-        <v>8</v>
+      <c r="B124" s="19">
+        <v>7</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -4595,14 +4611,14 @@
     </row>
     <row r="125" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
-      <c r="B125" s="20">
-        <v>9</v>
+      <c r="B125" s="19">
+        <v>8</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -4611,22 +4627,54 @@
     </row>
     <row r="126" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
-      <c r="B126" s="20">
-        <v>10</v>
+      <c r="B126" s="19">
+        <v>9</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
     </row>
+    <row r="127" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="19">
+        <v>10</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B95:B108"/>
+    <mergeCell ref="A95:A108"/>
+    <mergeCell ref="B109:B116"/>
+    <mergeCell ref="A117:H117"/>
+    <mergeCell ref="A109:A116"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="A79:H79"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="D56:D62"/>
+    <mergeCell ref="B63:B67"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:H44"/>
@@ -4635,22 +4683,6 @@
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="C56:C61"/>
-    <mergeCell ref="D56:D61"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="A67:H67"/>
-    <mergeCell ref="A68:A77"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A93:H93"/>
-    <mergeCell ref="B94:B107"/>
-    <mergeCell ref="A94:A107"/>
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A108:A115"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" tooltip="Induction Session 6th June" display="https://youtu.be/g2J_MLzOuy0"/>
@@ -4680,123 +4712,127 @@
     <hyperlink ref="F48" r:id="rId25" tooltip="25th July Live Class" display="https://youtu.be/as9EEqDxP9Q"/>
     <hyperlink ref="F49" r:id="rId26" tooltip="July 26th Class Recording" display="https://youtu.be/73zhF1ix-20"/>
     <hyperlink ref="D56" r:id="rId27" tooltip="Numpy in details.ipynb" display="https://canvas.instructure.com/courses/2412303/modules/items/38748228"/>
-    <hyperlink ref="F56" r:id="rId28" tooltip="August 1st Live Class" display="https://youtu.be/rr8TGha9wPc"/>
-    <hyperlink ref="F57" r:id="rId29" tooltip="August 2nd Live Class" display="https://youtu.be/7Qb-YKbLzDk"/>
-    <hyperlink ref="E11" r:id="rId30" tooltip="Python Assignment 1" display="https://canvas.instructure.com/courses/2412303/modules/items/38748095"/>
-    <hyperlink ref="E17" r:id="rId31" tooltip="python assignment 2" display="https://canvas.instructure.com/courses/2412303/modules/items/38748117"/>
-    <hyperlink ref="E20" r:id="rId32" tooltip="Python practice " display="https://drive.google.com/file/d/1Hoh6tLEqgPgiMvn9WvKgX_-ZLSkMgn3j/view"/>
-    <hyperlink ref="E25" r:id="rId33" tooltip="python assignment 3" display="https://canvas.instructure.com/courses/2412303/modules/items/38748137"/>
-    <hyperlink ref="E26" r:id="rId34" tooltip="python Assignment 4" display="https://canvas.instructure.com/courses/2412303/modules/items/38748138"/>
-    <hyperlink ref="E27" r:id="rId35" tooltip="python practice" display="https://drive.google.com/open?id=1Dfxiwjdds7Qiyod7XNzcS18nygBloO1V"/>
-    <hyperlink ref="E28" r:id="rId36" tooltip="python practice " display="https://drive.google.com/open?id=1kvTXaa3byrM3PDXdjBE39M1hxHcrxKua"/>
-    <hyperlink ref="E30" r:id="rId37" tooltip="python practice " display="https://drive.google.com/open?id=1gxBLXEifNqi6vCbjsTi_yLDs6_b0uWtY"/>
-    <hyperlink ref="E29" r:id="rId38" tooltip="Python practice" display="https://drive.google.com/open?id=1qu6WcZVK_AApjZ1nfgmvNC2-NYc_edw1"/>
-    <hyperlink ref="E40" r:id="rId39" tooltip="Exception handling Assignment " display="https://canvas.instructure.com/courses/2412303/modules/items/38748180"/>
-    <hyperlink ref="E45" r:id="rId40" tooltip="Data cleaning assignment " display="https://canvas.instructure.com/courses/2412303/modules/items/38748202"/>
-    <hyperlink ref="E47" r:id="rId41" tooltip="Pandas practice " display="https://drive.google.com/open?id=1etGP85wJWsgqbsh3gX5oxc8dPKLMA1eT"/>
-    <hyperlink ref="E48" r:id="rId42" tooltip="Pandas practice 1" display="https://drive.google.com/open?id=1U-X-NZ2vQw5aypSuKBmHfwENITQSGBO9"/>
-    <hyperlink ref="E49" r:id="rId43" tooltip="data set for python practice 1" display="https://raw.githubusercontent.com/justmarkham/DAT8/master/data/chipotle.tsv"/>
-    <hyperlink ref="E50" r:id="rId44" tooltip="beer serving data set " display="https://github.com/justmarkham/DAT8/blob/master/data/beer.txt"/>
-    <hyperlink ref="E51" r:id="rId45" tooltip="crime report data set" display="https://raw.githubusercontent.com/guipsamora/pandas_exercises/master/04_Apply/US_Crime_Rates/US_Crime_Rates_1960_2014.csv"/>
-    <hyperlink ref="E52" r:id="rId46" tooltip="car data set " display="https://github.com/vincentarelbundock/Rdatasets/blob/master/datasets.csv"/>
-    <hyperlink ref="E56" r:id="rId47" tooltip="Numpy assignment " display="https://canvas.instructure.com/courses/2412303/modules/items/38748235"/>
-    <hyperlink ref="D62" r:id="rId48" tooltip="Data Visualisation with Pandas.ipynb" display="https://canvas.instructure.com/courses/2412303/modules/items/38748246"/>
-    <hyperlink ref="D63" r:id="rId49" tooltip="Plotly and Cufflinks .ipynb" display="https://canvas.instructure.com/courses/2412303/modules/items/38748247"/>
-    <hyperlink ref="D64" r:id="rId50" tooltip="Seaborn .ipynb" display="https://canvas.instructure.com/courses/2412303/modules/items/38748248"/>
-    <hyperlink ref="E62" r:id="rId51" tooltip="Data visualization assignment " display="https://canvas.instructure.com/courses/2412303/modules/items/38748256"/>
-    <hyperlink ref="E63" r:id="rId52" tooltip="matplotlib assignment " display="https://canvas.instructure.com/courses/2412303/modules/items/38748257"/>
-    <hyperlink ref="F62" r:id="rId53" tooltip="August 8th Live Class" display="https://youtu.be/eRYEOR9BO-c"/>
-    <hyperlink ref="F63" r:id="rId54" tooltip="August 9th Live Class" display="https://youtu.be/hRiZxvd2wQI"/>
-    <hyperlink ref="F64" r:id="rId55" tooltip="Visualization 1" display="https://www.youtube.com/watch?v=dmbUSWKEIVA"/>
-    <hyperlink ref="F65" r:id="rId56" tooltip="Visualization 2" display="https://youtu.be/pa9kaVk2hIc"/>
-    <hyperlink ref="D68" r:id="rId57" tooltip="19.2.MySQL.7z" display="https://canvas.instructure.com/courses/2412303/modules/items/38748272"/>
-    <hyperlink ref="D69" r:id="rId58" tooltip="Introduction to MySQL.docx" display="https://canvas.instructure.com/courses/2412303/modules/items/38748273"/>
-    <hyperlink ref="D70" r:id="rId59" tooltip="19.1.SqLite.7z" display="https://canvas.instructure.com/courses/2412303/modules/items/38748274"/>
-    <hyperlink ref="D71" r:id="rId60" tooltip="19.3 MongoDB.7z" display="https://canvas.instructure.com/courses/2412303/modules/items/38748275"/>
-    <hyperlink ref="D72" r:id="rId61" tooltip="21.Flask.7z" display="https://canvas.instructure.com/courses/2412303/modules/items/38748277"/>
-    <hyperlink ref="F68" r:id="rId62" tooltip=" August 23rd  live class  mysql , sqllite" display="https://www.youtube.com/watch?v=EdyIEMgbci8"/>
-    <hyperlink ref="F69" r:id="rId63" tooltip="29th Aug mongodb " display="https://www.youtube.com/watch?v=U09KoC3Cbkk"/>
-    <hyperlink ref="F70" r:id="rId64" tooltip="30th Aug API and Flask" display="https://www.youtube.com/watch?v=MQs4jR6WdaQ"/>
-    <hyperlink ref="F72" r:id="rId65" tooltip="MongoDB and Rest Api in Flask " display="https://www.youtube.com/watch?v=GOkrGe2VIIo&amp;feature=youtu.be"/>
-    <hyperlink ref="F71" r:id="rId66" tooltip="Flask Class" display="https://www.youtube.com/watch?v=GJeyH1UK-8w&amp;feature=youtu.be"/>
-    <hyperlink ref="E79" r:id="rId67" tooltip="web scraper for text review" display="https://canvas.instructure.com/courses/2412303/modules/items/38748295"/>
-    <hyperlink ref="E80" r:id="rId68" tooltip="image scraper" display="https://canvas.instructure.com/courses/2412303/modules/items/38748296"/>
-    <hyperlink ref="F80" r:id="rId69" tooltip="6th Sep Review Scrapper Deployment on Heroku" display="https://youtu.be/TRD8lu5GUKc"/>
-    <hyperlink ref="F83" r:id="rId70" tooltip="Web Scraper with Selenium class" display="https://www.youtube.com/watch?v=fG9XlAy6Y8M"/>
-    <hyperlink ref="D79" r:id="rId71" tooltip="Code discussed in Live class reviewScrapper.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748298"/>
-    <hyperlink ref="D81" r:id="rId72" tooltip="Flask deployment in local system" display="https://canvas.instructure.com/courses/2412303/modules/items/38748300"/>
-    <hyperlink ref="D80" r:id="rId73" tooltip="webscrappper_text_deployment_code" display="https://canvas.instructure.com/courses/2412303/modules/items/38748299"/>
-    <hyperlink ref="D82" r:id="rId74" tooltip="HerokuFlaskDemo for deployment" display="https://canvas.instructure.com/courses/2412303/modules/items/38748301"/>
-    <hyperlink ref="D83" r:id="rId75" tooltip="ReviewScrapper.ipynb" display="https://canvas.instructure.com/courses/2412303/modules/items/38748302"/>
-    <hyperlink ref="D84" r:id="rId76" tooltip="firstFlask_withHeroku.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748304"/>
-    <hyperlink ref="D85" r:id="rId77" tooltip="Image Scrapper" display="https://github.com/jiwitesh/ImageScrapper/blob/master/ImageScrapper/scraper.py"/>
-    <hyperlink ref="D86" r:id="rId78" tooltip="Image Scrapper Requirements.txt" display="https://raw.githubusercontent.com/jiwitesh/ImageScrapper/master/ImageScrapper/requirements.txt"/>
-    <hyperlink ref="D88" r:id="rId79" tooltip="WebScraping(Image).pdf" display="https://canvas.instructure.com/courses/2412303/modules/items/38748309"/>
-    <hyperlink ref="D89" r:id="rId80" tooltip="ReviewScrapper.pdf" display="https://canvas.instructure.com/courses/2412303/modules/items/38748310"/>
-    <hyperlink ref="G91" r:id="rId81"/>
-    <hyperlink ref="D94" r:id="rId82" tooltip="Stats_1_module_updated.docx" display="https://canvas.instructure.com/courses/2412303/modules/items/38748333"/>
-    <hyperlink ref="D95" r:id="rId83" tooltip="STATISTICS_Part1.docx" display="https://canvas.instructure.com/courses/2412303/modules/items/38748334"/>
-    <hyperlink ref="D96" r:id="rId84" tooltip="General Probability Question.docx" display="https://canvas.instructure.com/courses/2412303/modules/items/38748335"/>
-    <hyperlink ref="E94" r:id="rId85" tooltip="Stats 1 Assignment " display="https://canvas.instructure.com/courses/2412303/modules/items/38748346"/>
-    <hyperlink ref="E95" r:id="rId86" tooltip="Stats 2 Assignment " display="https://canvas.instructure.com/courses/2412303/modules/items/38748347"/>
-    <hyperlink ref="F96" r:id="rId87" tooltip="13th June Live class" display="https://youtu.be/BEBQW5KXQZQ"/>
-    <hyperlink ref="F97" r:id="rId88" tooltip="14th June Live Class" display="https://youtu.be/dwQggZUfvhg"/>
-    <hyperlink ref="F94" r:id="rId89" tooltip="Stats 1st Class 6th June" display="https://youtu.be/SXCT4eZuOH8"/>
-    <hyperlink ref="F95" r:id="rId90" tooltip="7th june stats class " display="https://www.youtube.com/watch?v=K6PWLwpjb88&amp;t=3422s"/>
-    <hyperlink ref="F98" r:id="rId91" tooltip="20th June Live Class" display="https://www.youtube.com/watch?v=tAHD-kUHvEk"/>
-    <hyperlink ref="F99" r:id="rId92" tooltip="27th June Live Class" display="https://www.youtube.com/watch?v=Ocf8UG_K5FA&amp;t=3s"/>
-    <hyperlink ref="F100" r:id="rId93" tooltip="28th June live Class" display="https://www.youtube.com/watch?v=iT-oyxLRBAs&amp;t=516s"/>
-    <hyperlink ref="F101" r:id="rId94" tooltip="4th July Live Class" display="https://www.youtube.com/watch?v=Be6xN2Xe0yU"/>
-    <hyperlink ref="F104" r:id="rId95" tooltip="13th Sep Stats Class Recording" display="https://youtu.be/fxVfBOIL2u8"/>
-    <hyperlink ref="F105" r:id="rId96" tooltip="19th Sep Stats Session2" display="https://youtu.be/qs8UVBQWDnI"/>
-    <hyperlink ref="F106" r:id="rId97" tooltip="20th Sep Stats Session 3" display="https://youtu.be/Wuw9S_bqku0"/>
-    <hyperlink ref="D109" r:id="rId98" tooltip="STATISTICS_Part2.docx" display="https://canvas.instructure.com/courses/2412303/modules/items/38748364"/>
-    <hyperlink ref="D108" r:id="rId99" tooltip="Stats_2_module_updated.docx" display="https://canvas.instructure.com/courses/2412303/modules/items/38748363"/>
-    <hyperlink ref="D110" r:id="rId100" tooltip="Hypothesis_Testing.docx" display="https://canvas.instructure.com/courses/2412303/modules/items/38748365"/>
-    <hyperlink ref="E108" r:id="rId101" tooltip="Stats 3 Assignment " display="https://canvas.instructure.com/courses/2412303/modules/items/38748370"/>
-    <hyperlink ref="E109" r:id="rId102" tooltip="Stats 4 Assignment " display="https://canvas.instructure.com/courses/2412303/modules/items/38748371"/>
-    <hyperlink ref="F108" r:id="rId103" tooltip="27th Sep Stats continued" display="https://youtu.be/IuJQwdg_JY4"/>
-    <hyperlink ref="F109" r:id="rId104" tooltip="3rd Oct Live Class CLT" display="https://youtu.be/gT7Fr-BXGxc"/>
-    <hyperlink ref="F110" r:id="rId105" tooltip="4th Oct Live Class" display="https://youtu.be/CYIkZrVhTHU"/>
-    <hyperlink ref="D117" r:id="rId106" tooltip="bikes.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748377"/>
-    <hyperlink ref="D118" r:id="rId107" tooltip="black_friday.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748379"/>
-    <hyperlink ref="D119" r:id="rId108" tooltip="Cristiano_Ronaldo.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748381"/>
-    <hyperlink ref="D120" r:id="rId109" tooltip="Diabetes.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748383"/>
-    <hyperlink ref="D121" r:id="rId110" tooltip="FIFA.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748385"/>
-    <hyperlink ref="D122" r:id="rId111" tooltip="FitBit.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748387"/>
-    <hyperlink ref="D123" r:id="rId112" tooltip="Flight_Price.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748389"/>
-    <hyperlink ref="D124" r:id="rId113" tooltip="forest_fires.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748391"/>
-    <hyperlink ref="D125" r:id="rId114" tooltip="HRPrediction.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748393"/>
-    <hyperlink ref="D126" r:id="rId115" tooltip="zomato.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748395"/>
-    <hyperlink ref="F16" r:id="rId116" tooltip="Python List 2" display="https://www.youtube.com/watch?v=Txd8HNEx9aQ"/>
-    <hyperlink ref="F17" r:id="rId117" tooltip="Python Containers " display="https://youtu.be/NSf2RGCqBts"/>
-    <hyperlink ref="F15" r:id="rId118" tooltip="Python String List 1" display="https://www.youtube.com/watch?v=U58HjHqTsdU&amp;feature=youtu.be"/>
-    <hyperlink ref="G19" r:id="rId119" tooltip="5th Dec Live Class Containers and Functions" display="https://youtu.be/QIzf_Fs3Rho"/>
-    <hyperlink ref="G20" r:id="rId120" tooltip="6th Dec Live Class" display="https://youtu.be/PDNHAmdgjY4"/>
-    <hyperlink ref="F26" r:id="rId121" tooltip="28th june live class" display="https://www.youtube.com/watch?v=OjRncHVxWy4"/>
-    <hyperlink ref="F32" r:id="rId122" tooltip="Python OOPS 1" display="https://www.youtube.com/watch?v=EPXZaybMDhI&amp;feature=youtu.be"/>
-    <hyperlink ref="F33" r:id="rId123" tooltip="Python OOPS 2" display="https://www.youtube.com/watch?v=vsG52KpqcLM"/>
-    <hyperlink ref="F34" r:id="rId124" tooltip="4th july live class OOPS" display="https://www.youtube.com/watch?v=POsa0uQN4ak&amp;t=1178s"/>
-    <hyperlink ref="F39" r:id="rId125" tooltip="5th july live class Exception handling" display="https://www.youtube.com/watch?v=XBzjs4nKDII&amp;t=5173s"/>
-    <hyperlink ref="F38" r:id="rId126" tooltip="Exception Handling" display="https://www.youtube.com/watch?v=gFAg6djQPMs"/>
-    <hyperlink ref="G25" r:id="rId127" tooltip="12th Dec Live Class OOPS Concept" display="https://youtu.be/vEWbVyoJBX4"/>
-    <hyperlink ref="G26" r:id="rId128" tooltip="13th Dec Live Class OOPS Concept - 2" display="https://youtu.be/X1tMQlfswXQ"/>
-    <hyperlink ref="G27" r:id="rId129" tooltip="17th Dec Live DOubt Clearing Session" display="https://youtu.be/nqkzOUp30wA"/>
-    <hyperlink ref="G28" r:id="rId130" tooltip="19th Dec Live Session OOPS 2nd Class + File IO" display="https://youtu.be/GHOfkrAGfR8"/>
-    <hyperlink ref="G38" r:id="rId131" tooltip="20th Dec Exception Handling" display="https://youtu.be/_fVaPHrcGM8"/>
-    <hyperlink ref="G39" r:id="rId132" tooltip="24th Dec Live Doubt Clearing session " display="https://youtu.be/lUjEy28Gww4"/>
-    <hyperlink ref="F50" r:id="rId133" tooltip="Pandas 1" display="https://www.youtube.com/watch?v=iOw1TaVOkwc"/>
-    <hyperlink ref="F51" r:id="rId134" tooltip="Pandas 2" display="https://www.youtube.com/watch?v=_DtjtpCCZsM&amp;feature=youtu.be"/>
-    <hyperlink ref="F52" r:id="rId135" tooltip="Pandas 3" display="https://www.youtube.com/watch?v=IaDTiS9pMVI&amp;t=4883s"/>
-    <hyperlink ref="F53" r:id="rId136" tooltip="Pandas 4" display="https://www.youtube.com/watch?v=ONNRyoXYua8&amp;feature=youtu.be"/>
-    <hyperlink ref="G48" r:id="rId137" tooltip="02nd Jan Live Session Pandas 1st Session" display="https://youtu.be/xXDzYLtyf8E"/>
-    <hyperlink ref="G49" r:id="rId138" tooltip="03rd Jan Live Session Pandas 2nd Session" display="https://youtu.be/F9suXLEJ9AI"/>
-    <hyperlink ref="G51" r:id="rId139" tooltip="09th Jan Live Session Pandas 3rd Session" display="https://youtu.be/PUVX7ijD-7c"/>
-    <hyperlink ref="G50" r:id="rId140" tooltip="07th Jan Live Doubt Clearing Session" display="https://youtu.be/4EzedBf-ero"/>
+    <hyperlink ref="E11" r:id="rId28" tooltip="Python Assignment 1" display="https://canvas.instructure.com/courses/2412303/modules/items/38748095"/>
+    <hyperlink ref="E17" r:id="rId29" tooltip="python assignment 2" display="https://canvas.instructure.com/courses/2412303/modules/items/38748117"/>
+    <hyperlink ref="E20" r:id="rId30" tooltip="Python practice " display="https://drive.google.com/file/d/1Hoh6tLEqgPgiMvn9WvKgX_-ZLSkMgn3j/view"/>
+    <hyperlink ref="E25" r:id="rId31" tooltip="python assignment 3" display="https://canvas.instructure.com/courses/2412303/modules/items/38748137"/>
+    <hyperlink ref="E26" r:id="rId32" tooltip="python Assignment 4" display="https://canvas.instructure.com/courses/2412303/modules/items/38748138"/>
+    <hyperlink ref="E27" r:id="rId33" tooltip="python practice" display="https://drive.google.com/open?id=1Dfxiwjdds7Qiyod7XNzcS18nygBloO1V"/>
+    <hyperlink ref="E28" r:id="rId34" tooltip="python practice " display="https://drive.google.com/open?id=1kvTXaa3byrM3PDXdjBE39M1hxHcrxKua"/>
+    <hyperlink ref="E30" r:id="rId35" tooltip="python practice " display="https://drive.google.com/open?id=1gxBLXEifNqi6vCbjsTi_yLDs6_b0uWtY"/>
+    <hyperlink ref="E29" r:id="rId36" tooltip="Python practice" display="https://drive.google.com/open?id=1qu6WcZVK_AApjZ1nfgmvNC2-NYc_edw1"/>
+    <hyperlink ref="E40" r:id="rId37" tooltip="Exception handling Assignment " display="https://canvas.instructure.com/courses/2412303/modules/items/38748180"/>
+    <hyperlink ref="E45" r:id="rId38" tooltip="Data cleaning assignment " display="https://canvas.instructure.com/courses/2412303/modules/items/38748202"/>
+    <hyperlink ref="E47" r:id="rId39" tooltip="Pandas practice " display="https://drive.google.com/open?id=1etGP85wJWsgqbsh3gX5oxc8dPKLMA1eT"/>
+    <hyperlink ref="E48" r:id="rId40" tooltip="Pandas practice 1" display="https://drive.google.com/open?id=1U-X-NZ2vQw5aypSuKBmHfwENITQSGBO9"/>
+    <hyperlink ref="E49" r:id="rId41" tooltip="data set for python practice 1" display="https://raw.githubusercontent.com/justmarkham/DAT8/master/data/chipotle.tsv"/>
+    <hyperlink ref="E50" r:id="rId42" tooltip="beer serving data set " display="https://github.com/justmarkham/DAT8/blob/master/data/beer.txt"/>
+    <hyperlink ref="E51" r:id="rId43" tooltip="crime report data set" display="https://raw.githubusercontent.com/guipsamora/pandas_exercises/master/04_Apply/US_Crime_Rates/US_Crime_Rates_1960_2014.csv"/>
+    <hyperlink ref="E52" r:id="rId44" tooltip="car data set " display="https://github.com/vincentarelbundock/Rdatasets/blob/master/datasets.csv"/>
+    <hyperlink ref="E56" r:id="rId45" tooltip="Numpy assignment " display="https://canvas.instructure.com/courses/2412303/modules/items/38748235"/>
+    <hyperlink ref="D63" r:id="rId46" tooltip="Data Visualisation with Pandas.ipynb" display="https://canvas.instructure.com/courses/2412303/modules/items/38748246"/>
+    <hyperlink ref="D64" r:id="rId47" tooltip="Plotly and Cufflinks .ipynb" display="https://canvas.instructure.com/courses/2412303/modules/items/38748247"/>
+    <hyperlink ref="D65" r:id="rId48" tooltip="Seaborn .ipynb" display="https://canvas.instructure.com/courses/2412303/modules/items/38748248"/>
+    <hyperlink ref="E63" r:id="rId49" tooltip="Data visualization assignment " display="https://canvas.instructure.com/courses/2412303/modules/items/38748256"/>
+    <hyperlink ref="E64" r:id="rId50" tooltip="matplotlib assignment " display="https://canvas.instructure.com/courses/2412303/modules/items/38748257"/>
+    <hyperlink ref="F63" r:id="rId51" tooltip="August 8th Live Class" display="https://youtu.be/eRYEOR9BO-c"/>
+    <hyperlink ref="F64" r:id="rId52" tooltip="August 9th Live Class" display="https://youtu.be/hRiZxvd2wQI"/>
+    <hyperlink ref="F65" r:id="rId53" tooltip="Visualization 1" display="https://www.youtube.com/watch?v=dmbUSWKEIVA"/>
+    <hyperlink ref="F66" r:id="rId54" tooltip="Visualization 2" display="https://youtu.be/pa9kaVk2hIc"/>
+    <hyperlink ref="D69" r:id="rId55" tooltip="19.2.MySQL.7z" display="https://canvas.instructure.com/courses/2412303/modules/items/38748272"/>
+    <hyperlink ref="D70" r:id="rId56" tooltip="Introduction to MySQL.docx" display="https://canvas.instructure.com/courses/2412303/modules/items/38748273"/>
+    <hyperlink ref="D71" r:id="rId57" tooltip="19.1.SqLite.7z" display="https://canvas.instructure.com/courses/2412303/modules/items/38748274"/>
+    <hyperlink ref="D72" r:id="rId58" tooltip="19.3 MongoDB.7z" display="https://canvas.instructure.com/courses/2412303/modules/items/38748275"/>
+    <hyperlink ref="D73" r:id="rId59" tooltip="21.Flask.7z" display="https://canvas.instructure.com/courses/2412303/modules/items/38748277"/>
+    <hyperlink ref="F69" r:id="rId60" tooltip=" August 23rd  live class  mysql , sqllite" display="https://www.youtube.com/watch?v=EdyIEMgbci8"/>
+    <hyperlink ref="F70" r:id="rId61" tooltip="29th Aug mongodb " display="https://www.youtube.com/watch?v=U09KoC3Cbkk"/>
+    <hyperlink ref="F71" r:id="rId62" tooltip="30th Aug API and Flask" display="https://www.youtube.com/watch?v=MQs4jR6WdaQ"/>
+    <hyperlink ref="F73" r:id="rId63" tooltip="MongoDB and Rest Api in Flask " display="https://www.youtube.com/watch?v=GOkrGe2VIIo&amp;feature=youtu.be"/>
+    <hyperlink ref="F72" r:id="rId64" tooltip="Flask Class" display="https://www.youtube.com/watch?v=GJeyH1UK-8w&amp;feature=youtu.be"/>
+    <hyperlink ref="E80" r:id="rId65" tooltip="web scraper for text review" display="https://canvas.instructure.com/courses/2412303/modules/items/38748295"/>
+    <hyperlink ref="E81" r:id="rId66" tooltip="image scraper" display="https://canvas.instructure.com/courses/2412303/modules/items/38748296"/>
+    <hyperlink ref="F81" r:id="rId67" tooltip="6th Sep Review Scrapper Deployment on Heroku" display="https://youtu.be/TRD8lu5GUKc"/>
+    <hyperlink ref="F84" r:id="rId68" tooltip="Web Scraper with Selenium class" display="https://www.youtube.com/watch?v=fG9XlAy6Y8M"/>
+    <hyperlink ref="D80" r:id="rId69" tooltip="Code discussed in Live class reviewScrapper.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748298"/>
+    <hyperlink ref="D82" r:id="rId70" tooltip="Flask deployment in local system" display="https://canvas.instructure.com/courses/2412303/modules/items/38748300"/>
+    <hyperlink ref="D81" r:id="rId71" tooltip="webscrappper_text_deployment_code" display="https://canvas.instructure.com/courses/2412303/modules/items/38748299"/>
+    <hyperlink ref="D83" r:id="rId72" tooltip="HerokuFlaskDemo for deployment" display="https://canvas.instructure.com/courses/2412303/modules/items/38748301"/>
+    <hyperlink ref="D84" r:id="rId73" tooltip="ReviewScrapper.ipynb" display="https://canvas.instructure.com/courses/2412303/modules/items/38748302"/>
+    <hyperlink ref="D85" r:id="rId74" tooltip="firstFlask_withHeroku.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748304"/>
+    <hyperlink ref="D86" r:id="rId75" tooltip="Image Scrapper" display="https://github.com/jiwitesh/ImageScrapper/blob/master/ImageScrapper/scraper.py"/>
+    <hyperlink ref="D87" r:id="rId76" tooltip="Image Scrapper Requirements.txt" display="https://raw.githubusercontent.com/jiwitesh/ImageScrapper/master/ImageScrapper/requirements.txt"/>
+    <hyperlink ref="D89" r:id="rId77" tooltip="WebScraping(Image).pdf" display="https://canvas.instructure.com/courses/2412303/modules/items/38748309"/>
+    <hyperlink ref="D90" r:id="rId78" tooltip="ReviewScrapper.pdf" display="https://canvas.instructure.com/courses/2412303/modules/items/38748310"/>
+    <hyperlink ref="G92" r:id="rId79"/>
+    <hyperlink ref="D95" r:id="rId80" tooltip="Stats_1_module_updated.docx" display="https://canvas.instructure.com/courses/2412303/modules/items/38748333"/>
+    <hyperlink ref="D96" r:id="rId81" tooltip="STATISTICS_Part1.docx" display="https://canvas.instructure.com/courses/2412303/modules/items/38748334"/>
+    <hyperlink ref="D97" r:id="rId82" tooltip="General Probability Question.docx" display="https://canvas.instructure.com/courses/2412303/modules/items/38748335"/>
+    <hyperlink ref="E95" r:id="rId83" tooltip="Stats 1 Assignment " display="https://canvas.instructure.com/courses/2412303/modules/items/38748346"/>
+    <hyperlink ref="E96" r:id="rId84" tooltip="Stats 2 Assignment " display="https://canvas.instructure.com/courses/2412303/modules/items/38748347"/>
+    <hyperlink ref="F97" r:id="rId85" tooltip="13th June Live class" display="https://youtu.be/BEBQW5KXQZQ"/>
+    <hyperlink ref="F98" r:id="rId86" tooltip="14th June Live Class" display="https://youtu.be/dwQggZUfvhg"/>
+    <hyperlink ref="F95" r:id="rId87" tooltip="Stats 1st Class 6th June" display="https://youtu.be/SXCT4eZuOH8"/>
+    <hyperlink ref="F96" r:id="rId88" tooltip="7th june stats class " display="https://www.youtube.com/watch?v=K6PWLwpjb88&amp;t=3422s"/>
+    <hyperlink ref="F99" r:id="rId89" tooltip="20th June Live Class" display="https://www.youtube.com/watch?v=tAHD-kUHvEk"/>
+    <hyperlink ref="F100" r:id="rId90" tooltip="27th June Live Class" display="https://www.youtube.com/watch?v=Ocf8UG_K5FA&amp;t=3s"/>
+    <hyperlink ref="F101" r:id="rId91" tooltip="28th June live Class" display="https://www.youtube.com/watch?v=iT-oyxLRBAs&amp;t=516s"/>
+    <hyperlink ref="F102" r:id="rId92" tooltip="4th July Live Class" display="https://www.youtube.com/watch?v=Be6xN2Xe0yU"/>
+    <hyperlink ref="F105" r:id="rId93" tooltip="13th Sep Stats Class Recording" display="https://youtu.be/fxVfBOIL2u8"/>
+    <hyperlink ref="F106" r:id="rId94" tooltip="19th Sep Stats Session2" display="https://youtu.be/qs8UVBQWDnI"/>
+    <hyperlink ref="F107" r:id="rId95" tooltip="20th Sep Stats Session 3" display="https://youtu.be/Wuw9S_bqku0"/>
+    <hyperlink ref="D110" r:id="rId96" tooltip="STATISTICS_Part2.docx" display="https://canvas.instructure.com/courses/2412303/modules/items/38748364"/>
+    <hyperlink ref="D109" r:id="rId97" tooltip="Stats_2_module_updated.docx" display="https://canvas.instructure.com/courses/2412303/modules/items/38748363"/>
+    <hyperlink ref="D111" r:id="rId98" tooltip="Hypothesis_Testing.docx" display="https://canvas.instructure.com/courses/2412303/modules/items/38748365"/>
+    <hyperlink ref="E109" r:id="rId99" tooltip="Stats 3 Assignment " display="https://canvas.instructure.com/courses/2412303/modules/items/38748370"/>
+    <hyperlink ref="E110" r:id="rId100" tooltip="Stats 4 Assignment " display="https://canvas.instructure.com/courses/2412303/modules/items/38748371"/>
+    <hyperlink ref="F109" r:id="rId101" tooltip="27th Sep Stats continued" display="https://youtu.be/IuJQwdg_JY4"/>
+    <hyperlink ref="F110" r:id="rId102" tooltip="3rd Oct Live Class CLT" display="https://youtu.be/gT7Fr-BXGxc"/>
+    <hyperlink ref="F111" r:id="rId103" tooltip="4th Oct Live Class" display="https://youtu.be/CYIkZrVhTHU"/>
+    <hyperlink ref="D118" r:id="rId104" tooltip="bikes.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748377"/>
+    <hyperlink ref="D119" r:id="rId105" tooltip="black_friday.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748379"/>
+    <hyperlink ref="D120" r:id="rId106" tooltip="Cristiano_Ronaldo.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748381"/>
+    <hyperlink ref="D121" r:id="rId107" tooltip="Diabetes.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748383"/>
+    <hyperlink ref="D122" r:id="rId108" tooltip="FIFA.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748385"/>
+    <hyperlink ref="D123" r:id="rId109" tooltip="FitBit.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748387"/>
+    <hyperlink ref="D124" r:id="rId110" tooltip="Flight_Price.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748389"/>
+    <hyperlink ref="D125" r:id="rId111" tooltip="forest_fires.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748391"/>
+    <hyperlink ref="D126" r:id="rId112" tooltip="HRPrediction.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748393"/>
+    <hyperlink ref="D127" r:id="rId113" tooltip="zomato.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748395"/>
+    <hyperlink ref="F16" r:id="rId114" tooltip="Python List 2" display="https://www.youtube.com/watch?v=Txd8HNEx9aQ"/>
+    <hyperlink ref="F17" r:id="rId115" tooltip="Python Containers " display="https://youtu.be/NSf2RGCqBts"/>
+    <hyperlink ref="F15" r:id="rId116" tooltip="Python String List 1" display="https://www.youtube.com/watch?v=U58HjHqTsdU&amp;feature=youtu.be"/>
+    <hyperlink ref="G19" r:id="rId117" tooltip="5th Dec Live Class Containers and Functions" display="https://youtu.be/QIzf_Fs3Rho"/>
+    <hyperlink ref="G20" r:id="rId118" tooltip="6th Dec Live Class" display="https://youtu.be/PDNHAmdgjY4"/>
+    <hyperlink ref="F26" r:id="rId119" tooltip="28th june live class" display="https://www.youtube.com/watch?v=OjRncHVxWy4"/>
+    <hyperlink ref="F32" r:id="rId120" tooltip="Python OOPS 1" display="https://www.youtube.com/watch?v=EPXZaybMDhI&amp;feature=youtu.be"/>
+    <hyperlink ref="F33" r:id="rId121" tooltip="Python OOPS 2" display="https://www.youtube.com/watch?v=vsG52KpqcLM"/>
+    <hyperlink ref="F34" r:id="rId122" tooltip="4th july live class OOPS" display="https://www.youtube.com/watch?v=POsa0uQN4ak&amp;t=1178s"/>
+    <hyperlink ref="F39" r:id="rId123" tooltip="5th july live class Exception handling" display="https://www.youtube.com/watch?v=XBzjs4nKDII&amp;t=5173s"/>
+    <hyperlink ref="F38" r:id="rId124" tooltip="Exception Handling" display="https://www.youtube.com/watch?v=gFAg6djQPMs"/>
+    <hyperlink ref="G25" r:id="rId125" tooltip="12th Dec Live Class OOPS Concept" display="https://youtu.be/vEWbVyoJBX4"/>
+    <hyperlink ref="G26" r:id="rId126" tooltip="13th Dec Live Class OOPS Concept - 2" display="https://youtu.be/X1tMQlfswXQ"/>
+    <hyperlink ref="G27" r:id="rId127" tooltip="17th Dec Live DOubt Clearing Session" display="https://youtu.be/nqkzOUp30wA"/>
+    <hyperlink ref="G28" r:id="rId128" tooltip="19th Dec Live Session OOPS 2nd Class + File IO" display="https://youtu.be/GHOfkrAGfR8"/>
+    <hyperlink ref="G38" r:id="rId129" tooltip="20th Dec Exception Handling" display="https://youtu.be/_fVaPHrcGM8"/>
+    <hyperlink ref="G39" r:id="rId130" tooltip="24th Dec Live Doubt Clearing session " display="https://youtu.be/lUjEy28Gww4"/>
+    <hyperlink ref="F50" r:id="rId131" tooltip="Pandas 1" display="https://www.youtube.com/watch?v=iOw1TaVOkwc"/>
+    <hyperlink ref="F51" r:id="rId132" tooltip="Pandas 2" display="https://www.youtube.com/watch?v=_DtjtpCCZsM&amp;feature=youtu.be"/>
+    <hyperlink ref="F52" r:id="rId133" tooltip="Pandas 3" display="https://www.youtube.com/watch?v=IaDTiS9pMVI&amp;t=4883s"/>
+    <hyperlink ref="F53" r:id="rId134" tooltip="Pandas 4" display="https://www.youtube.com/watch?v=ONNRyoXYua8&amp;feature=youtu.be"/>
+    <hyperlink ref="G48" r:id="rId135" tooltip="02nd Jan Live Session Pandas 1st Session" display="https://youtu.be/xXDzYLtyf8E"/>
+    <hyperlink ref="G49" r:id="rId136" tooltip="03rd Jan Live Session Pandas 2nd Session" display="https://youtu.be/F9suXLEJ9AI"/>
+    <hyperlink ref="G51" r:id="rId137" tooltip="09th Jan Live Session Pandas 3rd Session" display="https://youtu.be/PUVX7ijD-7c"/>
+    <hyperlink ref="G50" r:id="rId138" tooltip="07th Jan Live Doubt Clearing Session" display="https://youtu.be/4EzedBf-ero"/>
+    <hyperlink ref="F60" r:id="rId139" tooltip="August 1st Live Class" display="https://youtu.be/rr8TGha9wPc"/>
+    <hyperlink ref="F61" r:id="rId140" tooltip="August 2nd Live Class" display="https://youtu.be/7Qb-YKbLzDk"/>
+    <hyperlink ref="F57" r:id="rId141" tooltip="12th jan live weekend class" display="https://youtu.be/2l4g9OYKqrw"/>
+    <hyperlink ref="F56" r:id="rId142" tooltip="Numpy 1" display="https://youtu.be/jJdDOKDRw3Q"/>
+    <hyperlink ref="F58" r:id="rId143" tooltip="3rd feb live class numpy" display="https://www.youtube.com/watch?v=pRma30BRd6U&amp;feature=youtu.be"/>
+    <hyperlink ref="F59" r:id="rId144" tooltip="5th feb live class numpy" display="https://www.youtube.com/watch?v=5tv7qJwAxT4&amp;feature=youtu.be"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId141"/>
-  <legacyDrawing r:id="rId142"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId145"/>
+  <legacyDrawing r:id="rId146"/>
 </worksheet>
 </file>
 
@@ -4858,7 +4894,7 @@
       <c r="A3" t="s">
         <v>341</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4942,7 +4978,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>297</v>
       </c>
     </row>
@@ -5074,7 +5110,7 @@
     </row>
     <row r="22" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>329</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -5170,7 +5206,7 @@
     </row>
     <row r="35" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>380</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -5237,7 +5273,7 @@
     </row>
     <row r="45" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="18" t="s">
         <v>381</v>
       </c>
       <c r="H46" t="s">
@@ -5251,7 +5287,7 @@
       <c r="D47" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E47" s="31" t="s">
         <v>398</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -5309,7 +5345,7 @@
     </row>
     <row r="55" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="18" t="s">
         <v>404</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -5318,7 +5354,7 @@
       <c r="D56" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E56" s="33" t="s">
+      <c r="E56" s="32" t="s">
         <v>412</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -5368,7 +5404,7 @@
     </row>
     <row r="63" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="18" t="s">
         <v>422</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -5520,7 +5556,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>513</v>
       </c>
     </row>
@@ -5531,7 +5567,7 @@
       <c r="B4" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>514</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -5545,7 +5581,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C5" s="35"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="2" t="s">
         <v>516</v>
       </c>
@@ -5557,14 +5593,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C6" s="35"/>
+      <c r="C6" s="34"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C7" s="35"/>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>538</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -5572,7 +5608,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C9" s="35"/>
+      <c r="C9" s="34"/>
       <c r="F9" s="2" t="s">
         <v>548</v>
       </c>
@@ -5581,13 +5617,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C10" s="35"/>
+      <c r="C10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C11" s="35"/>
+      <c r="C11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>540</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -5595,16 +5631,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C13" s="35"/>
+      <c r="C13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C14" s="35"/>
+      <c r="C14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C15" s="35"/>
+      <c r="C15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>541</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -5612,13 +5648,13 @@
       </c>
     </row>
     <row r="17" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C17" s="35"/>
+      <c r="C17" s="34"/>
     </row>
     <row r="18" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C18" s="35"/>
+      <c r="C18" s="34"/>
     </row>
     <row r="19" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>543</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -5626,13 +5662,13 @@
       </c>
     </row>
     <row r="20" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C20" s="35"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="21" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C21" s="35"/>
+      <c r="C21" s="34"/>
     </row>
     <row r="22" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>544</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -5640,13 +5676,13 @@
       </c>
     </row>
     <row r="23" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C23" s="35"/>
+      <c r="C23" s="34"/>
     </row>
     <row r="24" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C24" s="35"/>
+      <c r="C24" s="34"/>
     </row>
     <row r="25" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>545</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -5654,13 +5690,13 @@
       </c>
     </row>
     <row r="26" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C26" s="35"/>
+      <c r="C26" s="34"/>
     </row>
     <row r="27" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C27" s="35"/>
+      <c r="C27" s="34"/>
     </row>
     <row r="28" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>546</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -5668,13 +5704,13 @@
       </c>
     </row>
     <row r="29" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C29" s="35"/>
+      <c r="C29" s="34"/>
     </row>
     <row r="30" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C30" s="35"/>
+      <c r="C30" s="34"/>
     </row>
     <row r="31" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>547</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -5682,16 +5718,16 @@
       </c>
     </row>
     <row r="32" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C32" s="35"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="2" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C33" s="35"/>
+      <c r="C33" s="34"/>
     </row>
     <row r="34" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="34" t="s">
         <v>552</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -5699,13 +5735,13 @@
       </c>
     </row>
     <row r="35" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C35" s="35"/>
+      <c r="C35" s="34"/>
     </row>
     <row r="36" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C36" s="35"/>
+      <c r="C36" s="34"/>
     </row>
     <row r="37" spans="3:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="34" t="s">
         <v>554</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -5713,10 +5749,10 @@
       </c>
     </row>
     <row r="38" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C38" s="35"/>
+      <c r="C38" s="34"/>
     </row>
     <row r="39" spans="3:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="34" t="s">
         <v>556</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -5724,13 +5760,13 @@
       </c>
     </row>
     <row r="40" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C40" s="35"/>
+      <c r="C40" s="34"/>
     </row>
     <row r="41" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C41" s="35"/>
+      <c r="C41" s="34"/>
     </row>
     <row r="42" spans="3:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="34" t="s">
         <v>558</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -5738,13 +5774,13 @@
       </c>
     </row>
     <row r="43" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C43" s="35"/>
+      <c r="C43" s="34"/>
     </row>
     <row r="44" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C44" s="35"/>
+      <c r="C44" s="34"/>
     </row>
     <row r="45" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="34" t="s">
         <v>560</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -5752,16 +5788,16 @@
       </c>
     </row>
     <row r="46" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C46" s="35"/>
+      <c r="C46" s="34"/>
     </row>
     <row r="47" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C47" s="35"/>
+      <c r="C47" s="34"/>
     </row>
     <row r="48" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C48" s="35"/>
+      <c r="C48" s="34"/>
     </row>
     <row r="49" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="34" t="s">
         <v>562</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -5769,13 +5805,13 @@
       </c>
     </row>
     <row r="50" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C50" s="35"/>
+      <c r="C50" s="34"/>
     </row>
     <row r="51" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C51" s="35"/>
+      <c r="C51" s="34"/>
     </row>
     <row r="52" spans="3:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="34" t="s">
         <v>564</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -5783,40 +5819,40 @@
       </c>
     </row>
     <row r="53" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C53" s="35"/>
+      <c r="C53" s="34"/>
     </row>
     <row r="54" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C54" s="35"/>
+      <c r="C54" s="34"/>
     </row>
     <row r="55" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C55" s="35"/>
+      <c r="C55" s="34"/>
     </row>
     <row r="56" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C56" s="35"/>
+      <c r="C56" s="34"/>
     </row>
     <row r="57" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C57" s="35"/>
+      <c r="C57" s="34"/>
     </row>
     <row r="58" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C58" s="35"/>
+      <c r="C58" s="34"/>
     </row>
     <row r="59" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C59" s="35"/>
+      <c r="C59" s="34"/>
     </row>
     <row r="60" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C60" s="35"/>
+      <c r="C60" s="34"/>
     </row>
     <row r="61" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C61" s="35"/>
+      <c r="C61" s="34"/>
     </row>
     <row r="62" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C62" s="35"/>
+      <c r="C62" s="34"/>
     </row>
     <row r="63" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C63" s="35"/>
+      <c r="C63" s="34"/>
     </row>
     <row r="64" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C64" s="35"/>
+      <c r="C64" s="34"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6003,7 +6039,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>457</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -6029,7 +6065,7 @@
       <c r="D3" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E3" s="34"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="2" t="s">
         <v>439</v>
       </c>
@@ -6089,7 +6125,7 @@
     </row>
     <row r="13" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6128,7 +6164,7 @@
     </row>
     <row r="26" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -6161,12 +6197,12 @@
     </row>
     <row r="36" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="19"/>
+      <c r="B37" s="18"/>
     </row>
     <row r="38" spans="2:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="32"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="2:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -6191,10 +6227,10 @@
     </row>
     <row r="46" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="19"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="3"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="33"/>
+      <c r="E47" s="32"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -6216,7 +6252,7 @@
     </row>
     <row r="54" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="19"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="3"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -6329,7 +6365,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="3" t="s">
         <v>448</v>
       </c>
@@ -6357,7 +6393,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="3" t="s">
         <v>453</v>
       </c>
@@ -6381,10 +6417,10 @@
     </row>
     <row r="18" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="33"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -6406,7 +6442,7 @@
     </row>
     <row r="26" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -6530,7 +6566,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
         <v>463</v>
@@ -6558,7 +6594,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -6589,7 +6625,7 @@
     </row>
     <row r="18" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="19"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="1" t="s">
         <v>473</v>
       </c>
@@ -6618,7 +6654,7 @@
     </row>
     <row r="26" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -6754,7 +6790,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>483</v>
       </c>
@@ -6914,7 +6950,7 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="3" t="s">
         <v>520</v>
       </c>

--- a/INeuron_Checklist.xlsx
+++ b/INeuron_Checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="6645" tabRatio="695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="6645" tabRatio="695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Python_Project_Stat_EDA" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="595">
   <si>
     <t>Induction session recording</t>
   </si>
@@ -1932,6 +1932,12 @@
   </si>
   <si>
     <t>5th feb live class numpy Links to an external site.</t>
+  </si>
+  <si>
+    <t>ttps://www.youtube.com/watch?v=AOzkMHK3FG4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AOzkMHK3FG4&amp;list=RDCMUCb1GdqUqArXMQ3RS86lqqOw&amp;start_radio=1&amp;rv=AOzkMHK3FG4&amp;t=875&amp;t=875&amp;t=875&amp;t=875</t>
   </si>
 </sst>
 </file>
@@ -2318,6 +2324,9 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2326,24 +2335,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2354,23 +2345,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2387,20 +2372,41 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2690,7 +2696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E44" workbookViewId="0">
+    <sheetView topLeftCell="E44" workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
@@ -2731,7 +2737,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="10"/>
@@ -2743,7 +2749,7 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2759,7 +2765,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2773,7 +2779,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2787,7 +2793,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2799,7 +2805,7 @@
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2813,7 +2819,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2827,7 +2833,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2837,7 +2843,7 @@
       <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2857,7 +2863,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
         <v>7</v>
@@ -2875,7 +2881,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>8</v>
@@ -2891,7 +2897,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
         <v>9</v>
@@ -2907,7 +2913,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
         <v>10</v>
@@ -2919,7 +2925,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
         <v>24</v>
@@ -2933,7 +2939,7 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
         <v>25</v>
@@ -2949,7 +2955,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2972,7 +2978,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
         <v>38</v>
@@ -2983,7 +2989,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
         <v>39</v>
@@ -3001,7 +3007,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
         <v>40</v>
@@ -3021,7 +3027,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
         <v>41</v>
@@ -3033,7 +3039,7 @@
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
         <v>42</v>
@@ -3045,7 +3051,7 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
         <v>43</v>
@@ -3057,7 +3063,7 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
         <v>44</v>
@@ -3069,7 +3075,7 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="45" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3095,7 +3101,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
         <v>55</v>
@@ -3117,7 +3123,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
         <v>56</v>
@@ -3133,7 +3139,7 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
         <v>57</v>
@@ -3149,7 +3155,7 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
         <v>58</v>
@@ -3162,7 +3168,7 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -3173,7 +3179,7 @@
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -3182,7 +3188,7 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="42" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -3194,7 +3200,7 @@
       <c r="D32" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="68"/>
+      <c r="E32" s="41"/>
       <c r="F32" s="35" t="s">
         <v>78</v>
       </c>
@@ -3204,7 +3210,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
         <v>68</v>
@@ -3222,7 +3228,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
         <v>69</v>
@@ -3238,7 +3244,7 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
         <v>70</v>
@@ -3252,7 +3258,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
         <v>71</v>
@@ -3264,7 +3270,7 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
         <v>72</v>
@@ -3276,7 +3282,7 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
         <v>73</v>
@@ -3292,7 +3298,7 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="64" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -3316,7 +3322,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
         <v>83</v>
@@ -3324,7 +3330,7 @@
       <c r="D40" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="68" t="s">
+      <c r="E40" s="41" t="s">
         <v>128</v>
       </c>
       <c r="F40" s="7" t="s">
@@ -3336,7 +3342,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
         <v>84</v>
@@ -3348,7 +3354,7 @@
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="44"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
         <v>85</v>
@@ -3360,7 +3366,7 @@
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="44"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
         <v>86</v>
@@ -3372,19 +3378,19 @@
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="66" t="s">
         <v>108</v>
       </c>
       <c r="B45" s="21"/>
@@ -3406,7 +3412,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
+      <c r="A46" s="67"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21" t="s">
         <v>96</v>
@@ -3424,7 +3430,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
+      <c r="A47" s="67"/>
       <c r="B47" s="23"/>
       <c r="C47" s="21" t="s">
         <v>97</v>
@@ -3444,7 +3450,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="23"/>
       <c r="C48" s="21" t="s">
         <v>98</v>
@@ -3466,7 +3472,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
@@ -3484,7 +3490,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
+      <c r="A50" s="67"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
@@ -3500,7 +3506,7 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
+      <c r="A51" s="67"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
@@ -3516,7 +3522,7 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
+      <c r="A52" s="67"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
@@ -3530,7 +3536,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
+      <c r="A53" s="67"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
@@ -3542,7 +3548,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
+      <c r="A54" s="67"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
@@ -3552,7 +3558,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
+      <c r="A55" s="68"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
@@ -3562,16 +3568,16 @@
       <c r="H55" s="23"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="56" t="s">
+      <c r="D56" s="61" t="s">
         <v>115</v>
       </c>
       <c r="E56" s="11" t="s">
@@ -3584,10 +3590,10 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="56"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="61"/>
       <c r="E57" s="6"/>
       <c r="F57" s="2" t="s">
         <v>590</v>
@@ -3598,10 +3604,10 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="56"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="61"/>
       <c r="E58" s="6"/>
       <c r="F58" s="2" t="s">
         <v>591</v>
@@ -3610,10 +3616,10 @@
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="56"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="6"/>
       <c r="F59" s="2" t="s">
         <v>592</v>
@@ -3624,10 +3630,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="56"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="61"/>
       <c r="E60" s="6"/>
       <c r="F60" s="11" t="s">
         <v>116</v>
@@ -3636,10 +3642,10 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="56"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="61"/>
       <c r="E61" s="6"/>
       <c r="F61" s="11" t="s">
         <v>117</v>
@@ -3648,20 +3654,20 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="56"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="61"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="53" t="s">
+      <c r="A63" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="62" t="s">
         <v>137</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -3682,8 +3688,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
-      <c r="B64" s="58"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="7" t="s">
         <v>138</v>
       </c>
@@ -3702,8 +3708,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
-      <c r="B65" s="58"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="63"/>
       <c r="C65" s="7" t="s">
         <v>139</v>
       </c>
@@ -3720,8 +3726,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
-      <c r="B66" s="58"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="63"/>
       <c r="C66" s="7" t="s">
         <v>140</v>
       </c>
@@ -3736,8 +3742,8 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="58"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="63"/>
       <c r="C67" s="25" t="s">
         <v>141</v>
       </c>
@@ -3748,19 +3754,19 @@
       <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="59" t="s">
+      <c r="A68" s="52" t="s">
         <v>574</v>
       </c>
-      <c r="B68" s="60"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="61"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="54"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="55" t="s">
         <v>165</v>
       </c>
       <c r="B69" s="23"/>
@@ -3780,7 +3786,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="62"/>
+      <c r="A70" s="55"/>
       <c r="B70" s="23"/>
       <c r="C70" s="21" t="s">
         <v>156</v>
@@ -3798,7 +3804,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="62"/>
+      <c r="A71" s="55"/>
       <c r="B71" s="23"/>
       <c r="C71" s="21" t="s">
         <v>157</v>
@@ -3816,7 +3822,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="62"/>
+      <c r="A72" s="55"/>
       <c r="B72" s="23"/>
       <c r="C72" s="21" t="s">
         <v>158</v>
@@ -3834,7 +3840,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="62"/>
+      <c r="A73" s="55"/>
       <c r="B73" s="23"/>
       <c r="C73" s="21" t="s">
         <v>159</v>
@@ -3852,7 +3858,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="62"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="23"/>
       <c r="C74" s="21" t="s">
         <v>160</v>
@@ -3868,7 +3874,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="62"/>
+      <c r="A75" s="55"/>
       <c r="B75" s="23"/>
       <c r="C75" s="21" t="s">
         <v>161</v>
@@ -3880,7 +3886,7 @@
       <c r="H75" s="23"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="62"/>
+      <c r="A76" s="55"/>
       <c r="B76" s="23"/>
       <c r="C76" s="21" t="s">
         <v>162</v>
@@ -3892,7 +3898,7 @@
       <c r="H76" s="23"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="62"/>
+      <c r="A77" s="55"/>
       <c r="B77" s="23"/>
       <c r="C77" s="21" t="s">
         <v>163</v>
@@ -3904,7 +3910,7 @@
       <c r="H77" s="23"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="62"/>
+      <c r="A78" s="55"/>
       <c r="B78" s="23"/>
       <c r="C78" s="23" t="s">
         <v>164</v>
@@ -3916,19 +3922,19 @@
       <c r="H78" s="23"/>
     </row>
     <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="63" t="s">
+      <c r="A79" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="63"/>
-      <c r="H79" s="63"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
     </row>
     <row r="80" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="49" t="s">
+      <c r="A80" s="57" t="s">
         <v>190</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -3952,7 +3958,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="12"/>
       <c r="C81" s="7" t="s">
         <v>185</v>
@@ -3972,7 +3978,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="12"/>
       <c r="C82" s="7" t="s">
         <v>186</v>
@@ -3990,7 +3996,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="12"/>
       <c r="C83" s="7" t="s">
         <v>187</v>
@@ -4008,7 +4014,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="12"/>
       <c r="C84" s="7" t="s">
         <v>188</v>
@@ -4026,7 +4032,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="12"/>
       <c r="C85" s="7" t="s">
         <v>189</v>
@@ -4140,22 +4146,22 @@
       <c r="H93" s="28"/>
     </row>
     <row r="94" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="64" t="s">
+      <c r="A94" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="B94" s="64"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="64"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="64"/>
-      <c r="H94" s="64"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="50" t="s">
+      <c r="A95" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="B95" s="41" t="s">
+      <c r="B95" s="42" t="s">
         <v>220</v>
       </c>
       <c r="C95" s="7" t="s">
@@ -4176,8 +4182,8 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
-      <c r="B96" s="42"/>
+      <c r="A96" s="46"/>
+      <c r="B96" s="43"/>
       <c r="C96" s="7" t="s">
         <v>222</v>
       </c>
@@ -4196,8 +4202,8 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
-      <c r="B97" s="42"/>
+      <c r="A97" s="46"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="7" t="s">
         <v>223</v>
       </c>
@@ -4214,8 +4220,8 @@
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
-      <c r="B98" s="42"/>
+      <c r="A98" s="46"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="7" t="s">
         <v>224</v>
       </c>
@@ -4230,8 +4236,8 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="51"/>
-      <c r="B99" s="42"/>
+      <c r="A99" s="46"/>
+      <c r="B99" s="43"/>
       <c r="C99" s="7" t="s">
         <v>225</v>
       </c>
@@ -4246,8 +4252,8 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="51"/>
-      <c r="B100" s="42"/>
+      <c r="A100" s="46"/>
+      <c r="B100" s="43"/>
       <c r="C100" s="7" t="s">
         <v>226</v>
       </c>
@@ -4262,8 +4268,8 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="51"/>
-      <c r="B101" s="42"/>
+      <c r="A101" s="46"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="7" t="s">
         <v>227</v>
       </c>
@@ -4278,8 +4284,8 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="51"/>
-      <c r="B102" s="42"/>
+      <c r="A102" s="46"/>
+      <c r="B102" s="43"/>
       <c r="C102" s="7" t="s">
         <v>228</v>
       </c>
@@ -4294,8 +4300,8 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="51"/>
-      <c r="B103" s="42"/>
+      <c r="A103" s="46"/>
+      <c r="B103" s="43"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -4304,8 +4310,8 @@
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="51"/>
-      <c r="B104" s="42"/>
+      <c r="A104" s="46"/>
+      <c r="B104" s="43"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -4314,8 +4320,8 @@
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="51"/>
-      <c r="B105" s="42"/>
+      <c r="A105" s="46"/>
+      <c r="B105" s="43"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -4328,8 +4334,8 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="51"/>
-      <c r="B106" s="42"/>
+      <c r="A106" s="46"/>
+      <c r="B106" s="43"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -4342,8 +4348,8 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="51"/>
-      <c r="B107" s="42"/>
+      <c r="A107" s="46"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -4356,8 +4362,8 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="52"/>
-      <c r="B108" s="43"/>
+      <c r="A108" s="47"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
@@ -4366,8 +4372,8 @@
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="54"/>
-      <c r="B109" s="54" t="s">
+      <c r="A109" s="48"/>
+      <c r="B109" s="48" t="s">
         <v>220</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -4388,8 +4394,8 @@
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="65"/>
-      <c r="B110" s="65"/>
+      <c r="A110" s="49"/>
+      <c r="B110" s="49"/>
       <c r="C110" s="7" t="s">
         <v>258</v>
       </c>
@@ -4408,8 +4414,8 @@
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="65"/>
-      <c r="B111" s="65"/>
+      <c r="A111" s="49"/>
+      <c r="B111" s="49"/>
       <c r="C111" s="7" t="s">
         <v>259</v>
       </c>
@@ -4426,8 +4432,8 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="65"/>
-      <c r="B112" s="65"/>
+      <c r="A112" s="49"/>
+      <c r="B112" s="49"/>
       <c r="C112" s="7" t="s">
         <v>260</v>
       </c>
@@ -4438,8 +4444,8 @@
       <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="65"/>
-      <c r="B113" s="65"/>
+      <c r="A113" s="49"/>
+      <c r="B113" s="49"/>
       <c r="C113" s="7" t="s">
         <v>261</v>
       </c>
@@ -4450,8 +4456,8 @@
       <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="65"/>
-      <c r="B114" s="65"/>
+      <c r="A114" s="49"/>
+      <c r="B114" s="49"/>
       <c r="C114" s="7" t="s">
         <v>262</v>
       </c>
@@ -4462,8 +4468,8 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="65"/>
-      <c r="B115" s="65"/>
+      <c r="A115" s="49"/>
+      <c r="B115" s="49"/>
       <c r="C115" s="7" t="s">
         <v>263</v>
       </c>
@@ -4474,8 +4480,8 @@
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="66"/>
-      <c r="B116" s="66"/>
+      <c r="A116" s="50"/>
+      <c r="B116" s="50"/>
       <c r="C116" s="7" t="s">
         <v>264</v>
       </c>
@@ -4486,16 +4492,16 @@
       <c r="H116" s="6"/>
     </row>
     <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="67" t="s">
+      <c r="A117" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="B117" s="67"/>
-      <c r="C117" s="67"/>
-      <c r="D117" s="67"/>
-      <c r="E117" s="67"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="67"/>
-      <c r="H117" s="67"/>
+      <c r="B117" s="51"/>
+      <c r="C117" s="51"/>
+      <c r="D117" s="51"/>
+      <c r="E117" s="51"/>
+      <c r="F117" s="51"/>
+      <c r="G117" s="51"/>
+      <c r="H117" s="51"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
@@ -4659,22 +4665,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B95:B108"/>
-    <mergeCell ref="A95:A108"/>
-    <mergeCell ref="B109:B116"/>
-    <mergeCell ref="A117:H117"/>
-    <mergeCell ref="A109:A116"/>
-    <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="A79:H79"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="D56:D62"/>
-    <mergeCell ref="B63:B67"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:H44"/>
@@ -4683,6 +4673,22 @@
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="D56:D62"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="A79:H79"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="B95:B108"/>
+    <mergeCell ref="A95:A108"/>
+    <mergeCell ref="B109:B116"/>
+    <mergeCell ref="A117:H117"/>
+    <mergeCell ref="A109:A116"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" tooltip="Induction Session 6th June" display="https://youtu.be/g2J_MLzOuy0"/>
@@ -4936,8 +4942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5037,10 +5043,16 @@
       <c r="C9" s="3" t="s">
         <v>304</v>
       </c>
+      <c r="F9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
         <v>305</v>
+      </c>
+      <c r="F10" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">

--- a/INeuron_Checklist.xlsx
+++ b/INeuron_Checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="6645" tabRatio="695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="6645" tabRatio="695"/>
   </bookViews>
   <sheets>
     <sheet name="Python_Project_Stat_EDA" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="601">
   <si>
     <t>Induction session recording</t>
   </si>
@@ -1938,6 +1938,24 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=AOzkMHK3FG4&amp;list=RDCMUCb1GdqUqArXMQ3RS86lqqOw&amp;start_radio=1&amp;rv=AOzkMHK3FG4&amp;t=875&amp;t=875&amp;t=875&amp;t=875</t>
+  </si>
+  <si>
+    <t>16th jan numpy class 1 discussion Links to an external site.</t>
+  </si>
+  <si>
+    <t>17th jan numpy class 2 Links to an external site.</t>
+  </si>
+  <si>
+    <t>23rd jan matplotlib Links to an external site.</t>
+  </si>
+  <si>
+    <t>24th Jan seabprn Links to an external site.</t>
+  </si>
+  <si>
+    <t>30th jab seaborn Links to an external site.</t>
+  </si>
+  <si>
+    <t>28th jan doubt clearing session Links to an external site.</t>
   </si>
 </sst>
 </file>
@@ -2068,7 +2086,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2126,6 +2144,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2256,7 +2280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2327,6 +2351,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2335,6 +2360,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2345,17 +2388,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2372,42 +2421,19 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2696,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView topLeftCell="E44" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="F56" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2737,7 +2763,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="51" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="10"/>
@@ -2749,7 +2775,7 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2765,7 +2791,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2779,7 +2805,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2793,7 +2819,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2805,7 +2831,7 @@
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2819,7 +2845,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2833,7 +2859,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2843,7 +2869,7 @@
       <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="51" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2863,7 +2889,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
         <v>7</v>
@@ -2881,7 +2907,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>8</v>
@@ -2897,7 +2923,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
         <v>9</v>
@@ -2913,7 +2939,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
         <v>10</v>
@@ -2925,7 +2951,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
         <v>24</v>
@@ -2939,7 +2965,7 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
         <v>25</v>
@@ -2955,7 +2981,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="43" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2978,7 +3004,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
         <v>38</v>
@@ -2989,7 +3015,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
         <v>39</v>
@@ -3007,7 +3033,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
         <v>40</v>
@@ -3027,7 +3053,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
         <v>41</v>
@@ -3039,7 +3065,7 @@
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
         <v>42</v>
@@ -3051,7 +3077,7 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
         <v>43</v>
@@ -3063,7 +3089,7 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
         <v>44</v>
@@ -3075,7 +3101,7 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="52" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3101,7 +3127,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
         <v>55</v>
@@ -3123,7 +3149,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
         <v>56</v>
@@ -3139,7 +3165,7 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
         <v>57</v>
@@ -3155,7 +3181,7 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
         <v>58</v>
@@ -3168,7 +3194,7 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -3179,7 +3205,7 @@
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -3188,7 +3214,7 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="43" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -3210,7 +3236,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
         <v>68</v>
@@ -3228,7 +3254,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
         <v>69</v>
@@ -3244,7 +3270,7 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
         <v>70</v>
@@ -3258,7 +3284,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
         <v>71</v>
@@ -3270,7 +3296,7 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
         <v>72</v>
@@ -3282,7 +3308,7 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="44"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
         <v>73</v>
@@ -3298,7 +3324,7 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="46" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -3322,7 +3348,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
         <v>83</v>
@@ -3342,7 +3368,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="64"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
         <v>84</v>
@@ -3354,7 +3380,7 @@
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="64"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
         <v>85</v>
@@ -3366,7 +3392,7 @@
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="64"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
         <v>86</v>
@@ -3378,19 +3404,19 @@
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="48" t="s">
         <v>108</v>
       </c>
       <c r="B45" s="21"/>
@@ -3412,7 +3438,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21" t="s">
         <v>96</v>
@@ -3430,7 +3456,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="23"/>
       <c r="C47" s="21" t="s">
         <v>97</v>
@@ -3450,7 +3476,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="23"/>
       <c r="C48" s="21" t="s">
         <v>98</v>
@@ -3472,7 +3498,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
@@ -3490,7 +3516,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="67"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
@@ -3506,7 +3532,7 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
@@ -3522,7 +3548,7 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
@@ -3536,7 +3562,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
@@ -3548,7 +3574,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
@@ -3558,7 +3584,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="68"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
@@ -3568,60 +3594,64 @@
       <c r="H55" s="23"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="57" t="s">
+      <c r="A56" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="60" t="s">
+      <c r="B56" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="57" t="s">
+      <c r="C56" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="61" t="s">
+      <c r="D56" s="58" t="s">
         <v>115</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="42" t="s">
         <v>589</v>
       </c>
-      <c r="G56" s="6"/>
+      <c r="G56" s="42" t="s">
+        <v>595</v>
+      </c>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="61"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="58"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="42" t="s">
         <v>590</v>
       </c>
-      <c r="G57" s="6"/>
+      <c r="G57" s="42" t="s">
+        <v>596</v>
+      </c>
       <c r="H57" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="61"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="58"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="42" t="s">
         <v>591</v>
       </c>
-      <c r="G58" s="6"/>
+      <c r="G58" s="23"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="61"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="58"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="42" t="s">
         <v>592</v>
       </c>
       <c r="G59" s="6"/>
@@ -3630,44 +3660,44 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="61"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="58"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="42" t="s">
         <v>116</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="61"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="6"/>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="42" t="s">
         <v>117</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="61"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="58"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="59" t="s">
         <v>137</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -3679,17 +3709,19 @@
       <c r="E63" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="G63" s="6"/>
+      <c r="G63" s="42" t="s">
+        <v>597</v>
+      </c>
       <c r="H63" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="59"/>
-      <c r="B64" s="63"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="60"/>
       <c r="C64" s="7" t="s">
         <v>138</v>
       </c>
@@ -3702,14 +3734,16 @@
       <c r="F64" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G64" s="6"/>
+      <c r="G64" s="2" t="s">
+        <v>598</v>
+      </c>
       <c r="H64" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="63"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="60"/>
       <c r="C65" s="7" t="s">
         <v>139</v>
       </c>
@@ -3720,14 +3754,16 @@
       <c r="F65" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G65" s="6"/>
+      <c r="G65" s="2" t="s">
+        <v>599</v>
+      </c>
       <c r="H65" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="63"/>
+      <c r="A66" s="55"/>
+      <c r="B66" s="60"/>
       <c r="C66" s="7" t="s">
         <v>140</v>
       </c>
@@ -3736,14 +3772,16 @@
       <c r="F66" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G66" s="6"/>
+      <c r="G66" s="2" t="s">
+        <v>600</v>
+      </c>
       <c r="H66" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="63"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="60"/>
       <c r="C67" s="25" t="s">
         <v>141</v>
       </c>
@@ -3754,19 +3792,19 @@
       <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="52" t="s">
+      <c r="A68" s="61" t="s">
         <v>574</v>
       </c>
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="54"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="63"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="64" t="s">
         <v>165</v>
       </c>
       <c r="B69" s="23"/>
@@ -3786,7 +3824,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
+      <c r="A70" s="64"/>
       <c r="B70" s="23"/>
       <c r="C70" s="21" t="s">
         <v>156</v>
@@ -3804,7 +3842,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
+      <c r="A71" s="64"/>
       <c r="B71" s="23"/>
       <c r="C71" s="21" t="s">
         <v>157</v>
@@ -3822,7 +3860,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
+      <c r="A72" s="64"/>
       <c r="B72" s="23"/>
       <c r="C72" s="21" t="s">
         <v>158</v>
@@ -3840,7 +3878,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
+      <c r="A73" s="64"/>
       <c r="B73" s="23"/>
       <c r="C73" s="21" t="s">
         <v>159</v>
@@ -3858,7 +3896,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
+      <c r="A74" s="64"/>
       <c r="B74" s="23"/>
       <c r="C74" s="21" t="s">
         <v>160</v>
@@ -3874,7 +3912,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
+      <c r="A75" s="64"/>
       <c r="B75" s="23"/>
       <c r="C75" s="21" t="s">
         <v>161</v>
@@ -3886,7 +3924,7 @@
       <c r="H75" s="23"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
+      <c r="A76" s="64"/>
       <c r="B76" s="23"/>
       <c r="C76" s="21" t="s">
         <v>162</v>
@@ -3898,7 +3936,7 @@
       <c r="H76" s="23"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
+      <c r="A77" s="64"/>
       <c r="B77" s="23"/>
       <c r="C77" s="21" t="s">
         <v>163</v>
@@ -3910,7 +3948,7 @@
       <c r="H77" s="23"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
+      <c r="A78" s="64"/>
       <c r="B78" s="23"/>
       <c r="C78" s="23" t="s">
         <v>164</v>
@@ -3922,19 +3960,19 @@
       <c r="H78" s="23"/>
     </row>
     <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="56" t="s">
+      <c r="A79" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="B79" s="56"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="65"/>
+      <c r="H79" s="65"/>
     </row>
     <row r="80" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="57" t="s">
+      <c r="A80" s="51" t="s">
         <v>190</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -3958,7 +3996,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
+      <c r="A81" s="51"/>
       <c r="B81" s="12"/>
       <c r="C81" s="7" t="s">
         <v>185</v>
@@ -3978,7 +4016,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="57"/>
+      <c r="A82" s="51"/>
       <c r="B82" s="12"/>
       <c r="C82" s="7" t="s">
         <v>186</v>
@@ -3996,7 +4034,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="57"/>
+      <c r="A83" s="51"/>
       <c r="B83" s="12"/>
       <c r="C83" s="7" t="s">
         <v>187</v>
@@ -4014,7 +4052,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="57"/>
+      <c r="A84" s="51"/>
       <c r="B84" s="12"/>
       <c r="C84" s="7" t="s">
         <v>188</v>
@@ -4032,7 +4070,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
+      <c r="A85" s="51"/>
       <c r="B85" s="12"/>
       <c r="C85" s="7" t="s">
         <v>189</v>
@@ -4146,22 +4184,22 @@
       <c r="H93" s="28"/>
     </row>
     <row r="94" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="58" t="s">
+      <c r="A94" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="B94" s="58"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="66"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="45" t="s">
+      <c r="A95" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="B95" s="42" t="s">
+      <c r="B95" s="43" t="s">
         <v>220</v>
       </c>
       <c r="C95" s="7" t="s">
@@ -4182,8 +4220,8 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="46"/>
-      <c r="B96" s="43"/>
+      <c r="A96" s="53"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="7" t="s">
         <v>222</v>
       </c>
@@ -4202,8 +4240,8 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="46"/>
-      <c r="B97" s="43"/>
+      <c r="A97" s="53"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="7" t="s">
         <v>223</v>
       </c>
@@ -4220,8 +4258,8 @@
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="46"/>
-      <c r="B98" s="43"/>
+      <c r="A98" s="53"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="7" t="s">
         <v>224</v>
       </c>
@@ -4236,8 +4274,8 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="46"/>
-      <c r="B99" s="43"/>
+      <c r="A99" s="53"/>
+      <c r="B99" s="44"/>
       <c r="C99" s="7" t="s">
         <v>225</v>
       </c>
@@ -4252,8 +4290,8 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="46"/>
-      <c r="B100" s="43"/>
+      <c r="A100" s="53"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="7" t="s">
         <v>226</v>
       </c>
@@ -4268,8 +4306,8 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="46"/>
-      <c r="B101" s="43"/>
+      <c r="A101" s="53"/>
+      <c r="B101" s="44"/>
       <c r="C101" s="7" t="s">
         <v>227</v>
       </c>
@@ -4284,8 +4322,8 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="46"/>
-      <c r="B102" s="43"/>
+      <c r="A102" s="53"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="7" t="s">
         <v>228</v>
       </c>
@@ -4300,8 +4338,8 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="46"/>
-      <c r="B103" s="43"/>
+      <c r="A103" s="53"/>
+      <c r="B103" s="44"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -4310,8 +4348,8 @@
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="46"/>
-      <c r="B104" s="43"/>
+      <c r="A104" s="53"/>
+      <c r="B104" s="44"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -4320,8 +4358,8 @@
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="46"/>
-      <c r="B105" s="43"/>
+      <c r="A105" s="53"/>
+      <c r="B105" s="44"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -4334,8 +4372,8 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="46"/>
-      <c r="B106" s="43"/>
+      <c r="A106" s="53"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -4348,8 +4386,8 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="46"/>
-      <c r="B107" s="43"/>
+      <c r="A107" s="53"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -4362,8 +4400,8 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="47"/>
-      <c r="B108" s="44"/>
+      <c r="A108" s="54"/>
+      <c r="B108" s="45"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
@@ -4372,8 +4410,8 @@
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="48"/>
-      <c r="B109" s="48" t="s">
+      <c r="A109" s="56"/>
+      <c r="B109" s="56" t="s">
         <v>220</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -4394,8 +4432,8 @@
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="49"/>
-      <c r="B110" s="49"/>
+      <c r="A110" s="67"/>
+      <c r="B110" s="67"/>
       <c r="C110" s="7" t="s">
         <v>258</v>
       </c>
@@ -4414,8 +4452,8 @@
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="49"/>
-      <c r="B111" s="49"/>
+      <c r="A111" s="67"/>
+      <c r="B111" s="67"/>
       <c r="C111" s="7" t="s">
         <v>259</v>
       </c>
@@ -4432,8 +4470,8 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="49"/>
-      <c r="B112" s="49"/>
+      <c r="A112" s="67"/>
+      <c r="B112" s="67"/>
       <c r="C112" s="7" t="s">
         <v>260</v>
       </c>
@@ -4444,8 +4482,8 @@
       <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="49"/>
-      <c r="B113" s="49"/>
+      <c r="A113" s="67"/>
+      <c r="B113" s="67"/>
       <c r="C113" s="7" t="s">
         <v>261</v>
       </c>
@@ -4456,8 +4494,8 @@
       <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="49"/>
-      <c r="B114" s="49"/>
+      <c r="A114" s="67"/>
+      <c r="B114" s="67"/>
       <c r="C114" s="7" t="s">
         <v>262</v>
       </c>
@@ -4468,8 +4506,8 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="49"/>
-      <c r="B115" s="49"/>
+      <c r="A115" s="67"/>
+      <c r="B115" s="67"/>
       <c r="C115" s="7" t="s">
         <v>263</v>
       </c>
@@ -4480,8 +4518,8 @@
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="50"/>
-      <c r="B116" s="50"/>
+      <c r="A116" s="68"/>
+      <c r="B116" s="68"/>
       <c r="C116" s="7" t="s">
         <v>264</v>
       </c>
@@ -4492,16 +4530,16 @@
       <c r="H116" s="6"/>
     </row>
     <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="51" t="s">
+      <c r="A117" s="69" t="s">
         <v>276</v>
       </c>
-      <c r="B117" s="51"/>
-      <c r="C117" s="51"/>
-      <c r="D117" s="51"/>
-      <c r="E117" s="51"/>
-      <c r="F117" s="51"/>
-      <c r="G117" s="51"/>
-      <c r="H117" s="51"/>
+      <c r="B117" s="69"/>
+      <c r="C117" s="69"/>
+      <c r="D117" s="69"/>
+      <c r="E117" s="69"/>
+      <c r="F117" s="69"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="69"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
@@ -4665,6 +4703,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B95:B108"/>
+    <mergeCell ref="A95:A108"/>
+    <mergeCell ref="B109:B116"/>
+    <mergeCell ref="A117:H117"/>
+    <mergeCell ref="A109:A116"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="A79:H79"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="D56:D62"/>
+    <mergeCell ref="B63:B67"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:H44"/>
@@ -4673,22 +4727,6 @@
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="D56:D62"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="A79:H79"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="B95:B108"/>
-    <mergeCell ref="A95:A108"/>
-    <mergeCell ref="B109:B116"/>
-    <mergeCell ref="A117:H117"/>
-    <mergeCell ref="A109:A116"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" tooltip="Induction Session 6th June" display="https://youtu.be/g2J_MLzOuy0"/>
@@ -4835,10 +4873,16 @@
     <hyperlink ref="F56" r:id="rId142" tooltip="Numpy 1" display="https://youtu.be/jJdDOKDRw3Q"/>
     <hyperlink ref="F58" r:id="rId143" tooltip="3rd feb live class numpy" display="https://www.youtube.com/watch?v=pRma30BRd6U&amp;feature=youtu.be"/>
     <hyperlink ref="F59" r:id="rId144" tooltip="5th feb live class numpy" display="https://www.youtube.com/watch?v=5tv7qJwAxT4&amp;feature=youtu.be"/>
+    <hyperlink ref="G56" r:id="rId145" tooltip="16th jan numpy class 1 discussion " display="https://www.youtube.com/watch?v=8JmmydFzedc&amp;feature=youtu.be"/>
+    <hyperlink ref="G57" r:id="rId146" tooltip="17th jan numpy class 2 " display="https://www.youtube.com/watch?v=WTDRHy2wTjQ&amp;feature=youtu.be"/>
+    <hyperlink ref="G63" r:id="rId147" tooltip="23rd jan matplotlib " display="https://www.youtube.com/watch?v=wGCNYFqKBSg&amp;feature=youtu.be"/>
+    <hyperlink ref="G64" r:id="rId148" tooltip="24th Jan seabprn" display="https://www.youtube.com/watch?v=G1aAbbQ7tBM&amp;feature=youtu.be"/>
+    <hyperlink ref="G65" r:id="rId149" tooltip="30th jab  seaborn " display="https://www.youtube.com/watch?v=oiTD4zITsi4&amp;feature=youtu.be"/>
+    <hyperlink ref="G66" r:id="rId150" tooltip="28th jan doubt clearing session " display="https://www.youtube.com/watch?v=WHgI7RLUJww&amp;feature=youtu.be"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId145"/>
-  <legacyDrawing r:id="rId146"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId151"/>
+  <legacyDrawing r:id="rId152"/>
 </worksheet>
 </file>
 
@@ -4942,7 +4986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/INeuron_Checklist.xlsx
+++ b/INeuron_Checklist.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="602">
   <si>
     <t>Induction session recording</t>
   </si>
@@ -673,16 +673,7 @@
     <t>image scraper</t>
   </si>
   <si>
-    <t>5th sep python project Review Scrapper Links to an external site.</t>
-  </si>
-  <si>
     <t>6th Sep Review Scrapper Deployment on Heroku Links to an external site.</t>
-  </si>
-  <si>
-    <t>12th Sep Image Scrapper Recording Links to an external site.</t>
-  </si>
-  <si>
-    <t>Web Scraper class Links to an external site.</t>
   </si>
   <si>
     <t>Web Scraper with Selenium class Links to an external site.</t>
@@ -1956,6 +1947,18 @@
   </si>
   <si>
     <t>28th jan doubt clearing session Links to an external site.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MwZwr5Tvyxo&amp;list=PL-osiE80TeTs4UjLw5MM6OjgkjFeUxCYH</t>
+  </si>
+  <si>
+    <t>Web Scraper class Links to an external site.</t>
+  </si>
+  <si>
+    <t>GMT20200905 094521 class at 3 1920x1080 - YouTube</t>
+  </si>
+  <si>
+    <t>GMT20200912 092712 Class 3 1920x1080 - YouTube</t>
   </si>
 </sst>
 </file>
@@ -2086,7 +2089,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2150,6 +2153,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2280,7 +2289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2352,6 +2361,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2433,7 +2445,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2722,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F56" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="E77" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2763,7 +2774,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="10"/>
@@ -2775,7 +2786,7 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2791,7 +2802,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2805,7 +2816,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2819,7 +2830,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2831,7 +2842,7 @@
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2845,7 +2856,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2859,7 +2870,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2869,7 +2880,7 @@
       <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="54" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2889,7 +2900,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
         <v>7</v>
@@ -2907,7 +2918,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>8</v>
@@ -2923,7 +2934,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
         <v>9</v>
@@ -2939,7 +2950,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
         <v>10</v>
@@ -2951,7 +2962,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
         <v>24</v>
@@ -2959,13 +2970,13 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="35" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G15" s="36"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
         <v>25</v>
@@ -2973,15 +2984,15 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="35" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="36" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="46" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2997,14 +3008,14 @@
         <v>123</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H17" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
         <v>38</v>
@@ -3015,7 +3026,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
         <v>39</v>
@@ -3026,14 +3037,14 @@
         <v>49</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H19" s="36" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
         <v>40</v>
@@ -3046,14 +3057,14 @@
         <v>50</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
         <v>41</v>
@@ -3065,7 +3076,7 @@
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
         <v>42</v>
@@ -3077,7 +3088,7 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
         <v>43</v>
@@ -3089,7 +3100,7 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
         <v>44</v>
@@ -3101,7 +3112,7 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="55" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3120,14 +3131,14 @@
         <v>61</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
         <v>55</v>
@@ -3142,14 +3153,14 @@
         <v>62</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
         <v>56</v>
@@ -3160,12 +3171,12 @@
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
         <v>57</v>
@@ -3176,12 +3187,12 @@
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
         <v>58</v>
@@ -3194,7 +3205,7 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -3205,7 +3216,7 @@
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -3214,7 +3225,7 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="46" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -3236,7 +3247,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
         <v>68</v>
@@ -3254,7 +3265,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="44"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
         <v>69</v>
@@ -3270,7 +3281,7 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="44"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
         <v>70</v>
@@ -3284,7 +3295,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
         <v>71</v>
@@ -3296,7 +3307,7 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="44"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
         <v>72</v>
@@ -3308,7 +3319,7 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
         <v>73</v>
@@ -3316,15 +3327,15 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="49" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -3341,14 +3352,14 @@
         <v>88</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
         <v>83</v>
@@ -3368,7 +3379,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="46"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
         <v>84</v>
@@ -3380,7 +3391,7 @@
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="46"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
         <v>85</v>
@@ -3392,7 +3403,7 @@
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="46"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
         <v>86</v>
@@ -3404,19 +3415,19 @@
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="51" t="s">
         <v>108</v>
       </c>
       <c r="B45" s="21"/>
@@ -3438,7 +3449,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21" t="s">
         <v>96</v>
@@ -3456,7 +3467,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="23"/>
       <c r="C47" s="21" t="s">
         <v>97</v>
@@ -3476,7 +3487,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="23"/>
       <c r="C48" s="21" t="s">
         <v>98</v>
@@ -3491,14 +3502,14 @@
         <v>106</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H48" s="23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
@@ -3509,14 +3520,14 @@
         <v>107</v>
       </c>
       <c r="G49" s="40" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H49" s="23" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
@@ -3524,15 +3535,15 @@
         <v>133</v>
       </c>
       <c r="F50" s="40" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G50" s="40" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
@@ -3540,15 +3551,15 @@
         <v>134</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G51" s="40" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
@@ -3556,25 +3567,25 @@
         <v>135</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G52" s="23"/>
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
       <c r="F53" s="35" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
@@ -3584,7 +3595,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
+      <c r="A55" s="53"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
@@ -3594,65 +3605,65 @@
       <c r="H55" s="23"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="51" t="s">
+      <c r="A56" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="58" t="s">
+      <c r="D56" s="61" t="s">
         <v>115</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F56" s="42" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="58"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="61"/>
       <c r="E57" s="6"/>
       <c r="F57" s="42" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G57" s="42" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="58"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="61"/>
       <c r="E58" s="6"/>
       <c r="F58" s="42" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="G58" s="23"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="58"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="6"/>
       <c r="F59" s="42" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6" t="s">
@@ -3660,10 +3671,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="58"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="61"/>
       <c r="E60" s="6"/>
       <c r="F60" s="42" t="s">
         <v>116</v>
@@ -3672,10 +3683,10 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="58"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="61"/>
       <c r="E61" s="6"/>
       <c r="F61" s="42" t="s">
         <v>117</v>
@@ -3684,20 +3695,20 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="58"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="61"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="55" t="s">
+      <c r="A63" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="62" t="s">
         <v>137</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -3709,19 +3720,19 @@
       <c r="E63" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="70" t="s">
+      <c r="F63" s="43" t="s">
         <v>147</v>
       </c>
       <c r="G63" s="42" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
-      <c r="B64" s="60"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="7" t="s">
         <v>138</v>
       </c>
@@ -3734,16 +3745,16 @@
       <c r="F64" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>598</v>
+      <c r="G64" s="42" t="s">
+        <v>595</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
-      <c r="B65" s="60"/>
+      <c r="A65" s="58"/>
+      <c r="B65" s="63"/>
       <c r="C65" s="7" t="s">
         <v>139</v>
       </c>
@@ -3755,15 +3766,15 @@
         <v>149</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
-      <c r="B66" s="60"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="63"/>
       <c r="C66" s="7" t="s">
         <v>140</v>
       </c>
@@ -3773,15 +3784,15 @@
         <v>150</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
-      <c r="B67" s="60"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="63"/>
       <c r="C67" s="25" t="s">
         <v>141</v>
       </c>
@@ -3792,19 +3803,19 @@
       <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="61" t="s">
-        <v>574</v>
-      </c>
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="62"/>
-      <c r="H68" s="63"/>
+      <c r="A68" s="64" t="s">
+        <v>571</v>
+      </c>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="66"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="64" t="s">
+      <c r="A69" s="67" t="s">
         <v>165</v>
       </c>
       <c r="B69" s="23"/>
@@ -3815,7 +3826,7 @@
         <v>167</v>
       </c>
       <c r="E69" s="23"/>
-      <c r="F69" s="22" t="s">
+      <c r="F69" s="43" t="s">
         <v>172</v>
       </c>
       <c r="G69" s="23"/>
@@ -3824,7 +3835,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="64"/>
+      <c r="A70" s="67"/>
       <c r="B70" s="23"/>
       <c r="C70" s="21" t="s">
         <v>156</v>
@@ -3842,7 +3853,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="64"/>
+      <c r="A71" s="67"/>
       <c r="B71" s="23"/>
       <c r="C71" s="21" t="s">
         <v>157</v>
@@ -3860,7 +3871,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="64"/>
+      <c r="A72" s="67"/>
       <c r="B72" s="23"/>
       <c r="C72" s="21" t="s">
         <v>158</v>
@@ -3878,7 +3889,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="64"/>
+      <c r="A73" s="67"/>
       <c r="B73" s="23"/>
       <c r="C73" s="21" t="s">
         <v>159</v>
@@ -3896,7 +3907,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="64"/>
+      <c r="A74" s="67"/>
       <c r="B74" s="23"/>
       <c r="C74" s="21" t="s">
         <v>160</v>
@@ -3904,27 +3915,29 @@
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
       <c r="F74" s="23" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G74" s="23"/>
       <c r="H74" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="64"/>
+      <c r="A75" s="67"/>
       <c r="B75" s="23"/>
       <c r="C75" s="21" t="s">
         <v>161</v>
       </c>
       <c r="D75" s="23"/>
       <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
+      <c r="F75" s="23" t="s">
+        <v>598</v>
+      </c>
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="64"/>
+      <c r="A76" s="67"/>
       <c r="B76" s="23"/>
       <c r="C76" s="21" t="s">
         <v>162</v>
@@ -3936,7 +3949,7 @@
       <c r="H76" s="23"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="64"/>
+      <c r="A77" s="67"/>
       <c r="B77" s="23"/>
       <c r="C77" s="21" t="s">
         <v>163</v>
@@ -3948,7 +3961,7 @@
       <c r="H77" s="23"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="64"/>
+      <c r="A78" s="67"/>
       <c r="B78" s="23"/>
       <c r="C78" s="23" t="s">
         <v>164</v>
@@ -3960,19 +3973,19 @@
       <c r="H78" s="23"/>
     </row>
     <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="65" t="s">
+      <c r="A79" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="65"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="68"/>
+      <c r="H79" s="68"/>
     </row>
     <row r="80" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="51" t="s">
+      <c r="A80" s="54" t="s">
         <v>190</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -3982,101 +3995,101 @@
         <v>184</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="F80" s="6" t="s">
-        <v>193</v>
+      <c r="F80" s="44" t="s">
+        <v>600</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="51"/>
+      <c r="A81" s="54"/>
       <c r="B81" s="12"/>
       <c r="C81" s="7" t="s">
         <v>185</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F81" s="11" t="s">
-        <v>194</v>
+      <c r="F81" s="45" t="s">
+        <v>193</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="51"/>
+      <c r="A82" s="54"/>
       <c r="B82" s="12"/>
       <c r="C82" s="7" t="s">
         <v>186</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E82" s="6"/>
-      <c r="F82" s="6" t="s">
-        <v>195</v>
+      <c r="F82" s="2" t="s">
+        <v>601</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="51"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="12"/>
       <c r="C83" s="7" t="s">
         <v>187</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E83" s="6"/>
-      <c r="F83" s="6" t="s">
-        <v>196</v>
+      <c r="F83" s="2" t="s">
+        <v>599</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="51"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="12"/>
       <c r="C84" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="51"/>
+      <c r="A85" s="54"/>
       <c r="B85" s="12"/>
       <c r="C85" s="7" t="s">
         <v>189</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -4088,7 +4101,7 @@
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -4100,7 +4113,7 @@
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -4122,7 +4135,7 @@
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -4134,7 +4147,7 @@
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -4153,21 +4166,21 @@
     </row>
     <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C92" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
       <c r="G92" s="29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H92" s="28"/>
     </row>
@@ -4176,7 +4189,7 @@
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
@@ -4184,162 +4197,162 @@
       <c r="H93" s="28"/>
     </row>
     <row r="94" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="B94" s="66"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="66"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="66"/>
-      <c r="H94" s="66"/>
+      <c r="A94" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="B94" s="69"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="69"/>
+      <c r="G94" s="69"/>
+      <c r="H94" s="69"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="B95" s="43" t="s">
-        <v>220</v>
+      <c r="A95" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="B95" s="46" t="s">
+        <v>217</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D95" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E95" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E95" s="11" t="s">
-        <v>232</v>
-      </c>
       <c r="F95" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="53"/>
-      <c r="B96" s="44"/>
+      <c r="A96" s="56"/>
+      <c r="B96" s="47"/>
       <c r="C96" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D96" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E96" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="E96" s="11" t="s">
-        <v>233</v>
-      </c>
       <c r="F96" s="11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="53"/>
-      <c r="B97" s="44"/>
+      <c r="A97" s="56"/>
+      <c r="B97" s="47"/>
       <c r="C97" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="53"/>
-      <c r="B98" s="44"/>
+      <c r="A98" s="56"/>
+      <c r="B98" s="47"/>
       <c r="C98" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="53"/>
-      <c r="B99" s="44"/>
+      <c r="A99" s="56"/>
+      <c r="B99" s="47"/>
       <c r="C99" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="53"/>
-      <c r="B100" s="44"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="47"/>
       <c r="C100" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G100" s="6"/>
       <c r="H100" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="53"/>
-      <c r="B101" s="44"/>
+      <c r="A101" s="56"/>
+      <c r="B101" s="47"/>
       <c r="C101" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="53"/>
-      <c r="B102" s="44"/>
+      <c r="A102" s="56"/>
+      <c r="B102" s="47"/>
       <c r="C102" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="53"/>
-      <c r="B103" s="44"/>
+      <c r="A103" s="56"/>
+      <c r="B103" s="47"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -4348,8 +4361,8 @@
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="53"/>
-      <c r="B104" s="44"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="47"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -4358,50 +4371,50 @@
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="53"/>
-      <c r="B105" s="44"/>
+      <c r="A105" s="56"/>
+      <c r="B105" s="47"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="53"/>
-      <c r="B106" s="44"/>
+      <c r="A106" s="56"/>
+      <c r="B106" s="47"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="53"/>
-      <c r="B107" s="44"/>
+      <c r="A107" s="56"/>
+      <c r="B107" s="47"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G107" s="6"/>
       <c r="H107" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="54"/>
-      <c r="B108" s="45"/>
+      <c r="A108" s="57"/>
+      <c r="B108" s="48"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
@@ -4410,70 +4423,70 @@
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="56"/>
-      <c r="B109" s="56" t="s">
-        <v>220</v>
+      <c r="A109" s="59"/>
+      <c r="B109" s="59" t="s">
+        <v>217</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D109" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E109" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E109" s="11" t="s">
-        <v>268</v>
-      </c>
       <c r="F109" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="67"/>
-      <c r="B110" s="67"/>
+      <c r="A110" s="70"/>
+      <c r="B110" s="70"/>
       <c r="C110" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D110" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E110" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="E110" s="11" t="s">
-        <v>269</v>
-      </c>
       <c r="F110" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="67"/>
-      <c r="B111" s="67"/>
+      <c r="A111" s="70"/>
+      <c r="B111" s="70"/>
       <c r="C111" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="67"/>
-      <c r="B112" s="67"/>
+      <c r="A112" s="70"/>
+      <c r="B112" s="70"/>
       <c r="C112" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
@@ -4482,10 +4495,10 @@
       <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="67"/>
-      <c r="B113" s="67"/>
+      <c r="A113" s="70"/>
+      <c r="B113" s="70"/>
       <c r="C113" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
@@ -4494,10 +4507,10 @@
       <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="67"/>
-      <c r="B114" s="67"/>
+      <c r="A114" s="70"/>
+      <c r="B114" s="70"/>
       <c r="C114" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
@@ -4506,10 +4519,10 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="67"/>
-      <c r="B115" s="67"/>
+      <c r="A115" s="70"/>
+      <c r="B115" s="70"/>
       <c r="C115" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
@@ -4518,10 +4531,10 @@
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="68"/>
-      <c r="B116" s="68"/>
+      <c r="A116" s="71"/>
+      <c r="B116" s="71"/>
       <c r="C116" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
@@ -4530,16 +4543,16 @@
       <c r="H116" s="6"/>
     </row>
     <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="69" t="s">
-        <v>276</v>
-      </c>
-      <c r="B117" s="69"/>
-      <c r="C117" s="69"/>
-      <c r="D117" s="69"/>
-      <c r="E117" s="69"/>
-      <c r="F117" s="69"/>
-      <c r="G117" s="69"/>
-      <c r="H117" s="69"/>
+      <c r="A117" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="B117" s="72"/>
+      <c r="C117" s="72"/>
+      <c r="D117" s="72"/>
+      <c r="E117" s="72"/>
+      <c r="F117" s="72"/>
+      <c r="G117" s="72"/>
+      <c r="H117" s="72"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
@@ -4547,10 +4560,10 @@
         <v>1</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -4563,10 +4576,10 @@
         <v>2</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -4579,10 +4592,10 @@
         <v>3</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -4595,10 +4608,10 @@
         <v>4</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -4611,10 +4624,10 @@
         <v>5</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -4627,10 +4640,10 @@
         <v>6</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -4643,10 +4656,10 @@
         <v>7</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -4659,10 +4672,10 @@
         <v>8</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -4675,10 +4688,10 @@
         <v>9</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -4691,10 +4704,10 @@
         <v>10</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -4879,10 +4892,13 @@
     <hyperlink ref="G64" r:id="rId148" tooltip="24th Jan seabprn" display="https://www.youtube.com/watch?v=G1aAbbQ7tBM&amp;feature=youtu.be"/>
     <hyperlink ref="G65" r:id="rId149" tooltip="30th jab  seaborn " display="https://www.youtube.com/watch?v=oiTD4zITsi4&amp;feature=youtu.be"/>
     <hyperlink ref="G66" r:id="rId150" tooltip="28th jan doubt clearing session " display="https://www.youtube.com/watch?v=WHgI7RLUJww&amp;feature=youtu.be"/>
+    <hyperlink ref="F83" r:id="rId151" tooltip="Web Scraper class" display="https://www.youtube.com/watch?v=IxXdJf69E3k"/>
+    <hyperlink ref="F80" r:id="rId152" display="https://www.youtube.com/watch?v=v2DjseL3DAQ"/>
+    <hyperlink ref="F82" r:id="rId153" display="https://www.youtube.com/watch?v=rws2Vo2_vdM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId151"/>
-  <legacyDrawing r:id="rId152"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId154"/>
+  <legacyDrawing r:id="rId155"/>
 </worksheet>
 </file>
 
@@ -4901,7 +4917,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4926,55 +4942,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -5029,485 +5045,485 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F9" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F10" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C17" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H23" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C24" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H24" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C25" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H25" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C26" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H26" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C27" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C28" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C29" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C30" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C31" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C32" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C37" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H37" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C38" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C39" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C40" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C41" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C42" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C43" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C44" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H46" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C47" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H47" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C48" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H48" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C49" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H49" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C50" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C51" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C52" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="18" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H56" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C57" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H57" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C58" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C59" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D60" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="65" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C65" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C66" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C67" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="68" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C68" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="69" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C69" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -5613,7 +5629,7 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="36" x14ac:dyDescent="0.25">
@@ -5621,31 +5637,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>518</v>
-      </c>
       <c r="H4" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C5" s="34"/>
       <c r="D5" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="H5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -5657,19 +5673,19 @@
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C8" s="34" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C9" s="34"/>
       <c r="F9" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H9" t="s">
         <v>548</v>
-      </c>
-      <c r="H9" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -5680,10 +5696,10 @@
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C12" s="34" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -5697,10 +5713,10 @@
     </row>
     <row r="16" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="C16" s="34" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5711,10 +5727,10 @@
     </row>
     <row r="19" spans="3:4" ht="18" x14ac:dyDescent="0.25">
       <c r="C19" s="34" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5725,10 +5741,10 @@
     </row>
     <row r="22" spans="3:4" ht="18" x14ac:dyDescent="0.25">
       <c r="C22" s="34" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5739,10 +5755,10 @@
     </row>
     <row r="25" spans="3:4" ht="18" x14ac:dyDescent="0.25">
       <c r="C25" s="34" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5753,10 +5769,10 @@
     </row>
     <row r="28" spans="3:4" ht="18" x14ac:dyDescent="0.25">
       <c r="C28" s="34" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5767,16 +5783,16 @@
     </row>
     <row r="31" spans="3:4" ht="18" x14ac:dyDescent="0.25">
       <c r="C31" s="34" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="32" spans="3:4" ht="18" x14ac:dyDescent="0.25">
       <c r="C32" s="34"/>
       <c r="D32" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5784,10 +5800,10 @@
     </row>
     <row r="34" spans="3:4" ht="18" x14ac:dyDescent="0.25">
       <c r="C34" s="34" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5798,10 +5814,10 @@
     </row>
     <row r="37" spans="3:4" ht="36" x14ac:dyDescent="0.25">
       <c r="C37" s="34" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="38" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5809,10 +5825,10 @@
     </row>
     <row r="39" spans="3:4" ht="36" x14ac:dyDescent="0.25">
       <c r="C39" s="34" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5823,10 +5839,10 @@
     </row>
     <row r="42" spans="3:4" ht="36" x14ac:dyDescent="0.25">
       <c r="C42" s="34" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="43" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5837,10 +5853,10 @@
     </row>
     <row r="45" spans="3:4" ht="18" x14ac:dyDescent="0.25">
       <c r="C45" s="34" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="46" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5854,10 +5870,10 @@
     </row>
     <row r="49" spans="3:4" ht="18" x14ac:dyDescent="0.25">
       <c r="C49" s="34" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="50" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5868,10 +5884,10 @@
     </row>
     <row r="52" spans="3:4" ht="36" x14ac:dyDescent="0.25">
       <c r="C52" s="34" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="53" spans="3:4" ht="18" x14ac:dyDescent="0.25">
@@ -5986,59 +6002,59 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -6096,87 +6112,87 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H2" t="s">
         <v>438</v>
-      </c>
-      <c r="H2" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H3" t="s">
         <v>439</v>
-      </c>
-      <c r="H3" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -6393,70 +6409,70 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -6464,7 +6480,7 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -6574,34 +6590,34 @@
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -6612,20 +6628,20 @@
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -6637,16 +6653,16 @@
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6665,29 +6681,29 @@
     </row>
     <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="18"/>
       <c r="C19" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -6802,133 +6818,133 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H8" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H9" t="s">
         <v>497</v>
-      </c>
-      <c r="H9" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -6997,10 +7013,10 @@
     </row>
     <row r="2" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
@@ -7008,32 +7024,32 @@
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="H3" t="s">
         <v>523</v>
-      </c>
-      <c r="H3" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">

--- a/INeuron_Checklist.xlsx
+++ b/INeuron_Checklist.xlsx
@@ -22,7 +22,9 @@
     <sheet name="DeepLearning" sheetId="11" r:id="rId8"/>
     <sheet name="DeepLearning Project" sheetId="13" r:id="rId9"/>
     <sheet name="Additional" sheetId="4" r:id="rId10"/>
-    <sheet name="FAQ" sheetId="5" r:id="rId11"/>
+    <sheet name="Tableau" sheetId="16" r:id="rId11"/>
+    <sheet name="Power_BI" sheetId="15" r:id="rId12"/>
+    <sheet name="FAQ" sheetId="5" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -92,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="766">
   <si>
     <t>Induction session recording</t>
   </si>
@@ -1959,6 +1961,498 @@
   </si>
   <si>
     <t>GMT20200912 092712 Class 3 1920x1080 - YouTube</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8stueNPVl-I</t>
+  </si>
+  <si>
+    <t>differential calculus for data science</t>
+  </si>
+  <si>
+    <t>4th Feb doubt clearing session Links to an external site.</t>
+  </si>
+  <si>
+    <t>6th Feb mysql Links to an external site.</t>
+  </si>
+  <si>
+    <t>7th Feb mongo db Links to an external site.</t>
+  </si>
+  <si>
+    <t>11th Feb doubt clearing session Links to an external site.</t>
+  </si>
+  <si>
+    <t>13th FEb API and Flask Links to an external site.</t>
+  </si>
+  <si>
+    <t>14th Feb Feedback session Links to an external site.</t>
+  </si>
+  <si>
+    <t>21st Feb review scrapper Links to an external site.</t>
+  </si>
+  <si>
+    <t>27th Feb review scrapper deployment in heroku and task Links to an external site.</t>
+  </si>
+  <si>
+    <t>28th Feb image scraper project Links to an external site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6th March live class stats Links to an external site. </t>
+  </si>
+  <si>
+    <t>7th march live class stats Links to an external site.</t>
+  </si>
+  <si>
+    <t>4th march live doubt clearing session Links to an external site.</t>
+  </si>
+  <si>
+    <t>27th Feb live doubt clearing session Links to an external site.</t>
+  </si>
+  <si>
+    <t>29th Feb live class project Links to an external site.</t>
+  </si>
+  <si>
+    <t>2nd may waffer project Links to an external site.</t>
+  </si>
+  <si>
+    <t>1st march live class Links to an external site.</t>
+  </si>
+  <si>
+    <t>Attendance System</t>
+  </si>
+  <si>
+    <t>Shredder Machine Detection Code Links to an external site.</t>
+  </si>
+  <si>
+    <t>Business Intelligence (BI) Concepts.</t>
+  </si>
+  <si>
+    <t>27th April induction class recording Links to an external site.</t>
+  </si>
+  <si>
+    <t>OLD Recording</t>
+  </si>
+  <si>
+    <t>The Importance of Business Intelligence.</t>
+  </si>
+  <si>
+    <t>The Relation between Business Intelligence and Data Warehouse.</t>
+  </si>
+  <si>
+    <t>Tools and Technologies in Business Intelligence area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reports in Power BI </t>
+  </si>
+  <si>
+    <t>Create a new Power BI report.</t>
+  </si>
+  <si>
+    <t>The report editor in Power BI.</t>
+  </si>
+  <si>
+    <t>Add a page to a Power BI report.</t>
+  </si>
+  <si>
+    <t>Add a Filters to a report in Power BI.</t>
+  </si>
+  <si>
+    <t>Save a report in Power BI.</t>
+  </si>
+  <si>
+    <t>About filters and highlighting in Power BI reports</t>
+  </si>
+  <si>
+    <t>How to use report filters.</t>
+  </si>
+  <si>
+    <t>Analyse in Excel.</t>
+  </si>
+  <si>
+    <t>Change how visual interact in a report.</t>
+  </si>
+  <si>
+    <t>Open a Power BI report in Reading View.</t>
+  </si>
+  <si>
+    <t>Go from Readin view to Editing View in Power BI.</t>
+  </si>
+  <si>
+    <t>Interact with a report in Editing View in Power BI.</t>
+  </si>
+  <si>
+    <t>Aggregates (sum, average, maximum, etc.) in Power BI.</t>
+  </si>
+  <si>
+    <t>Rename a report in Power BI.</t>
+  </si>
+  <si>
+    <t>Page display settings in a Power BI repost.</t>
+  </si>
+  <si>
+    <t>Duplicate a report page in Power BI report.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rename a report page. </t>
+  </si>
+  <si>
+    <t>12th may live session recording Links to an external site.</t>
+  </si>
+  <si>
+    <t>Power BI introduction and overview.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Power BI (MSPBI) introduction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power BI Architecture. </t>
+  </si>
+  <si>
+    <t>Power BI Process.</t>
+  </si>
+  <si>
+    <t>Power BI comparison.</t>
+  </si>
+  <si>
+    <t>Power BI – Building Blocks.</t>
+  </si>
+  <si>
+    <t>Power Installation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29th April PowerBI_Lecture_1 Links to an external site. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerBI_Mac_Installation.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power BI_Windows_Installation_Without_a_Organizational_MailID.pdf </t>
+  </si>
+  <si>
+    <t>Connecting Power BI with Different Data sources.</t>
+  </si>
+  <si>
+    <t>Connect to CSV files in Power BI Desktop.</t>
+  </si>
+  <si>
+    <t>Connect to Excel in power BI Desktop.</t>
+  </si>
+  <si>
+    <t>Connect to text in Power BI Desktop.</t>
+  </si>
+  <si>
+    <t>Connect to SQL Server in Power BI Desktop.</t>
+  </si>
+  <si>
+    <t>Connect to Web page from Power BI Desktop.</t>
+  </si>
+  <si>
+    <t>Connect to Direct SQL Query in Power BI Desktop.</t>
+  </si>
+  <si>
+    <t>1st May recording Links to an external site.</t>
+  </si>
+  <si>
+    <t>Data Modelling in Power BI.</t>
+  </si>
+  <si>
+    <t>Introduction to Data Modelling and DAX</t>
+  </si>
+  <si>
+    <t>Calculated Columns.</t>
+  </si>
+  <si>
+    <t>Measures/ New Quick Measures.</t>
+  </si>
+  <si>
+    <t>Calculated Tables.</t>
+  </si>
+  <si>
+    <t>Optimize Data Model</t>
+  </si>
+  <si>
+    <t>Advanced calculations using Calculate functions.</t>
+  </si>
+  <si>
+    <t>Time Intelligence Functions.</t>
+  </si>
+  <si>
+    <t>4th may live session recording Links to an external site.</t>
+  </si>
+  <si>
+    <t>6th May Live Session Recording Links to an external site.</t>
+  </si>
+  <si>
+    <t>8th May Live Session Recording Links to an external site.</t>
+  </si>
+  <si>
+    <t>Reports and Visualization types in Power BI</t>
+  </si>
+  <si>
+    <t>Types of visualisation in a Power BI report.</t>
+  </si>
+  <si>
+    <t>Custom visualisation to a Power BI repost.</t>
+  </si>
+  <si>
+    <t>Download a custom visual from the gallery.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting started with color formatting and axis </t>
+  </si>
+  <si>
+    <t>Change how a chart is sorted in aPower BI report</t>
+  </si>
+  <si>
+    <t>• Move, resize, and pop out a visualisation in a Power BI report.</t>
+  </si>
+  <si>
+    <t>Drill down in a visualisation in Power BI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histograms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Area Chart </t>
+  </si>
+  <si>
+    <t>Doughnut charts in Power BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scatter Charts in Power BI. </t>
+  </si>
+  <si>
+    <t>Funnel charts in Power BI.</t>
+  </si>
+  <si>
+    <t>KPI visuals.</t>
+  </si>
+  <si>
+    <t>Radical Guage charts in Power BI</t>
+  </si>
+  <si>
+    <t>Bookmarks in Power BI.</t>
+  </si>
+  <si>
+    <t>Slicers in Power BI.</t>
+  </si>
+  <si>
+    <t>Tree Maps in Power BI.</t>
+  </si>
+  <si>
+    <t>Waterfall charts in Power BI.</t>
+  </si>
+  <si>
+    <t>13th may live session recordings Links to an external site.</t>
+  </si>
+  <si>
+    <t>Live session recording 15th May Links to an external site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboards in Power BI. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Power BI dashboard. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard tiles in Power BI. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin a tile to a Power BI dashboard from a report. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power BI publisher for Excel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin an entire report page to a Power BI dashboard. </t>
+  </si>
+  <si>
+    <t>Data alerts in Power BI service.</t>
+  </si>
+  <si>
+    <t>Add an image, text box, video, or web code to your dashboard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit a tile – Resize, Move, Rename, Pin, Delete, Add Hyperlink. </t>
+  </si>
+  <si>
+    <t>Tips for designing a great Power BI dashboard.</t>
+  </si>
+  <si>
+    <t>Print a dashboard, print a dashboard tile, print a report page.</t>
+  </si>
+  <si>
+    <t>Display dashboards and reports in Full Screen mode (TV mode).</t>
+  </si>
+  <si>
+    <t>Featured dashboards in Power BI.</t>
+  </si>
+  <si>
+    <t>Add an image to a dashboard.</t>
+  </si>
+  <si>
+    <t>Row Level Security in Power BI.</t>
+  </si>
+  <si>
+    <t>Live session recording 18th May Links to an external site.</t>
+  </si>
+  <si>
+    <t>Data Refresh in Power BI.</t>
+  </si>
+  <si>
+    <t>Configure scheduled refresh</t>
+  </si>
+  <si>
+    <t>Refresh a dataset created from a Power BI Desktop file - Local.</t>
+  </si>
+  <si>
+    <t>Refresh a dataset created from a Power BI Desktop file - Cloud.</t>
+  </si>
+  <si>
+    <t>Refresh a dataset created from an Excel workbook - Local.</t>
+  </si>
+  <si>
+    <t>Disable privacy settings.</t>
+  </si>
+  <si>
+    <t>Live session recording for 20th May Links to an external site.</t>
+  </si>
+  <si>
+    <t>Tableau Introduction</t>
+  </si>
+  <si>
+    <t>Talking about Business Intelligence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools and Methodologies used in BI. </t>
+  </si>
+  <si>
+    <t>Why Visualisation is getting more popular.</t>
+  </si>
+  <si>
+    <t>Why Tableau?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional Visualisation(Excel) vs Tableau. </t>
+  </si>
+  <si>
+    <t>Gartner magic Quadrant of Market Leadres</t>
+  </si>
+  <si>
+    <t>Future Business Impact of BI.</t>
+  </si>
+  <si>
+    <t>Live session recording 22nd May Links to an external site.</t>
+  </si>
+  <si>
+    <t>Tableau Installationin Local System/ Visual Segmentation.</t>
+  </si>
+  <si>
+    <t>About Tableau.</t>
+  </si>
+  <si>
+    <t>Tableau Architecture</t>
+  </si>
+  <si>
+    <t>Process Flow – BI project</t>
+  </si>
+  <si>
+    <t>At the End of this course.</t>
+  </si>
+  <si>
+    <t>How to connect Tableau with different data sources.</t>
+  </si>
+  <si>
+    <t>Visual Analytics in Depth.</t>
+  </si>
+  <si>
+    <t>Parameter Filters.</t>
+  </si>
+  <si>
+    <t>Tableau Calculations using functions.</t>
+  </si>
+  <si>
+    <t>Building Predictive Models.</t>
+  </si>
+  <si>
+    <t>Dynamic Dashboards and Stories</t>
+  </si>
+  <si>
+    <t>Sharing your Tableau Reports.</t>
+  </si>
+  <si>
+    <t>Tableau Server.</t>
+  </si>
+  <si>
+    <t>User Security.</t>
+  </si>
+  <si>
+    <t>Scheduling.</t>
+  </si>
+  <si>
+    <t>Live session recording for 25th May Links to an external site.</t>
+  </si>
+  <si>
+    <t>Live session recording for 27th May Links to an external site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live session recording for 29th may Links to an external site. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live Session Recording for 1st June Links to an external site. </t>
+  </si>
+  <si>
+    <t>Live Session Recording for 3rd June Links to an external site.</t>
+  </si>
+  <si>
+    <t>11th march live doubt clearing session Links to an external site.</t>
+  </si>
+  <si>
+    <t>13th march live class review scrapper awesome demo by learner Links to an external site.</t>
+  </si>
+  <si>
+    <t>14th march live class stats Links to an external site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18th March Doubt clearing session </t>
+  </si>
+  <si>
+    <t>review scrapper project heroku end to end demo by kavita Links to an external site.</t>
+  </si>
+  <si>
+    <t>review scrapper project aws by rohit Links to an external site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLOPS </t>
+  </si>
+  <si>
+    <t>MLOPS - Community class</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IoAbE4dXb9w</t>
+  </si>
+  <si>
+    <t>DAY1</t>
+  </si>
+  <si>
+    <t>DAY2</t>
+  </si>
+  <si>
+    <t>DAY4</t>
+  </si>
+  <si>
+    <t>DAY3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ly3Dor8HZUA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n4sz9cG_B7k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-KmOlVSEKWg</t>
+  </si>
+  <si>
+    <t>20th march live class stats Links to an external site.</t>
   </si>
 </sst>
 </file>
@@ -2081,15 +2575,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2140,12 +2633,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2159,6 +2646,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2289,7 +2788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2354,16 +2853,24 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2372,24 +2879,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2400,23 +2889,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2433,17 +2916,41 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2731,10 +3238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E77" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="E93" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2774,7 +3281,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="65" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="10"/>
@@ -2786,7 +3293,7 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2802,7 +3309,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2816,7 +3323,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2830,7 +3337,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2842,7 +3349,7 @@
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2856,7 +3363,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2870,7 +3377,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2880,7 +3387,7 @@
       <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="65" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2900,7 +3407,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
         <v>7</v>
@@ -2918,7 +3425,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>8</v>
@@ -2934,7 +3441,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
         <v>9</v>
@@ -2950,7 +3457,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
         <v>10</v>
@@ -2962,7 +3469,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
         <v>24</v>
@@ -2976,7 +3483,7 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
         <v>25</v>
@@ -2992,7 +3499,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -3015,7 +3522,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
         <v>38</v>
@@ -3026,7 +3533,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
         <v>39</v>
@@ -3044,7 +3551,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
         <v>40</v>
@@ -3064,7 +3571,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
         <v>41</v>
@@ -3076,7 +3583,7 @@
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
         <v>42</v>
@@ -3088,7 +3595,7 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
         <v>43</v>
@@ -3100,7 +3607,7 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
         <v>44</v>
@@ -3112,7 +3619,7 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="53" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3138,7 +3645,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
         <v>55</v>
@@ -3160,7 +3667,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
         <v>56</v>
@@ -3176,7 +3683,7 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
         <v>57</v>
@@ -3192,7 +3699,7 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
         <v>58</v>
@@ -3205,7 +3712,7 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -3216,7 +3723,7 @@
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -3225,7 +3732,7 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="50" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -3237,7 +3744,7 @@
       <c r="D32" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="41"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="35" t="s">
         <v>78</v>
       </c>
@@ -3247,7 +3754,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
         <v>68</v>
@@ -3265,7 +3772,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
         <v>69</v>
@@ -3281,7 +3788,7 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
         <v>70</v>
@@ -3295,7 +3802,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
         <v>71</v>
@@ -3307,7 +3814,7 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
         <v>72</v>
@@ -3319,7 +3826,7 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="48"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
         <v>73</v>
@@ -3335,7 +3842,7 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="72" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -3359,7 +3866,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
         <v>83</v>
@@ -3367,7 +3874,7 @@
       <c r="D40" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="40" t="s">
         <v>128</v>
       </c>
       <c r="F40" s="7" t="s">
@@ -3379,7 +3886,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="49"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
         <v>84</v>
@@ -3391,7 +3898,7 @@
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="49"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
         <v>85</v>
@@ -3403,7 +3910,7 @@
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="49"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
         <v>86</v>
@@ -3415,19 +3922,19 @@
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="74" t="s">
         <v>108</v>
       </c>
       <c r="B45" s="21"/>
@@ -3440,7 +3947,7 @@
       <c r="E45" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="F45" s="39" t="s">
+      <c r="F45" s="38" t="s">
         <v>103</v>
       </c>
       <c r="G45" s="21"/>
@@ -3449,7 +3956,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
+      <c r="A46" s="75"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21" t="s">
         <v>96</v>
@@ -3458,7 +3965,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="22"/>
-      <c r="F46" s="39" t="s">
+      <c r="F46" s="38" t="s">
         <v>104</v>
       </c>
       <c r="G46" s="21"/>
@@ -3467,7 +3974,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
+      <c r="A47" s="75"/>
       <c r="B47" s="23"/>
       <c r="C47" s="21" t="s">
         <v>97</v>
@@ -3478,7 +3985,7 @@
       <c r="E47" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="39" t="s">
+      <c r="F47" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G47" s="23"/>
@@ -3487,7 +3994,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
+      <c r="A48" s="75"/>
       <c r="B48" s="23"/>
       <c r="C48" s="21" t="s">
         <v>98</v>
@@ -3498,10 +4005,10 @@
       <c r="E48" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="39" t="s">
+      <c r="F48" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="G48" s="39" t="s">
         <v>582</v>
       </c>
       <c r="H48" s="23" t="s">
@@ -3509,17 +4016,17 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
+      <c r="A49" s="75"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
       <c r="E49" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F49" s="39" t="s">
+      <c r="F49" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="40" t="s">
+      <c r="G49" s="39" t="s">
         <v>583</v>
       </c>
       <c r="H49" s="23" t="s">
@@ -3527,23 +4034,23 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
+      <c r="A50" s="75"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
       <c r="E50" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="40" t="s">
+      <c r="F50" s="39" t="s">
         <v>578</v>
       </c>
-      <c r="G50" s="40" t="s">
+      <c r="G50" s="39" t="s">
         <v>585</v>
       </c>
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
+      <c r="A51" s="75"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
@@ -3553,13 +4060,13 @@
       <c r="F51" s="35" t="s">
         <v>579</v>
       </c>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="39" t="s">
         <v>584</v>
       </c>
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
+      <c r="A52" s="75"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
@@ -3573,7 +4080,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
+      <c r="A53" s="75"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
@@ -3585,7 +4092,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="52"/>
+      <c r="A54" s="75"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
@@ -3595,7 +4102,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
+      <c r="A55" s="76"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
@@ -3605,39 +4112,39 @@
       <c r="H55" s="23"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="60" t="s">
+      <c r="B56" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="61" t="s">
+      <c r="D56" s="69" t="s">
         <v>115</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F56" s="42" t="s">
+      <c r="F56" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="G56" s="42" t="s">
+      <c r="G56" s="41" t="s">
         <v>592</v>
       </c>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="61"/>
+      <c r="A57" s="65"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="69"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="42" t="s">
+      <c r="F57" s="41" t="s">
         <v>587</v>
       </c>
-      <c r="G57" s="42" t="s">
+      <c r="G57" s="41" t="s">
         <v>593</v>
       </c>
       <c r="H57" s="6" t="s">
@@ -3645,24 +4152,24 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="61"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="69"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="42" t="s">
+      <c r="F58" s="41" t="s">
         <v>588</v>
       </c>
       <c r="G58" s="23"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="61"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="69"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="42" t="s">
+      <c r="F59" s="41" t="s">
         <v>589</v>
       </c>
       <c r="G59" s="6"/>
@@ -3671,44 +4178,44 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="61"/>
+      <c r="A60" s="65"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="69"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="42" t="s">
+      <c r="F60" s="41" t="s">
         <v>116</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="54"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="61"/>
+      <c r="A61" s="65"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="69"/>
       <c r="E61" s="6"/>
-      <c r="F61" s="42" t="s">
+      <c r="F61" s="41" t="s">
         <v>117</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="61"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="69"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="58" t="s">
+      <c r="A63" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="70" t="s">
         <v>137</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -3720,10 +4227,10 @@
       <c r="E63" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="43" t="s">
+      <c r="F63" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="G63" s="42" t="s">
+      <c r="G63" s="41" t="s">
         <v>594</v>
       </c>
       <c r="H63" s="6" t="s">
@@ -3731,8 +4238,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
-      <c r="B64" s="63"/>
+      <c r="A64" s="67"/>
+      <c r="B64" s="71"/>
       <c r="C64" s="7" t="s">
         <v>138</v>
       </c>
@@ -3745,7 +4252,7 @@
       <c r="F64" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G64" s="42" t="s">
+      <c r="G64" s="41" t="s">
         <v>595</v>
       </c>
       <c r="H64" s="6" t="s">
@@ -3753,8 +4260,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
-      <c r="B65" s="63"/>
+      <c r="A65" s="67"/>
+      <c r="B65" s="71"/>
       <c r="C65" s="7" t="s">
         <v>139</v>
       </c>
@@ -3773,8 +4280,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
-      <c r="B66" s="63"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="71"/>
       <c r="C66" s="7" t="s">
         <v>140</v>
       </c>
@@ -3791,8 +4298,8 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="63"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="71"/>
       <c r="C67" s="25" t="s">
         <v>141</v>
       </c>
@@ -3803,19 +4310,19 @@
       <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="64" t="s">
+      <c r="A68" s="60" t="s">
         <v>571</v>
       </c>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="66"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="62"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="63" t="s">
         <v>165</v>
       </c>
       <c r="B69" s="23"/>
@@ -3826,16 +4333,18 @@
         <v>167</v>
       </c>
       <c r="E69" s="23"/>
-      <c r="F69" s="43" t="s">
+      <c r="F69" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="G69" s="23"/>
+      <c r="G69" s="2" t="s">
+        <v>604</v>
+      </c>
       <c r="H69" s="23" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
+      <c r="A70" s="63"/>
       <c r="B70" s="23"/>
       <c r="C70" s="21" t="s">
         <v>156</v>
@@ -3847,13 +4356,15 @@
       <c r="F70" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G70" s="23"/>
+      <c r="G70" s="2" t="s">
+        <v>605</v>
+      </c>
       <c r="H70" s="23" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="67"/>
+      <c r="A71" s="63"/>
       <c r="B71" s="23"/>
       <c r="C71" s="21" t="s">
         <v>157</v>
@@ -3865,13 +4376,15 @@
       <c r="F71" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="G71" s="23"/>
+      <c r="G71" s="2" t="s">
+        <v>606</v>
+      </c>
       <c r="H71" s="23" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="67"/>
+      <c r="A72" s="63"/>
       <c r="B72" s="23"/>
       <c r="C72" s="21" t="s">
         <v>158</v>
@@ -3883,13 +4396,15 @@
       <c r="F72" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="G72" s="23"/>
+      <c r="G72" s="2" t="s">
+        <v>607</v>
+      </c>
       <c r="H72" s="23" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
+      <c r="A73" s="63"/>
       <c r="B73" s="23"/>
       <c r="C73" s="21" t="s">
         <v>159</v>
@@ -3901,13 +4416,15 @@
       <c r="F73" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="G73" s="23"/>
+      <c r="G73" s="2" t="s">
+        <v>608</v>
+      </c>
       <c r="H73" s="23" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
+      <c r="A74" s="63"/>
       <c r="B74" s="23"/>
       <c r="C74" s="21" t="s">
         <v>160</v>
@@ -3917,13 +4434,15 @@
       <c r="F74" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="G74" s="23"/>
+      <c r="G74" s="2" t="s">
+        <v>609</v>
+      </c>
       <c r="H74" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="67"/>
+      <c r="A75" s="63"/>
       <c r="B75" s="23"/>
       <c r="C75" s="21" t="s">
         <v>161</v>
@@ -3937,7 +4456,7 @@
       <c r="H75" s="23"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="67"/>
+      <c r="A76" s="63"/>
       <c r="B76" s="23"/>
       <c r="C76" s="21" t="s">
         <v>162</v>
@@ -3949,7 +4468,7 @@
       <c r="H76" s="23"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
+      <c r="A77" s="63"/>
       <c r="B77" s="23"/>
       <c r="C77" s="21" t="s">
         <v>163</v>
@@ -3961,7 +4480,7 @@
       <c r="H77" s="23"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
+      <c r="A78" s="63"/>
       <c r="B78" s="23"/>
       <c r="C78" s="23" t="s">
         <v>164</v>
@@ -3973,19 +4492,19 @@
       <c r="H78" s="23"/>
     </row>
     <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="68" t="s">
+      <c r="A79" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="B79" s="68"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="68"/>
-      <c r="H79" s="68"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64"/>
     </row>
     <row r="80" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="65" t="s">
         <v>190</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -4000,16 +4519,18 @@
       <c r="E80" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="F80" s="44" t="s">
+      <c r="F80" s="43" t="s">
         <v>600</v>
       </c>
-      <c r="G80" s="6"/>
+      <c r="G80" s="43" t="s">
+        <v>610</v>
+      </c>
       <c r="H80" s="6" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
+      <c r="A81" s="65"/>
       <c r="B81" s="12"/>
       <c r="C81" s="7" t="s">
         <v>185</v>
@@ -4020,16 +4541,18 @@
       <c r="E81" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F81" s="45" t="s">
+      <c r="F81" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="G81" s="6"/>
+      <c r="G81" s="43" t="s">
+        <v>611</v>
+      </c>
       <c r="H81" s="6" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="12"/>
       <c r="C82" s="7" t="s">
         <v>186</v>
@@ -4041,13 +4564,15 @@
       <c r="F82" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="G82" s="6"/>
+      <c r="G82" s="48" t="s">
+        <v>612</v>
+      </c>
       <c r="H82" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="54"/>
+      <c r="A83" s="65"/>
       <c r="B83" s="12"/>
       <c r="C83" s="7" t="s">
         <v>187</v>
@@ -4065,7 +4590,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="54"/>
+      <c r="A84" s="65"/>
       <c r="B84" s="12"/>
       <c r="C84" s="7" t="s">
         <v>188</v>
@@ -4074,16 +4599,18 @@
         <v>199</v>
       </c>
       <c r="E84" s="6"/>
-      <c r="F84" s="38" t="s">
+      <c r="F84" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="G84" s="6"/>
+      <c r="G84" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="H84" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="54"/>
+      <c r="A85" s="65"/>
       <c r="B85" s="12"/>
       <c r="C85" s="7" t="s">
         <v>189</v>
@@ -4197,22 +4724,22 @@
       <c r="H93" s="28"/>
     </row>
     <row r="94" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="69" t="s">
+      <c r="A94" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="B94" s="69"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="69"/>
-      <c r="G94" s="69"/>
-      <c r="H94" s="69"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="66"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="55" t="s">
+      <c r="A95" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="B95" s="46" t="s">
+      <c r="B95" s="50" t="s">
         <v>217</v>
       </c>
       <c r="C95" s="7" t="s">
@@ -4224,17 +4751,19 @@
       <c r="E95" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="F95" s="11" t="s">
+      <c r="F95" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="G95" s="6"/>
+      <c r="G95" s="41" t="s">
+        <v>613</v>
+      </c>
       <c r="H95" s="6" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="56"/>
-      <c r="B96" s="47"/>
+      <c r="A96" s="54"/>
+      <c r="B96" s="51"/>
       <c r="C96" s="7" t="s">
         <v>219</v>
       </c>
@@ -4247,14 +4776,16 @@
       <c r="F96" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="G96" s="6"/>
+      <c r="G96" s="41" t="s">
+        <v>614</v>
+      </c>
       <c r="H96" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
-      <c r="B97" s="47"/>
+      <c r="A97" s="54"/>
+      <c r="B97" s="51"/>
       <c r="C97" s="7" t="s">
         <v>220</v>
       </c>
@@ -4265,14 +4796,16 @@
       <c r="F97" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="G97" s="6"/>
+      <c r="G97" s="41" t="s">
+        <v>749</v>
+      </c>
       <c r="H97" s="6" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
-      <c r="B98" s="47"/>
+      <c r="A98" s="54"/>
+      <c r="B98" s="51"/>
       <c r="C98" s="7" t="s">
         <v>221</v>
       </c>
@@ -4281,14 +4814,16 @@
       <c r="F98" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="G98" s="6"/>
+      <c r="G98" s="2" t="s">
+        <v>750</v>
+      </c>
       <c r="H98" s="6" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="56"/>
-      <c r="B99" s="47"/>
+      <c r="A99" s="54"/>
+      <c r="B99" s="51"/>
       <c r="C99" s="7" t="s">
         <v>222</v>
       </c>
@@ -4297,14 +4832,16 @@
       <c r="F99" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G99" s="6"/>
+      <c r="G99" s="41" t="s">
+        <v>751</v>
+      </c>
       <c r="H99" s="6" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
-      <c r="B100" s="47"/>
+      <c r="A100" s="54"/>
+      <c r="B100" s="51"/>
       <c r="C100" s="7" t="s">
         <v>223</v>
       </c>
@@ -4313,14 +4850,16 @@
       <c r="F100" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="G100" s="6"/>
+      <c r="G100" s="41" t="s">
+        <v>752</v>
+      </c>
       <c r="H100" s="6" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="56"/>
-      <c r="B101" s="47"/>
+      <c r="A101" s="54"/>
+      <c r="B101" s="51"/>
       <c r="C101" s="7" t="s">
         <v>224</v>
       </c>
@@ -4329,14 +4868,16 @@
       <c r="F101" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="G101" s="6"/>
+      <c r="G101" s="2" t="s">
+        <v>753</v>
+      </c>
       <c r="H101" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="56"/>
-      <c r="B102" s="47"/>
+      <c r="A102" s="54"/>
+      <c r="B102" s="51"/>
       <c r="C102" s="7" t="s">
         <v>225</v>
       </c>
@@ -4345,24 +4886,28 @@
       <c r="F102" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="G102" s="6"/>
+      <c r="G102" s="2" t="s">
+        <v>754</v>
+      </c>
       <c r="H102" s="6" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="56"/>
-      <c r="B103" s="47"/>
+      <c r="A103" s="54"/>
+      <c r="B103" s="51"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
+      <c r="G103" s="41" t="s">
+        <v>765</v>
+      </c>
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="56"/>
-      <c r="B104" s="47"/>
+      <c r="A104" s="54"/>
+      <c r="B104" s="51"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -4371,8 +4916,8 @@
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="56"/>
-      <c r="B105" s="47"/>
+      <c r="A105" s="54"/>
+      <c r="B105" s="51"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -4385,8 +4930,8 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="56"/>
-      <c r="B106" s="47"/>
+      <c r="A106" s="54"/>
+      <c r="B106" s="51"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -4399,8 +4944,8 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="56"/>
-      <c r="B107" s="47"/>
+      <c r="A107" s="54"/>
+      <c r="B107" s="51"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -4413,8 +4958,8 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="57"/>
-      <c r="B108" s="48"/>
+      <c r="A108" s="55"/>
+      <c r="B108" s="52"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
@@ -4423,8 +4968,8 @@
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="59"/>
-      <c r="B109" s="59" t="s">
+      <c r="A109" s="56"/>
+      <c r="B109" s="56" t="s">
         <v>217</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -4445,8 +4990,8 @@
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="70"/>
-      <c r="B110" s="70"/>
+      <c r="A110" s="57"/>
+      <c r="B110" s="57"/>
       <c r="C110" s="7" t="s">
         <v>255</v>
       </c>
@@ -4465,8 +5010,8 @@
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="70"/>
-      <c r="B111" s="70"/>
+      <c r="A111" s="57"/>
+      <c r="B111" s="57"/>
       <c r="C111" s="7" t="s">
         <v>256</v>
       </c>
@@ -4483,8 +5028,8 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="70"/>
-      <c r="B112" s="70"/>
+      <c r="A112" s="57"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="7" t="s">
         <v>257</v>
       </c>
@@ -4495,20 +5040,22 @@
       <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="70"/>
-      <c r="B113" s="70"/>
+      <c r="A113" s="57"/>
+      <c r="B113" s="57"/>
       <c r="C113" s="7" t="s">
         <v>258</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
+      <c r="G113" s="6" t="s">
+        <v>755</v>
+      </c>
       <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="70"/>
-      <c r="B114" s="70"/>
+      <c r="A114" s="57"/>
+      <c r="B114" s="57"/>
       <c r="C114" s="7" t="s">
         <v>259</v>
       </c>
@@ -4519,8 +5066,8 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="70"/>
-      <c r="B115" s="70"/>
+      <c r="A115" s="57"/>
+      <c r="B115" s="57"/>
       <c r="C115" s="7" t="s">
         <v>260</v>
       </c>
@@ -4531,8 +5078,8 @@
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="71"/>
-      <c r="B116" s="71"/>
+      <c r="A116" s="58"/>
+      <c r="B116" s="58"/>
       <c r="C116" s="7" t="s">
         <v>261</v>
       </c>
@@ -4542,124 +5089,106 @@
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="72" t="s">
+    <row r="117" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="45"/>
+      <c r="B117" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="C117" s="46"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="G117" s="28"/>
+      <c r="H117" s="28"/>
+    </row>
+    <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="45"/>
+      <c r="B118" s="46"/>
+      <c r="C118" s="46"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="28"/>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="45"/>
+      <c r="B119" s="46" t="s">
+        <v>756</v>
+      </c>
+      <c r="C119" s="46"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28" t="s">
+        <v>758</v>
+      </c>
+      <c r="G119" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="H119" s="28"/>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="45"/>
+      <c r="B120" s="46"/>
+      <c r="C120" s="46"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28" t="s">
+        <v>759</v>
+      </c>
+      <c r="G120" s="28" t="s">
+        <v>763</v>
+      </c>
+      <c r="H120" s="28"/>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="45"/>
+      <c r="B121" s="46"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28" t="s">
+        <v>761</v>
+      </c>
+      <c r="G121" s="28" t="s">
+        <v>757</v>
+      </c>
+      <c r="H121" s="28"/>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="45"/>
+      <c r="B122" s="46"/>
+      <c r="C122" s="46"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28" t="s">
+        <v>760</v>
+      </c>
+      <c r="G122" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="H122" s="28"/>
+    </row>
+    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="B117" s="72"/>
-      <c r="C117" s="72"/>
-      <c r="D117" s="72"/>
-      <c r="E117" s="72"/>
-      <c r="F117" s="72"/>
-      <c r="G117" s="72"/>
-      <c r="H117" s="72"/>
-    </row>
-    <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-      <c r="B118" s="19">
-        <v>1</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-    </row>
-    <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="B119" s="19">
-        <v>2</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-    </row>
-    <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-      <c r="B120" s="19">
-        <v>3</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-      <c r="B121" s="19">
-        <v>4</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-    </row>
-    <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
-      <c r="B122" s="19">
-        <v>5</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-    </row>
-    <row r="123" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
-      <c r="B123" s="19">
-        <v>6</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
+      <c r="B123" s="59"/>
+      <c r="C123" s="59"/>
+      <c r="D123" s="59"/>
+      <c r="E123" s="59"/>
+      <c r="F123" s="59"/>
+      <c r="G123" s="59"/>
+      <c r="H123" s="59"/>
     </row>
     <row r="124" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -4669,13 +5198,13 @@
     <row r="125" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -4685,13 +5214,13 @@
     <row r="126" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="19">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -4701,37 +5230,117 @@
     <row r="127" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="19">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
     </row>
+    <row r="128" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="19">
+        <v>5</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="19">
+        <v>6</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+    </row>
+    <row r="130" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="19">
+        <v>7</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+    </row>
+    <row r="131" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="19">
+        <v>8</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="19">
+        <v>9</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="19">
+        <v>10</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B95:B108"/>
-    <mergeCell ref="A95:A108"/>
-    <mergeCell ref="B109:B116"/>
-    <mergeCell ref="A117:H117"/>
-    <mergeCell ref="A109:A116"/>
-    <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="A79:H79"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="D56:D62"/>
-    <mergeCell ref="B63:B67"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:H44"/>
@@ -4740,6 +5349,22 @@
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="D56:D62"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="A79:H79"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="B95:B108"/>
+    <mergeCell ref="A95:A108"/>
+    <mergeCell ref="B109:B116"/>
+    <mergeCell ref="A123:H123"/>
+    <mergeCell ref="A109:A116"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" tooltip="Induction Session 6th June" display="https://youtu.be/g2J_MLzOuy0"/>
@@ -4845,16 +5470,16 @@
     <hyperlink ref="F109" r:id="rId101" tooltip="27th Sep Stats continued" display="https://youtu.be/IuJQwdg_JY4"/>
     <hyperlink ref="F110" r:id="rId102" tooltip="3rd Oct Live Class CLT" display="https://youtu.be/gT7Fr-BXGxc"/>
     <hyperlink ref="F111" r:id="rId103" tooltip="4th Oct Live Class" display="https://youtu.be/CYIkZrVhTHU"/>
-    <hyperlink ref="D118" r:id="rId104" tooltip="bikes.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748377"/>
-    <hyperlink ref="D119" r:id="rId105" tooltip="black_friday.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748379"/>
-    <hyperlink ref="D120" r:id="rId106" tooltip="Cristiano_Ronaldo.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748381"/>
-    <hyperlink ref="D121" r:id="rId107" tooltip="Diabetes.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748383"/>
-    <hyperlink ref="D122" r:id="rId108" tooltip="FIFA.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748385"/>
-    <hyperlink ref="D123" r:id="rId109" tooltip="FitBit.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748387"/>
-    <hyperlink ref="D124" r:id="rId110" tooltip="Flight_Price.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748389"/>
-    <hyperlink ref="D125" r:id="rId111" tooltip="forest_fires.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748391"/>
-    <hyperlink ref="D126" r:id="rId112" tooltip="HRPrediction.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748393"/>
-    <hyperlink ref="D127" r:id="rId113" tooltip="zomato.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748395"/>
+    <hyperlink ref="D124" r:id="rId104" tooltip="bikes.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748377"/>
+    <hyperlink ref="D125" r:id="rId105" tooltip="black_friday.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748379"/>
+    <hyperlink ref="D126" r:id="rId106" tooltip="Cristiano_Ronaldo.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748381"/>
+    <hyperlink ref="D127" r:id="rId107" tooltip="Diabetes.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748383"/>
+    <hyperlink ref="D128" r:id="rId108" tooltip="FIFA.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748385"/>
+    <hyperlink ref="D129" r:id="rId109" tooltip="FitBit.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748387"/>
+    <hyperlink ref="D130" r:id="rId110" tooltip="Flight_Price.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748389"/>
+    <hyperlink ref="D131" r:id="rId111" tooltip="forest_fires.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748391"/>
+    <hyperlink ref="D132" r:id="rId112" tooltip="HRPrediction.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748393"/>
+    <hyperlink ref="D133" r:id="rId113" tooltip="zomato.zip" display="https://canvas.instructure.com/courses/2412303/modules/items/38748395"/>
     <hyperlink ref="F16" r:id="rId114" tooltip="Python List 2" display="https://www.youtube.com/watch?v=Txd8HNEx9aQ"/>
     <hyperlink ref="F17" r:id="rId115" tooltip="Python Containers " display="https://youtu.be/NSf2RGCqBts"/>
     <hyperlink ref="F15" r:id="rId116" tooltip="Python String List 1" display="https://www.youtube.com/watch?v=U58HjHqTsdU&amp;feature=youtu.be"/>
@@ -4895,10 +5520,29 @@
     <hyperlink ref="F83" r:id="rId151" tooltip="Web Scraper class" display="https://www.youtube.com/watch?v=IxXdJf69E3k"/>
     <hyperlink ref="F80" r:id="rId152" display="https://www.youtube.com/watch?v=v2DjseL3DAQ"/>
     <hyperlink ref="F82" r:id="rId153" display="https://www.youtube.com/watch?v=rws2Vo2_vdM"/>
+    <hyperlink ref="G69" r:id="rId154" tooltip="4th Feb doubt clearing session " display="https://www.youtube.com/watch?v=ZQiDYtu_NZY&amp;feature=youtu.be"/>
+    <hyperlink ref="G70" r:id="rId155" tooltip="6th Feb mysql" display="https://www.youtube.com/watch?v=jCnOLUl6jYc&amp;feature=youtu.be"/>
+    <hyperlink ref="G71" r:id="rId156" tooltip="7th Feb mongo db " display="https://www.youtube.com/watch?v=fRvcO4UGWNE&amp;feature=youtu.be"/>
+    <hyperlink ref="G72" r:id="rId157" tooltip="11th Feb doubt clearing session" display="https://www.youtube.com/watch?v=nSwATo-lSAs&amp;feature=youtu.be"/>
+    <hyperlink ref="G73" r:id="rId158" tooltip="13th FEb API and Flask" display="https://www.youtube.com/watch?v=sz0beCe4dxg&amp;feature=youtu.be"/>
+    <hyperlink ref="G74" r:id="rId159" tooltip="14th Feb Feedback session" display="https://www.youtube.com/watch?v=8intMgalQxg&amp;feature=youtu.be"/>
+    <hyperlink ref="G80" r:id="rId160" tooltip="21st Feb review scrapper" display="https://www.youtube.com/watch?v=ABAIQlzQ41s&amp;feature=youtu.be"/>
+    <hyperlink ref="G81" r:id="rId161" tooltip="27th Feb review scrapper deployment in heroku and task " display="https://www.youtube.com/watch?v=M7-vmhSiLNM&amp;feature=youtu.be"/>
+    <hyperlink ref="G82" r:id="rId162" tooltip="28th Feb image scraper project" display="https://www.youtube.com/watch?v=LwHd0SaWuro&amp;feature=youtu.be"/>
+    <hyperlink ref="G95" r:id="rId163" tooltip="6th March live class  stats" display="https://www.youtube.com/watch?v=rnpDE44zRE8"/>
+    <hyperlink ref="G96" r:id="rId164" tooltip="7th march live class stats " display="https://www.youtube.com/watch?v=yHtR6cibx84https://www.youtube.com/watch?v=yHtR6cibx84"/>
+    <hyperlink ref="G84" r:id="rId165" tooltip="4th march live doubt clearing session " display="https://www.youtube.com/watch?v=dIBLnJ4XmCc"/>
+    <hyperlink ref="G97" r:id="rId166" tooltip="11th march live doubt clearing session " display="https://www.youtube.com/watch?v=6OBqEmnY5WU"/>
+    <hyperlink ref="G98" r:id="rId167" tooltip="13th march live class review scrapper awesome demo by learner " display="https://www.youtube.com/watch?v=mazz0P93aBY"/>
+    <hyperlink ref="G99" r:id="rId168" tooltip="14th march live class stats " display="https://www.youtube.com/watch?v=cQACzh-pmuU"/>
+    <hyperlink ref="G100" r:id="rId169" tooltip="18th March Doubt clearing session" display="https://canvas.instructure.com/courses/2412303/modules/items/44058007"/>
+    <hyperlink ref="G101" r:id="rId170" tooltip="review scrapper project heroku end to end demo by kavita" display="https://drive.google.com/file/d/1r11Mu0MBNUX59ckCrMlE5fq7jhWG3pWT/view?usp=sharing"/>
+    <hyperlink ref="G102" r:id="rId171" tooltip="review scrapper project aws by rohit " display="https://drive.google.com/file/d/1MnSAIlIuR7b-SQ05hU0Mvb3bdrrt5Jyr/view?usp=sharing"/>
+    <hyperlink ref="G103" r:id="rId172" tooltip="20th march live class stats " display="https://www.youtube.com/watch?v=9sNSxCoQ2dc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId154"/>
-  <legacyDrawing r:id="rId155"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId173"/>
+  <legacyDrawing r:id="rId174"/>
 </worksheet>
 </file>
 
@@ -4926,6 +5570,668 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:B31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.85546875" customWidth="1"/>
+    <col min="2" max="2" width="65" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>722</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>735</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>736</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>737</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>738</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>739</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>743</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" tooltip="Live session recording 22nd May" display="https://www.youtube.com/watch?v=T8VGvmfjEA4"/>
+    <hyperlink ref="B23" r:id="rId2" tooltip="Live session recording for 25th May" display="https://www.youtube.com/watch?v=_CAZMxaYYrc"/>
+    <hyperlink ref="B24" r:id="rId3" tooltip="Live session recording for 27th May" display="https://www.youtube.com/watch?v=fdHejoqOVas"/>
+    <hyperlink ref="B25" r:id="rId4" tooltip="Live session recording for 29th may" display="https://www.youtube.com/watch?v=73SNVnSnUAk"/>
+    <hyperlink ref="B26" r:id="rId5" tooltip="Live Session Recording for 1st June" display="https://www.youtube.com/watch?v=XdwPFRdpDDw&amp;t=31s"/>
+    <hyperlink ref="B27" r:id="rId6" tooltip="Live Session Recording for 3rd June" display="https://www.youtube.com/watch?v=Dq_IR3LnD-g"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="65.85546875" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>631</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>649</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>651</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>653</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>658</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>665</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>668</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>671</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>684</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>686</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>701</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>715</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>718</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" tooltip="27th April induction class recording" display="https://www.youtube.com/watch?v=HLvZWXQzpKA&amp;t=4492s"/>
+    <hyperlink ref="B12" r:id="rId2" tooltip="12th may live session recording" display="https://www.youtube.com/watch?v=JnNwMuEXXrs"/>
+    <hyperlink ref="B31" r:id="rId3" tooltip="29th April PowerBI_Lecture_1" display="https://www.youtube.com/watch?v=Vh0Z46YjzxQ&amp;t=7799s"/>
+    <hyperlink ref="B33" r:id="rId4" tooltip="PowerBI_Mac_Installation.pdf" display="https://canvas.instructure.com/courses/2412303/modules/items/40648577"/>
+    <hyperlink ref="B35" r:id="rId5" tooltip="Power BI_Windows_Installation_Without_a_Organizational_MailID.pdf" display="https://canvas.instructure.com/courses/2412303/modules/items/40648578"/>
+    <hyperlink ref="B41" r:id="rId6" tooltip="1st May recording" display="https://www.youtube.com/watch?v=rtIAIYrTpQY"/>
+    <hyperlink ref="B49" r:id="rId7" tooltip="4th may live session recording" display="https://www.youtube.com/watch?v=ocVOqSscCS8"/>
+    <hyperlink ref="B52" r:id="rId8" tooltip="6th May Live Session Recording" display="https://www.youtube.com/watch?v=AG7URWAy1sA&amp;t=22s"/>
+    <hyperlink ref="B55" r:id="rId9" tooltip="8th May Live Session Recording" display="https://www.youtube.com/watch?v=jiEBxTsaL-Y"/>
+    <hyperlink ref="B69" r:id="rId10" tooltip="13th may live session recordings" display="https://www.youtube.com/watch?v=7NiaHxve9s4"/>
+    <hyperlink ref="B71" r:id="rId11" tooltip="Live session recording 15th May" display="https://www.youtube.com/watch?v=BUVP4Ty6atE"/>
+    <hyperlink ref="B87" r:id="rId12" tooltip="Live session recording 18th May" display="https://www.youtube.com/watch?v=jhXgmJeb8XI"/>
+    <hyperlink ref="B102" r:id="rId13" tooltip="Live session recording for 20th May" display="https://www.youtube.com/watch?v=9XkKsNGiKec"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -5587,8 +6893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5666,10 +6972,15 @@
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C6" s="34"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C7" s="34"/>
+      <c r="F7" s="2" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C8" s="34" t="s">
@@ -5677,6 +6988,9 @@
       </c>
       <c r="D8" s="2" t="s">
         <v>536</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -5719,13 +7033,13 @@
         <v>539</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" ht="18" x14ac:dyDescent="0.25">
       <c r="C17" s="34"/>
     </row>
-    <row r="18" spans="3:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" ht="18" x14ac:dyDescent="0.25">
       <c r="C18" s="34"/>
     </row>
-    <row r="19" spans="3:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" ht="18" x14ac:dyDescent="0.25">
       <c r="C19" s="34" t="s">
         <v>540</v>
       </c>
@@ -5733,13 +7047,13 @@
         <v>539</v>
       </c>
     </row>
-    <row r="20" spans="3:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" ht="18" x14ac:dyDescent="0.25">
       <c r="C20" s="34"/>
     </row>
-    <row r="21" spans="3:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" ht="18" x14ac:dyDescent="0.25">
       <c r="C21" s="34"/>
     </row>
-    <row r="22" spans="3:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" ht="18" x14ac:dyDescent="0.25">
       <c r="C22" s="34" t="s">
         <v>541</v>
       </c>
@@ -5747,13 +7061,13 @@
         <v>539</v>
       </c>
     </row>
-    <row r="23" spans="3:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" ht="18" x14ac:dyDescent="0.25">
       <c r="C23" s="34"/>
     </row>
-    <row r="24" spans="3:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" ht="18" x14ac:dyDescent="0.25">
       <c r="C24" s="34"/>
     </row>
-    <row r="25" spans="3:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" ht="18" x14ac:dyDescent="0.25">
       <c r="C25" s="34" t="s">
         <v>542</v>
       </c>
@@ -5761,13 +7075,13 @@
         <v>539</v>
       </c>
     </row>
-    <row r="26" spans="3:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" ht="18" x14ac:dyDescent="0.25">
       <c r="C26" s="34"/>
     </row>
-    <row r="27" spans="3:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" ht="18" x14ac:dyDescent="0.25">
       <c r="C27" s="34"/>
     </row>
-    <row r="28" spans="3:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" ht="18" x14ac:dyDescent="0.25">
       <c r="C28" s="34" t="s">
         <v>543</v>
       </c>
@@ -5775,21 +7089,24 @@
         <v>539</v>
       </c>
     </row>
-    <row r="29" spans="3:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" ht="18" x14ac:dyDescent="0.25">
       <c r="C29" s="34"/>
     </row>
-    <row r="30" spans="3:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" ht="18" x14ac:dyDescent="0.25">
       <c r="C30" s="34"/>
     </row>
-    <row r="31" spans="3:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" ht="18" x14ac:dyDescent="0.25">
       <c r="C31" s="34" t="s">
         <v>544</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="32" spans="3:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" ht="18" x14ac:dyDescent="0.25">
       <c r="C32" s="34"/>
       <c r="D32" s="2" t="s">
         <v>550</v>
@@ -5950,9 +7267,13 @@
     <hyperlink ref="D52" r:id="rId20" tooltip="Zomato Restuarnat Price Prediction" display="https://drive.google.com/file/d/1JfNFbL1OUEQdijN3_kS8lLPfkZfdqULt/view?usp=sharing"/>
     <hyperlink ref="D45" r:id="rId21" tooltip="Fitbit" display="https://drive.google.com/file/d/1iQVDCu2H7AUKO9mTvqTq5FXzpzy4r12a/view?usp=sharing"/>
     <hyperlink ref="D49" r:id="rId22" tooltip="Sentiment Analysis" display="https://drive.google.com/file/d/1UcpRz0d9-ieE55hVEsjX9m80ZVVPz_uZ/view?usp=sharing"/>
+    <hyperlink ref="F6" r:id="rId23" tooltip="27th Feb live doubt clearing session " display="https://www.youtube.com/watch?v=2bnBcH9PeIQ&amp;feature=youtu.be"/>
+    <hyperlink ref="F7" r:id="rId24" tooltip="29th Feb live class project" display="https://www.youtube.com/watch?v=2LBDGsuHvLo&amp;feature=youtu.be"/>
+    <hyperlink ref="F8" r:id="rId25" tooltip="2nd may waffer project " display="https://www.youtube.com/watch?v=yaomGnl0hRQ"/>
+    <hyperlink ref="F31" r:id="rId26" tooltip="1st march live class " display="https://www.youtube.com/watch?v=g6aM-9O5O20&amp;feature=youtu.be"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId23"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -5960,7 +7281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -6776,8 +8097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6969,10 +8290,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7055,11 +8376,22 @@
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C7" s="3"/>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F8" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>620</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" tooltip="SpeechRecognitionBasedAttendaceSystem" display="https://drive.google.com/file/d/1Qq8cmX3wH85ouyWVXq5zHKPJfLsHI6v1/view?usp=sharing"/>
+    <hyperlink ref="F8" r:id="rId2" tooltip="Shredder Machine  Detection Code" display="https://drive.google.com/file/d/1jVjjKysw-Ekd4QNsveD7_skhvdmlCi4_/view"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/INeuron_Checklist.xlsx
+++ b/INeuron_Checklist.xlsx
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="773">
   <si>
     <t>Induction session recording</t>
   </si>
@@ -2454,12 +2454,33 @@
   <si>
     <t>20th march live class stats Links to an external site.</t>
   </si>
+  <si>
+    <t>21st march live class stats Links to an external site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25th March Doubt Clearing session </t>
+  </si>
+  <si>
+    <t>3rd april live class stats Links to an external site.</t>
+  </si>
+  <si>
+    <t>4th april live class stats Links to an external site.</t>
+  </si>
+  <si>
+    <t>8th april live doubt clearing seson Links to an external site.</t>
+  </si>
+  <si>
+    <t>10th april live class stats Links to an external site.</t>
+  </si>
+  <si>
+    <t>11th april live class EDA Links to an external site.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2576,6 +2597,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -2788,7 +2816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2808,7 +2836,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2880,6 +2907,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2889,17 +2934,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2916,42 +2967,31 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3240,8 +3280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E93" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:XFD127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3281,113 +3321,113 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3398,108 +3438,108 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="34" t="s">
         <v>567</v>
       </c>
-      <c r="G15" s="36"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="34" t="s">
         <v>563</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="36" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="35" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="49" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -3511,10 +3551,10 @@
       <c r="D17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>565</v>
       </c>
       <c r="H17" t="s">
@@ -3522,7 +3562,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
         <v>38</v>
@@ -3533,34 +3573,34 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="17" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="34" t="s">
         <v>568</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="37" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -3571,31 +3611,31 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
         <v>43</v>
@@ -3607,7 +3647,7 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
         <v>44</v>
@@ -3619,7 +3659,7 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="58" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3631,10 +3671,10 @@
       <c r="D25" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="16" t="s">
         <v>61</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -3645,7 +3685,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
         <v>55</v>
@@ -3653,10 +3693,10 @@
       <c r="D26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="16" t="s">
         <v>62</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -3667,13 +3707,13 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>127</v>
       </c>
       <c r="F27" s="6"/>
@@ -3683,13 +3723,13 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>127</v>
       </c>
       <c r="F28" s="6"/>
@@ -3699,31 +3739,31 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>124</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="16" t="s">
         <v>127</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -3732,7 +3772,7 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="49" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -3744,8 +3784,8 @@
       <c r="D32" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="35" t="s">
+      <c r="E32" s="39"/>
+      <c r="F32" s="34" t="s">
         <v>78</v>
       </c>
       <c r="G32" s="7"/>
@@ -3754,7 +3794,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="51"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
         <v>68</v>
@@ -3763,7 +3803,7 @@
         <v>75</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="34" t="s">
         <v>79</v>
       </c>
       <c r="G33" s="7"/>
@@ -3772,7 +3812,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="51"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
         <v>69</v>
@@ -3788,7 +3828,7 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="51"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
         <v>70</v>
@@ -3802,7 +3842,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
         <v>71</v>
@@ -3814,7 +3854,7 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="51"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
         <v>72</v>
@@ -3826,7 +3866,7 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="52"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
         <v>73</v>
@@ -3842,7 +3882,7 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="72" t="s">
+      <c r="A39" s="52" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -3866,7 +3906,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="72"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
         <v>83</v>
@@ -3874,7 +3914,7 @@
       <c r="D40" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="39" t="s">
         <v>128</v>
       </c>
       <c r="F40" s="7" t="s">
@@ -3886,7 +3926,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="72"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
         <v>84</v>
@@ -3898,7 +3938,7 @@
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="72"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
         <v>85</v>
@@ -3910,7 +3950,7 @@
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="72"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
         <v>86</v>
@@ -3922,229 +3962,229 @@
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A44" s="73" t="s">
+      <c r="A44" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="F45" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21" t="s">
+      <c r="G45" s="20"/>
+      <c r="H45" s="20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="75"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21" t="s">
+      <c r="A46" s="55"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="38" t="s">
+      <c r="E46" s="21"/>
+      <c r="F46" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21" t="s">
+      <c r="G46" s="20"/>
+      <c r="H46" s="20" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="75"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="21" t="s">
+      <c r="A47" s="55"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="38" t="s">
+      <c r="F47" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23" t="s">
+      <c r="G47" s="22"/>
+      <c r="H47" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="75"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="21" t="s">
+      <c r="A48" s="55"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="38" t="s">
+      <c r="F48" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="39" t="s">
+      <c r="G48" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="H48" s="22" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="75"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24" t="s">
+      <c r="A49" s="55"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="F49" s="38" t="s">
+      <c r="F49" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="39" t="s">
+      <c r="G49" s="38" t="s">
         <v>583</v>
       </c>
-      <c r="H49" s="23" t="s">
+      <c r="H49" s="22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="75"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="24" t="s">
+      <c r="A50" s="55"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="39" t="s">
+      <c r="F50" s="38" t="s">
         <v>578</v>
       </c>
-      <c r="G50" s="39" t="s">
+      <c r="G50" s="38" t="s">
         <v>585</v>
       </c>
-      <c r="H50" s="23"/>
+      <c r="H50" s="22"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="75"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="24" t="s">
+      <c r="A51" s="55"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="35" t="s">
+      <c r="F51" s="34" t="s">
         <v>579</v>
       </c>
-      <c r="G51" s="39" t="s">
+      <c r="G51" s="38" t="s">
         <v>584</v>
       </c>
-      <c r="H51" s="23"/>
+      <c r="H51" s="22"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="75"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="24" t="s">
+      <c r="A52" s="55"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="35" t="s">
+      <c r="F52" s="34" t="s">
         <v>580</v>
       </c>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="75"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="35" t="s">
+      <c r="A53" s="55"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="34" t="s">
         <v>581</v>
       </c>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="75"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="76"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="65" t="s">
+      <c r="A56" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="68" t="s">
+      <c r="B56" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="65" t="s">
+      <c r="C56" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="69" t="s">
+      <c r="D56" s="64" t="s">
         <v>115</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F56" s="41" t="s">
+      <c r="F56" s="40" t="s">
         <v>586</v>
       </c>
-      <c r="G56" s="41" t="s">
+      <c r="G56" s="40" t="s">
         <v>592</v>
       </c>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="69"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="41" t="s">
+      <c r="F57" s="40" t="s">
         <v>587</v>
       </c>
-      <c r="G57" s="41" t="s">
+      <c r="G57" s="40" t="s">
         <v>593</v>
       </c>
       <c r="H57" s="6" t="s">
@@ -4152,24 +4192,24 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="69"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="64"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="41" t="s">
+      <c r="F58" s="40" t="s">
         <v>588</v>
       </c>
-      <c r="G58" s="23"/>
+      <c r="G58" s="22"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="69"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="64"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="41" t="s">
+      <c r="F59" s="40" t="s">
         <v>589</v>
       </c>
       <c r="G59" s="6"/>
@@ -4178,44 +4218,44 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="65"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="69"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="64"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="41" t="s">
+      <c r="F60" s="40" t="s">
         <v>116</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="65"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="69"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="64"/>
       <c r="E61" s="6"/>
-      <c r="F61" s="41" t="s">
+      <c r="F61" s="40" t="s">
         <v>117</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="65"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="69"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="64"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="B63" s="70" t="s">
+      <c r="B63" s="65" t="s">
         <v>137</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -4227,10 +4267,10 @@
       <c r="E63" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="42" t="s">
+      <c r="F63" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="G63" s="41" t="s">
+      <c r="G63" s="40" t="s">
         <v>594</v>
       </c>
       <c r="H63" s="6" t="s">
@@ -4238,8 +4278,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
-      <c r="B64" s="71"/>
+      <c r="A64" s="61"/>
+      <c r="B64" s="66"/>
       <c r="C64" s="7" t="s">
         <v>138</v>
       </c>
@@ -4252,7 +4292,7 @@
       <c r="F64" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G64" s="41" t="s">
+      <c r="G64" s="40" t="s">
         <v>595</v>
       </c>
       <c r="H64" s="6" t="s">
@@ -4260,8 +4300,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="67"/>
-      <c r="B65" s="71"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="66"/>
       <c r="C65" s="7" t="s">
         <v>139</v>
       </c>
@@ -4280,8 +4320,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="67"/>
-      <c r="B66" s="71"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="7" t="s">
         <v>140</v>
       </c>
@@ -4298,140 +4338,140 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="25" t="s">
+      <c r="A67" s="62"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
     </row>
     <row r="68" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="60" t="s">
+      <c r="A68" s="67" t="s">
         <v>571</v>
       </c>
-      <c r="B68" s="61"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="62"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="69"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="27" t="s">
+      <c r="B69" s="22"/>
+      <c r="C69" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="42" t="s">
+      <c r="E69" s="22"/>
+      <c r="F69" s="41" t="s">
         <v>172</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="H69" s="23" t="s">
+      <c r="H69" s="22" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="63"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="21" t="s">
+      <c r="A70" s="70"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E70" s="23"/>
-      <c r="F70" s="22" t="s">
+      <c r="E70" s="22"/>
+      <c r="F70" s="21" t="s">
         <v>173</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="H70" s="23" t="s">
+      <c r="H70" s="22" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="63"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="21" t="s">
+      <c r="A71" s="70"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="D71" s="22" t="s">
+      <c r="D71" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E71" s="23"/>
-      <c r="F71" s="22" t="s">
+      <c r="E71" s="22"/>
+      <c r="F71" s="21" t="s">
         <v>174</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="H71" s="23" t="s">
+      <c r="H71" s="22" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="63"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="21" t="s">
+      <c r="A72" s="70"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="E72" s="23"/>
-      <c r="F72" s="22" t="s">
+      <c r="E72" s="22"/>
+      <c r="F72" s="21" t="s">
         <v>176</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="H72" s="23" t="s">
+      <c r="H72" s="22" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="63"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="21" t="s">
+      <c r="A73" s="70"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E73" s="23"/>
-      <c r="F73" s="22" t="s">
+      <c r="E73" s="22"/>
+      <c r="F73" s="21" t="s">
         <v>175</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="H73" s="23" t="s">
+      <c r="H73" s="22" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="63"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="21" t="s">
+      <c r="A74" s="70"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23" t="s">
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22" t="s">
         <v>205</v>
       </c>
       <c r="G74" s="2" t="s">
@@ -4442,69 +4482,69 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="63"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="21" t="s">
+      <c r="A75" s="70"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23" t="s">
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22" t="s">
         <v>598</v>
       </c>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="63"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="21" t="s">
+      <c r="A76" s="70"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="63"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="21" t="s">
+      <c r="A77" s="70"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="63"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23" t="s">
+      <c r="A78" s="70"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
     </row>
     <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="64" t="s">
+      <c r="A79" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="B79" s="64"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="64"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="71"/>
     </row>
     <row r="80" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="65" t="s">
+      <c r="A80" s="57" t="s">
         <v>190</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -4519,10 +4559,10 @@
       <c r="E80" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="F80" s="43" t="s">
+      <c r="F80" s="42" t="s">
         <v>600</v>
       </c>
-      <c r="G80" s="43" t="s">
+      <c r="G80" s="42" t="s">
         <v>610</v>
       </c>
       <c r="H80" s="6" t="s">
@@ -4530,7 +4570,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="65"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="12"/>
       <c r="C81" s="7" t="s">
         <v>185</v>
@@ -4541,10 +4581,10 @@
       <c r="E81" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F81" s="44" t="s">
+      <c r="F81" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="G81" s="43" t="s">
+      <c r="G81" s="42" t="s">
         <v>611</v>
       </c>
       <c r="H81" s="6" t="s">
@@ -4552,7 +4592,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="65"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="12"/>
       <c r="C82" s="7" t="s">
         <v>186</v>
@@ -4564,7 +4604,7 @@
       <c r="F82" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="G82" s="48" t="s">
+      <c r="G82" s="47" t="s">
         <v>612</v>
       </c>
       <c r="H82" s="6" t="s">
@@ -4572,7 +4612,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="65"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="12"/>
       <c r="C83" s="7" t="s">
         <v>187</v>
@@ -4590,7 +4630,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="65"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="12"/>
       <c r="C84" s="7" t="s">
         <v>188</v>
@@ -4599,7 +4639,7 @@
         <v>199</v>
       </c>
       <c r="E84" s="6"/>
-      <c r="F84" s="47" t="s">
+      <c r="F84" s="46" t="s">
         <v>194</v>
       </c>
       <c r="G84" s="2" t="s">
@@ -4610,7 +4650,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="65"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="12"/>
       <c r="C85" s="7" t="s">
         <v>189</v>
@@ -4692,54 +4732,54 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="B92" s="28" t="s">
+      <c r="B92" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="C92" s="28" t="s">
+      <c r="C92" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="D92" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="29" t="s">
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="H92" s="28"/>
+      <c r="H92" s="27"/>
     </row>
     <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="28"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28" t="s">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="28"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="27"/>
     </row>
     <row r="94" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="66" t="s">
+      <c r="A94" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="B94" s="66"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="66"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="66"/>
-      <c r="H94" s="66"/>
+      <c r="B94" s="72"/>
+      <c r="C94" s="72"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="72"/>
+      <c r="H94" s="72"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="53" t="s">
+      <c r="A95" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="B95" s="50" t="s">
+      <c r="B95" s="49" t="s">
         <v>217</v>
       </c>
       <c r="C95" s="7" t="s">
@@ -4751,10 +4791,10 @@
       <c r="E95" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="F95" s="47" t="s">
+      <c r="F95" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="G95" s="41" t="s">
+      <c r="G95" s="40" t="s">
         <v>613</v>
       </c>
       <c r="H95" s="6" t="s">
@@ -4762,8 +4802,8 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="54"/>
-      <c r="B96" s="51"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="50"/>
       <c r="C96" s="7" t="s">
         <v>219</v>
       </c>
@@ -4773,10 +4813,10 @@
       <c r="E96" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="F96" s="11" t="s">
+      <c r="F96" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="G96" s="41" t="s">
+      <c r="G96" s="40" t="s">
         <v>614</v>
       </c>
       <c r="H96" s="6" t="s">
@@ -4784,8 +4824,8 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="54"/>
-      <c r="B97" s="51"/>
+      <c r="A97" s="59"/>
+      <c r="B97" s="50"/>
       <c r="C97" s="7" t="s">
         <v>220</v>
       </c>
@@ -4793,10 +4833,10 @@
         <v>228</v>
       </c>
       <c r="E97" s="6"/>
-      <c r="F97" s="11" t="s">
+      <c r="F97" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="G97" s="41" t="s">
+      <c r="G97" s="40" t="s">
         <v>749</v>
       </c>
       <c r="H97" s="6" t="s">
@@ -4804,8 +4844,8 @@
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="54"/>
-      <c r="B98" s="51"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="50"/>
       <c r="C98" s="7" t="s">
         <v>221</v>
       </c>
@@ -4822,8 +4862,8 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="54"/>
-      <c r="B99" s="51"/>
+      <c r="A99" s="59"/>
+      <c r="B99" s="50"/>
       <c r="C99" s="7" t="s">
         <v>222</v>
       </c>
@@ -4832,7 +4872,7 @@
       <c r="F99" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G99" s="41" t="s">
+      <c r="G99" s="40" t="s">
         <v>751</v>
       </c>
       <c r="H99" s="6" t="s">
@@ -4840,8 +4880,8 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="54"/>
-      <c r="B100" s="51"/>
+      <c r="A100" s="59"/>
+      <c r="B100" s="50"/>
       <c r="C100" s="7" t="s">
         <v>223</v>
       </c>
@@ -4850,7 +4890,7 @@
       <c r="F100" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="G100" s="41" t="s">
+      <c r="G100" s="40" t="s">
         <v>752</v>
       </c>
       <c r="H100" s="6" t="s">
@@ -4858,8 +4898,8 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="54"/>
-      <c r="B101" s="51"/>
+      <c r="A101" s="59"/>
+      <c r="B101" s="50"/>
       <c r="C101" s="7" t="s">
         <v>224</v>
       </c>
@@ -4876,8 +4916,8 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="54"/>
-      <c r="B102" s="51"/>
+      <c r="A102" s="59"/>
+      <c r="B102" s="50"/>
       <c r="C102" s="7" t="s">
         <v>225</v>
       </c>
@@ -4894,82 +4934,92 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="54"/>
-      <c r="B103" s="51"/>
+      <c r="A103" s="59"/>
+      <c r="B103" s="50"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="41" t="s">
+      <c r="G103" s="40" t="s">
         <v>765</v>
       </c>
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="54"/>
-      <c r="B104" s="51"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="50"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
+      <c r="G104" s="2" t="s">
+        <v>766</v>
+      </c>
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="54"/>
-      <c r="B105" s="51"/>
+      <c r="A105" s="59"/>
+      <c r="B105" s="50"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="G105" s="6"/>
+      <c r="G105" s="2" t="s">
+        <v>767</v>
+      </c>
       <c r="H105" s="6" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="54"/>
-      <c r="B106" s="51"/>
+      <c r="A106" s="59"/>
+      <c r="B106" s="50"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="G106" s="6"/>
+      <c r="G106" s="2" t="s">
+        <v>768</v>
+      </c>
       <c r="H106" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="54"/>
-      <c r="B107" s="51"/>
+      <c r="A107" s="59"/>
+      <c r="B107" s="50"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="G107" s="6"/>
+      <c r="G107" s="2" t="s">
+        <v>769</v>
+      </c>
       <c r="H107" s="6" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="55"/>
-      <c r="B108" s="52"/>
+      <c r="A108" s="60"/>
+      <c r="B108" s="51"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
+      <c r="G108" s="2" t="s">
+        <v>770</v>
+      </c>
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="56"/>
-      <c r="B109" s="56" t="s">
+      <c r="A109" s="62"/>
+      <c r="B109" s="62" t="s">
         <v>217</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -4984,14 +5034,16 @@
       <c r="F109" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="G109" s="6"/>
+      <c r="G109" s="2" t="s">
+        <v>771</v>
+      </c>
       <c r="H109" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="57"/>
-      <c r="B110" s="57"/>
+      <c r="A110" s="73"/>
+      <c r="B110" s="73"/>
       <c r="C110" s="7" t="s">
         <v>255</v>
       </c>
@@ -5004,14 +5056,16 @@
       <c r="F110" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="G110" s="6"/>
+      <c r="G110" s="2" t="s">
+        <v>772</v>
+      </c>
       <c r="H110" s="6" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="57"/>
-      <c r="B111" s="57"/>
+      <c r="A111" s="73"/>
+      <c r="B111" s="73"/>
       <c r="C111" s="7" t="s">
         <v>256</v>
       </c>
@@ -5028,8 +5082,8 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="57"/>
-      <c r="B112" s="57"/>
+      <c r="A112" s="73"/>
+      <c r="B112" s="73"/>
       <c r="C112" s="7" t="s">
         <v>257</v>
       </c>
@@ -5040,8 +5094,8 @@
       <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="57"/>
-      <c r="B113" s="57"/>
+      <c r="A113" s="73"/>
+      <c r="B113" s="73"/>
       <c r="C113" s="7" t="s">
         <v>258</v>
       </c>
@@ -5054,8 +5108,8 @@
       <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="57"/>
-      <c r="B114" s="57"/>
+      <c r="A114" s="73"/>
+      <c r="B114" s="73"/>
       <c r="C114" s="7" t="s">
         <v>259</v>
       </c>
@@ -5066,8 +5120,8 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="57"/>
-      <c r="B115" s="57"/>
+      <c r="A115" s="73"/>
+      <c r="B115" s="73"/>
       <c r="C115" s="7" t="s">
         <v>260</v>
       </c>
@@ -5078,8 +5132,8 @@
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="58"/>
-      <c r="B116" s="58"/>
+      <c r="A116" s="74"/>
+      <c r="B116" s="74"/>
       <c r="C116" s="7" t="s">
         <v>261</v>
       </c>
@@ -5090,114 +5144,114 @@
       <c r="H116" s="6"/>
     </row>
     <row r="117" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="45"/>
+      <c r="A117" s="44"/>
       <c r="B117" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="C117" s="46"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="28" t="s">
+      <c r="C117" s="45"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27" t="s">
         <v>602</v>
       </c>
-      <c r="G117" s="28"/>
-      <c r="H117" s="28"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="45"/>
-      <c r="B118" s="46"/>
-      <c r="C118" s="46"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
+      <c r="A118" s="44"/>
+      <c r="B118" s="45"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
     </row>
     <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="45"/>
-      <c r="B119" s="46" t="s">
+      <c r="A119" s="44"/>
+      <c r="B119" s="45" t="s">
         <v>756</v>
       </c>
-      <c r="C119" s="46"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="28" t="s">
+      <c r="C119" s="45"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27" t="s">
         <v>758</v>
       </c>
-      <c r="G119" s="28" t="s">
+      <c r="G119" s="27" t="s">
         <v>762</v>
       </c>
-      <c r="H119" s="28"/>
+      <c r="H119" s="27"/>
     </row>
     <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="45"/>
-      <c r="B120" s="46"/>
-      <c r="C120" s="46"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="28" t="s">
+      <c r="A120" s="44"/>
+      <c r="B120" s="45"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27" t="s">
         <v>759</v>
       </c>
-      <c r="G120" s="28" t="s">
+      <c r="G120" s="27" t="s">
         <v>763</v>
       </c>
-      <c r="H120" s="28"/>
+      <c r="H120" s="27"/>
     </row>
     <row r="121" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="45"/>
-      <c r="B121" s="46"/>
-      <c r="C121" s="46"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28" t="s">
+      <c r="A121" s="44"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27" t="s">
         <v>761</v>
       </c>
-      <c r="G121" s="28" t="s">
+      <c r="G121" s="27" t="s">
         <v>757</v>
       </c>
-      <c r="H121" s="28"/>
+      <c r="H121" s="27"/>
     </row>
     <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="45"/>
-      <c r="B122" s="46"/>
-      <c r="C122" s="46"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28" t="s">
+      <c r="A122" s="44"/>
+      <c r="B122" s="45"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27" t="s">
         <v>760</v>
       </c>
-      <c r="G122" s="28" t="s">
+      <c r="G122" s="27" t="s">
         <v>764</v>
       </c>
-      <c r="H122" s="28"/>
+      <c r="H122" s="27"/>
     </row>
     <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="59" t="s">
+      <c r="A123" s="75" t="s">
         <v>273</v>
       </c>
-      <c r="B123" s="59"/>
-      <c r="C123" s="59"/>
-      <c r="D123" s="59"/>
-      <c r="E123" s="59"/>
-      <c r="F123" s="59"/>
-      <c r="G123" s="59"/>
-      <c r="H123" s="59"/>
-    </row>
-    <row r="124" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
-      <c r="B124" s="19">
+      <c r="B123" s="75"/>
+      <c r="C123" s="75"/>
+      <c r="D123" s="75"/>
+      <c r="E123" s="75"/>
+      <c r="F123" s="75"/>
+      <c r="G123" s="75"/>
+      <c r="H123" s="75"/>
+    </row>
+    <row r="124" spans="1:8" s="80" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="76"/>
+      <c r="B124" s="77">
         <v>1</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="79" t="s">
         <v>284</v>
       </c>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
+      <c r="E124" s="76"/>
+      <c r="F124" s="76"/>
+      <c r="G124" s="76"/>
+      <c r="H124" s="76"/>
     </row>
     <row r="125" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
-      <c r="B125" s="19">
+      <c r="B125" s="18">
         <v>2</v>
       </c>
       <c r="C125" s="6" t="s">
@@ -5211,41 +5265,41 @@
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
-      <c r="B126" s="19">
+    <row r="126" spans="1:8" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="81"/>
+      <c r="B126" s="82">
         <v>3</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="78" t="s">
         <v>276</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="83" t="s">
         <v>286</v>
       </c>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-    </row>
-    <row r="127" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
-      <c r="B127" s="19">
+      <c r="E126" s="81"/>
+      <c r="F126" s="81"/>
+      <c r="G126" s="81"/>
+      <c r="H126" s="81"/>
+    </row>
+    <row r="127" spans="1:8" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="81"/>
+      <c r="B127" s="82">
         <v>4</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="83" t="s">
         <v>287</v>
       </c>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
+      <c r="E127" s="81"/>
+      <c r="F127" s="81"/>
+      <c r="G127" s="81"/>
+      <c r="H127" s="81"/>
     </row>
     <row r="128" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
-      <c r="B128" s="19">
+      <c r="B128" s="18">
         <v>5</v>
       </c>
       <c r="C128" s="6" t="s">
@@ -5261,7 +5315,7 @@
     </row>
     <row r="129" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
-      <c r="B129" s="19">
+      <c r="B129" s="18">
         <v>6</v>
       </c>
       <c r="C129" s="6" t="s">
@@ -5277,7 +5331,7 @@
     </row>
     <row r="130" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
-      <c r="B130" s="19">
+      <c r="B130" s="18">
         <v>7</v>
       </c>
       <c r="C130" s="6" t="s">
@@ -5293,7 +5347,7 @@
     </row>
     <row r="131" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
-      <c r="B131" s="19">
+      <c r="B131" s="18">
         <v>8</v>
       </c>
       <c r="C131" s="6" t="s">
@@ -5309,7 +5363,7 @@
     </row>
     <row r="132" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
-      <c r="B132" s="19">
+      <c r="B132" s="18">
         <v>9</v>
       </c>
       <c r="C132" s="6" t="s">
@@ -5325,7 +5379,7 @@
     </row>
     <row r="133" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
-      <c r="B133" s="19">
+      <c r="B133" s="18">
         <v>10</v>
       </c>
       <c r="C133" s="6" t="s">
@@ -5341,6 +5395,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B95:B108"/>
+    <mergeCell ref="A95:A108"/>
+    <mergeCell ref="B109:B116"/>
+    <mergeCell ref="A123:H123"/>
+    <mergeCell ref="A109:A116"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="A79:H79"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="D56:D62"/>
+    <mergeCell ref="B63:B67"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:H44"/>
@@ -5349,22 +5419,6 @@
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="D56:D62"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="A79:H79"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="B95:B108"/>
-    <mergeCell ref="A95:A108"/>
-    <mergeCell ref="B109:B116"/>
-    <mergeCell ref="A123:H123"/>
-    <mergeCell ref="A109:A116"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" tooltip="Induction Session 6th June" display="https://youtu.be/g2J_MLzOuy0"/>
@@ -5539,10 +5593,18 @@
     <hyperlink ref="G101" r:id="rId170" tooltip="review scrapper project heroku end to end demo by kavita" display="https://drive.google.com/file/d/1r11Mu0MBNUX59ckCrMlE5fq7jhWG3pWT/view?usp=sharing"/>
     <hyperlink ref="G102" r:id="rId171" tooltip="review scrapper project aws by rohit " display="https://drive.google.com/file/d/1MnSAIlIuR7b-SQ05hU0Mvb3bdrrt5Jyr/view?usp=sharing"/>
     <hyperlink ref="G103" r:id="rId172" tooltip="20th march live class stats " display="https://www.youtube.com/watch?v=9sNSxCoQ2dc"/>
+    <hyperlink ref="D92" r:id="rId173"/>
+    <hyperlink ref="G104" r:id="rId174" tooltip="21st march live class stats " display="https://www.youtube.com/watch?v=TxsMItyQC-c"/>
+    <hyperlink ref="G105" r:id="rId175" tooltip="25th March Doubt Clearing session" display="https://canvas.instructure.com/courses/2412303/modules/items/44524357"/>
+    <hyperlink ref="G106" r:id="rId176" tooltip="3rd april live class stats" display="https://www.youtube.com/watch?v=nYa3c2x75Qw"/>
+    <hyperlink ref="G107" r:id="rId177" tooltip="4th april live class stats" display="https://www.youtube.com/watch?v=Vdaz3wQDmLw"/>
+    <hyperlink ref="G108" r:id="rId178" tooltip="8th april live doubt clearing seson" display="https://www.youtube.com/watch?v=m0WpW6jdDAo"/>
+    <hyperlink ref="G109" r:id="rId179" tooltip="10th april live class stats" display="https://www.youtube.com/watch?v=Gn8GKiJx864"/>
+    <hyperlink ref="G110" r:id="rId180" tooltip="11th april live class EDA " display="https://www.youtube.com/watch?v=5KZ7RQjZUns"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId173"/>
-  <legacyDrawing r:id="rId174"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId181"/>
+  <legacyDrawing r:id="rId182"/>
 </worksheet>
 </file>
 
@@ -5744,10 +5806,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>624</v>
       </c>
     </row>
@@ -6266,7 +6328,7 @@
       <c r="A3" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6350,7 +6412,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6488,7 +6550,7 @@
     </row>
     <row r="22" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>326</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -6584,7 +6646,7 @@
     </row>
     <row r="35" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>377</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -6651,7 +6713,7 @@
     </row>
     <row r="45" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>378</v>
       </c>
       <c r="H46" t="s">
@@ -6665,7 +6727,7 @@
       <c r="D47" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="E47" s="30" t="s">
         <v>395</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -6723,7 +6785,7 @@
     </row>
     <row r="55" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>401</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -6732,7 +6794,7 @@
       <c r="D56" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E56" s="32" t="s">
+      <c r="E56" s="31" t="s">
         <v>409</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -6782,7 +6844,7 @@
     </row>
     <row r="63" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="17" t="s">
         <v>419</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -6934,7 +6996,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>510</v>
       </c>
     </row>
@@ -6945,7 +7007,7 @@
       <c r="B4" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>511</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -6959,7 +7021,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C5" s="34"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="2" t="s">
         <v>513</v>
       </c>
@@ -6971,19 +7033,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C6" s="34"/>
+      <c r="C6" s="33"/>
       <c r="F6" s="2" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C7" s="34"/>
+      <c r="C7" s="33"/>
       <c r="F7" s="2" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>535</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -6994,7 +7056,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C9" s="34"/>
+      <c r="C9" s="33"/>
       <c r="F9" s="2" t="s">
         <v>545</v>
       </c>
@@ -7003,13 +7065,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C10" s="34"/>
+      <c r="C10" s="33"/>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C11" s="34"/>
+      <c r="C11" s="33"/>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>537</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -7017,16 +7079,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C13" s="34"/>
+      <c r="C13" s="33"/>
     </row>
     <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C14" s="34"/>
+      <c r="C14" s="33"/>
     </row>
     <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C15" s="34"/>
+      <c r="C15" s="33"/>
     </row>
     <row r="16" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>538</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -7034,13 +7096,13 @@
       </c>
     </row>
     <row r="17" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C17" s="34"/>
+      <c r="C17" s="33"/>
     </row>
     <row r="18" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C18" s="34"/>
+      <c r="C18" s="33"/>
     </row>
     <row r="19" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>540</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -7048,13 +7110,13 @@
       </c>
     </row>
     <row r="20" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C20" s="34"/>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C21" s="34"/>
+      <c r="C21" s="33"/>
     </row>
     <row r="22" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>541</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -7062,13 +7124,13 @@
       </c>
     </row>
     <row r="23" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C23" s="34"/>
+      <c r="C23" s="33"/>
     </row>
     <row r="24" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C24" s="34"/>
+      <c r="C24" s="33"/>
     </row>
     <row r="25" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="33" t="s">
         <v>542</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -7076,13 +7138,13 @@
       </c>
     </row>
     <row r="26" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C26" s="34"/>
+      <c r="C26" s="33"/>
     </row>
     <row r="27" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C27" s="34"/>
+      <c r="C27" s="33"/>
     </row>
     <row r="28" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="33" t="s">
         <v>543</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -7090,13 +7152,13 @@
       </c>
     </row>
     <row r="29" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C29" s="34"/>
+      <c r="C29" s="33"/>
     </row>
     <row r="30" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C30" s="34"/>
+      <c r="C30" s="33"/>
     </row>
     <row r="31" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="33" t="s">
         <v>544</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -7107,16 +7169,16 @@
       </c>
     </row>
     <row r="32" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C32" s="34"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="2" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C33" s="34"/>
+      <c r="C33" s="33"/>
     </row>
     <row r="34" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="33" t="s">
         <v>549</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -7124,13 +7186,13 @@
       </c>
     </row>
     <row r="35" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C35" s="34"/>
+      <c r="C35" s="33"/>
     </row>
     <row r="36" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C36" s="34"/>
+      <c r="C36" s="33"/>
     </row>
     <row r="37" spans="3:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="33" t="s">
         <v>551</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -7138,10 +7200,10 @@
       </c>
     </row>
     <row r="38" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C38" s="34"/>
+      <c r="C38" s="33"/>
     </row>
     <row r="39" spans="3:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="33" t="s">
         <v>553</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -7149,13 +7211,13 @@
       </c>
     </row>
     <row r="40" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C40" s="34"/>
+      <c r="C40" s="33"/>
     </row>
     <row r="41" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C41" s="34"/>
+      <c r="C41" s="33"/>
     </row>
     <row r="42" spans="3:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="33" t="s">
         <v>555</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -7163,13 +7225,13 @@
       </c>
     </row>
     <row r="43" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C43" s="34"/>
+      <c r="C43" s="33"/>
     </row>
     <row r="44" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C44" s="34"/>
+      <c r="C44" s="33"/>
     </row>
     <row r="45" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="33" t="s">
         <v>557</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -7177,16 +7239,16 @@
       </c>
     </row>
     <row r="46" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C46" s="34"/>
+      <c r="C46" s="33"/>
     </row>
     <row r="47" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C47" s="34"/>
+      <c r="C47" s="33"/>
     </row>
     <row r="48" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C48" s="34"/>
+      <c r="C48" s="33"/>
     </row>
     <row r="49" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="33" t="s">
         <v>559</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -7194,13 +7256,13 @@
       </c>
     </row>
     <row r="50" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C50" s="34"/>
+      <c r="C50" s="33"/>
     </row>
     <row r="51" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C51" s="34"/>
+      <c r="C51" s="33"/>
     </row>
     <row r="52" spans="3:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="33" t="s">
         <v>561</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -7208,40 +7270,40 @@
       </c>
     </row>
     <row r="53" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C53" s="34"/>
+      <c r="C53" s="33"/>
     </row>
     <row r="54" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C54" s="34"/>
+      <c r="C54" s="33"/>
     </row>
     <row r="55" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C55" s="34"/>
+      <c r="C55" s="33"/>
     </row>
     <row r="56" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C56" s="34"/>
+      <c r="C56" s="33"/>
     </row>
     <row r="57" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C57" s="34"/>
+      <c r="C57" s="33"/>
     </row>
     <row r="58" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C58" s="34"/>
+      <c r="C58" s="33"/>
     </row>
     <row r="59" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C59" s="34"/>
+      <c r="C59" s="33"/>
     </row>
     <row r="60" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C60" s="34"/>
+      <c r="C60" s="33"/>
     </row>
     <row r="61" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C61" s="34"/>
+      <c r="C61" s="33"/>
     </row>
     <row r="62" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C62" s="34"/>
+      <c r="C62" s="33"/>
     </row>
     <row r="63" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C63" s="34"/>
+      <c r="C63" s="33"/>
     </row>
     <row r="64" spans="3:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C64" s="34"/>
+      <c r="C64" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7432,7 +7494,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>454</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -7458,7 +7520,7 @@
       <c r="D3" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E3" s="33"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="2" t="s">
         <v>436</v>
       </c>
@@ -7518,7 +7580,7 @@
     </row>
     <row r="13" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
+      <c r="B14" s="17"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -7557,7 +7619,7 @@
     </row>
     <row r="26" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -7590,12 +7652,12 @@
     </row>
     <row r="36" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="18"/>
+      <c r="B37" s="17"/>
     </row>
     <row r="38" spans="2:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="31"/>
+      <c r="E38" s="30"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="2:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -7620,10 +7682,10 @@
     </row>
     <row r="46" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="18"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="3"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="32"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -7645,7 +7707,7 @@
     </row>
     <row r="54" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="18"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="3"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -7758,7 +7820,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="3" t="s">
         <v>445</v>
       </c>
@@ -7786,7 +7848,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="3" t="s">
         <v>450</v>
       </c>
@@ -7810,10 +7872,10 @@
     </row>
     <row r="18" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="32"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -7835,7 +7897,7 @@
     </row>
     <row r="26" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -7959,7 +8021,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
         <v>460</v>
@@ -7987,7 +8049,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -8018,7 +8080,7 @@
     </row>
     <row r="18" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="1" t="s">
         <v>470</v>
       </c>
@@ -8047,7 +8109,7 @@
     </row>
     <row r="26" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -8183,7 +8245,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
         <v>480</v>
       </c>
@@ -8343,7 +8405,7 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="3" t="s">
         <v>517</v>
       </c>
